--- a/Datasets/Velocidad Media de bajada de Internet por provincia y nacional.xlsx
+++ b/Datasets/Velocidad Media de bajada de Internet por provincia y nacional.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsdrajlin/Library/CloudStorage/GoogleDrive-dsdrajlin@gmail.com/Mi unidad/_Archive/Henry/LABS/PI DA/PI-02/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8B38E4-B586-2A43-990E-F61EA767942D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CFF684-E728-DA44-BE4B-6B9F0108E89A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Velocidad-media-totales" sheetId="14" r:id="rId1"/>
     <sheet name="Velocidad-media-provincia" sheetId="16" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Velocidad-media-provincia'!$A$1:$D$865</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Velocidad-media-provincia'!$A$1:$F$865</definedName>
     <definedName name="trim">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="65">
   <si>
     <t>Año</t>
   </si>
@@ -219,6 +219,9 @@
   <si>
     <t>Oct-Dic 2022</t>
   </si>
+  <si>
+    <t>Periodo</t>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +232,7 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,11 +692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="4"/>
     <col min="2" max="2" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -701,7 +704,7 @@
     <col min="4" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -711,11 +714,11 @@
       <c r="C1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2014</v>
       </c>
@@ -729,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2014</v>
       </c>
@@ -743,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2014</v>
       </c>
@@ -757,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2014</v>
       </c>
@@ -771,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2015</v>
       </c>
@@ -785,7 +788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2015</v>
       </c>
@@ -799,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2015</v>
       </c>
@@ -813,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2015</v>
       </c>
@@ -827,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2016</v>
       </c>
@@ -841,7 +844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2016</v>
       </c>
@@ -855,7 +858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -869,7 +872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2016</v>
       </c>
@@ -883,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2017</v>
       </c>
@@ -897,7 +900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2017</v>
       </c>
@@ -911,7 +914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2017</v>
       </c>
@@ -925,7 +928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2017</v>
       </c>
@@ -939,7 +942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2018</v>
       </c>
@@ -953,7 +956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2018</v>
       </c>
@@ -967,7 +970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2018</v>
       </c>
@@ -981,7 +984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2018</v>
       </c>
@@ -995,7 +998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2019</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2019</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2019</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2019</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2020</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2020</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2020</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2020</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2021</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2021</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2021</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2021</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2022</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2022</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2022</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2022</v>
       </c>
@@ -1231,13 +1234,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F865"/>
+  <dimension ref="A1:H865"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H860" sqref="H860"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="2"/>
     <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
@@ -1245,7 +1248,7 @@
     <col min="4" max="4" width="24.1640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1264,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2014</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>3.7331327999829305</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2014</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>4.024081510870217</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2014</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>2.8027344007923407</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2014</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>3.2558373037444444</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2014</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>3.1759166751464583</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2014</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>3.3874045815248133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2014</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>3.2186250823491607</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>3.1672900899827185</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2014</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>2.5737292109196757</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2014</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>2.6902633494068571</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2014</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>2.6472104244613601</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2014</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>2.9647403729870789</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2014</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>3.5026805565551156</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1">
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2014</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>3.4031262676799088</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1">
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2014</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>3.5493016508254125</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1">
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2014</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>3.3537963181894952</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2014</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>3.3009019792545207</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1">
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2014</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>3.4691384597491712</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1">
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2014</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>3.5028153221310823</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1">
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2014</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>3.315991479820628</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1">
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2014</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>3.1474068452786788</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1">
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2014</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>2.9494717214992052</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1">
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2014</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>3.4468879373235639</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1">
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2014</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>3.2083418235511258</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1">
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2014</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>3.8518627600436659</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1">
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2014</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>4.2499912236384807</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1">
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2014</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>2.9153584248268039</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1">
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2014</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>3.4206301023631998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1">
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2014</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>3.1564052528575886</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1">
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2014</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>3.5567859606832632</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1">
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2014</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>3.3669705989802563</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="1" customFormat="1">
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2014</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>3.3124003099745378</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1">
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2014</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>2.6523512500000006</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="1" customFormat="1">
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2014</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>2.7690316794782204</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1">
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2014</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>2.6845760554268661</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="1" customFormat="1">
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2014</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>3.0951533433886378</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1">
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2014</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>3.503033182060705</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="1" customFormat="1">
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2014</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>3.5400238857127562</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="1" customFormat="1">
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2014</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>3.6647043380451545</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="1" customFormat="1">
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2014</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>3.4286257504445143</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1">
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2014</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>3.3911377511087921</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="1" customFormat="1">
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2014</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>3.4724840645935795</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="1" customFormat="1">
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2014</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>3.5041044810417468</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="1" customFormat="1">
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2014</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>3.3181516601634393</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="1" customFormat="1">
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2014</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>3.3116910410979234</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="1" customFormat="1">
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2014</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>3.0697509211495944</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="1" customFormat="1">
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2014</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>3.470095986812908</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="1" customFormat="1">
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2014</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>3.34994476711167</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="1" customFormat="1">
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2014</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>3.9690469911732418</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="1" customFormat="1">
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2014</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>4.4373809433900746</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="1" customFormat="1">
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2014</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>2.9151761750405192</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="1" customFormat="1">
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2014</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>3.4619478124509961</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="1" customFormat="1">
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2014</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>3.1657417907639762</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="1" customFormat="1">
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2014</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>3.6600622495599104</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="1" customFormat="1">
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2014</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>3.4109277766411181</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="1" customFormat="1">
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>2014</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>3.3996079417526825</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="1" customFormat="1">
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>2014</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>2.6562830152303833</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="1" customFormat="1">
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2014</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>2.9307053902518616</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="1" customFormat="1">
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2014</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>2.816519545748315</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="1" customFormat="1">
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2014</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>3.095178784641488</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="1" customFormat="1">
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>2014</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>3.5028531768490665</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="1" customFormat="1">
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>2014</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>3.5775238575714927</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="1" customFormat="1">
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2014</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>3.7429104879160966</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="1" customFormat="1">
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>2014</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>3.4799791702900404</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="1" customFormat="1">
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2014</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>3.4109103624880306</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="1" customFormat="1">
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2014</v>
       </c>
@@ -2185,7 +2188,7 @@
         <v>3.4737259855903888</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="1" customFormat="1">
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2014</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>3.5031131901840489</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="1" customFormat="1">
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2014</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>3.3073222601557406</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="1" customFormat="1">
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2014</v>
       </c>
@@ -2227,7 +2230,7 @@
         <v>3.3755929122491111</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="1" customFormat="1">
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2014</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>3.0995465103889184</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="1" customFormat="1">
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2014</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>3.4709817114196588</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="1" customFormat="1">
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2014</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>3.349897526769352</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="1" customFormat="1">
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2014</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>4.1989435082366571</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="1" customFormat="1">
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2014</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>4.7817877112755625</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="1" customFormat="1">
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>2014</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>3.3360053347977878</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="1" customFormat="1">
+    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>2014</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>3.977400363306085</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="1" customFormat="1">
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>2014</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>3.1746491581312557</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="1" customFormat="1">
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>2014</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>4.0929030621845719</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="1" customFormat="1">
+    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>2014</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>3.8061123116725004</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="1" customFormat="1">
+    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2014</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>3.8000517871100685</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="1" customFormat="1">
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2014</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>3.0233266178266178</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="1" customFormat="1">
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2014</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>3.1276421081907939</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="1" customFormat="1">
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>2014</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>2.754208730637699</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="1" customFormat="1">
+    <row r="85" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>2014</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>3.5820238995244482</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="1" customFormat="1">
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>2014</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>3.4987677685999139</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="1" customFormat="1">
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>2014</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>4.0256199614134589</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="1" customFormat="1">
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>2014</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>3.8507725825973909</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="1" customFormat="1">
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>2014</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>3.5431292542542541</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="1" customFormat="1">
+    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>2014</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>3.8622594315025491</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="1" customFormat="1">
+    <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>2014</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>3.4752201692281126</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="1" customFormat="1">
+    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>2014</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>3.503621206358865</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="1" customFormat="1">
+    <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>2014</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>3.3330261837139634</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="1" customFormat="1">
+    <row r="94" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>2014</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>3.7807078607165132</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="1" customFormat="1">
+    <row r="95" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>2014</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>3.4582244726597287</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="1" customFormat="1">
+    <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>2014</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>3.4747244698924056</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="1" customFormat="1">
+    <row r="97" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>2014</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>3.8606123102449525</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="1" customFormat="1">
+    <row r="98" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>2015</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>4.3238037093467714</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="1" customFormat="1">
+    <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>2015</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>4.999711683876372</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="1" customFormat="1">
+    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>2015</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>3.4836036609629919</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="1" customFormat="1">
+    <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>2015</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>4.8999087970303723</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="1" customFormat="1">
+    <row r="102" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>2015</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>3.2131565777597957</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="1" customFormat="1">
+    <row r="103" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>2015</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>4.3042792820068483</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="1" customFormat="1">
+    <row r="104" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>2015</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>4.6281902213931572</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="1" customFormat="1">
+    <row r="105" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>2015</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>4.3467465057866335</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="1" customFormat="1">
+    <row r="106" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>2015</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>3.3811501123595504</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="1" customFormat="1">
+    <row r="107" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>2015</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>3.241902108598274</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="1" customFormat="1">
+    <row r="108" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>2015</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>2.8340995102178685</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="1" customFormat="1">
+    <row r="109" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>2015</v>
       </c>
@@ -2773,7 +2776,7 @@
         <v>3.7804021060364885</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="1" customFormat="1">
+    <row r="110" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>2015</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>3.4991306708983512</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="1" customFormat="1">
+    <row r="111" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>2015</v>
       </c>
@@ -2801,7 +2804,7 @@
         <v>4.9730042513211981</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="1" customFormat="1">
+    <row r="112" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>2015</v>
       </c>
@@ -2815,7 +2818,7 @@
         <v>3.9114916381985845</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="1" customFormat="1">
+    <row r="113" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>2015</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>3.5852970882573771</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="1" customFormat="1">
+    <row r="114" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>2015</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>4.0227779361636191</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="1" customFormat="1">
+    <row r="115" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>2015</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>3.4769891700932414</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="1" customFormat="1">
+    <row r="116" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>2015</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>3.5009942704654264</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="1" customFormat="1">
+    <row r="117" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>2015</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>3.474217030667377</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="1" customFormat="1">
+    <row r="118" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>2015</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>4.0632830684081371</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="1" customFormat="1">
+    <row r="119" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>2015</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>3.5711041251262392</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="1" customFormat="1">
+    <row r="120" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>2015</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>3.4538780857514078</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="1" customFormat="1">
+    <row r="121" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>2015</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>4.0710780402424378</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="1" customFormat="1">
+    <row r="122" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>2015</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>4.4634956635480139</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="1" customFormat="1">
+    <row r="123" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>2015</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>5.3121487382378101</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="1" customFormat="1">
+    <row r="124" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>2015</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>3.6825082950385544</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="1" customFormat="1">
+    <row r="125" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>2015</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>5.1947714142594759</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="1" customFormat="1">
+    <row r="126" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>2015</v>
       </c>
@@ -3011,7 +3014,7 @@
         <v>3.2165716474851154</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="1" customFormat="1">
+    <row r="127" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>2015</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>4.5579376662008544</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="1" customFormat="1">
+    <row r="128" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>2015</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>4.8471976379937356</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="1" customFormat="1">
+    <row r="129" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>2015</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>4.55056996750087</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="1" customFormat="1">
+    <row r="130" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>2015</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>3.7649156840276494</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="1" customFormat="1">
+    <row r="131" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>2015</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>3.4086788431460913</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="1" customFormat="1">
+    <row r="132" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>2015</v>
       </c>
@@ -3095,7 +3098,7 @@
         <v>2.8626566401062417</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="1" customFormat="1">
+    <row r="133" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>2015</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>4.0015513962081286</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="1" customFormat="1">
+    <row r="134" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>2015</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>3.4997241088624933</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="1" customFormat="1">
+    <row r="135" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>2015</v>
       </c>
@@ -3137,7 +3140,7 @@
         <v>5.3275626496769233</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="1" customFormat="1">
+    <row r="136" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>2015</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>4.0596177375330358</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="1" customFormat="1">
+    <row r="137" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>2015</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>3.6667344486214271</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="1" customFormat="1">
+    <row r="138" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>2015</v>
       </c>
@@ -3179,7 +3182,7 @@
         <v>4.2181216456868391</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="1" customFormat="1">
+    <row r="139" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>2015</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>3.4789192890667078</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="1" customFormat="1">
+    <row r="140" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>2015</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>3.5027709531013613</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="1" customFormat="1">
+    <row r="141" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>2015</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>3.47332349743749</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="1" customFormat="1">
+    <row r="142" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>2015</v>
       </c>
@@ -3235,7 +3238,7 @@
         <v>4.3031961816563822</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="1" customFormat="1">
+    <row r="143" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>2015</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>3.7288112953604711</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="1" customFormat="1">
+    <row r="144" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>2015</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>3.4775158762886598</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="1" customFormat="1">
+    <row r="145" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>2015</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>4.3068127674699648</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="1" customFormat="1">
+    <row r="146" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>2015</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>4.7005979142704586</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="1" customFormat="1">
+    <row r="147" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>2015</v>
       </c>
@@ -3305,7 +3308,7 @@
         <v>5.66468043459464</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="1" customFormat="1">
+    <row r="148" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>2015</v>
       </c>
@@ -3319,7 +3322,7 @@
         <v>3.8845638725997471</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="1" customFormat="1">
+    <row r="149" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>2015</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>5.4664329655398598</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="1" customFormat="1">
+    <row r="150" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>2015</v>
       </c>
@@ -3347,7 +3350,7 @@
         <v>3.2790384114749496</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="1" customFormat="1">
+    <row r="151" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>2015</v>
       </c>
@@ -3361,7 +3364,7 @@
         <v>4.8678490012250863</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="1" customFormat="1">
+    <row r="152" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>2015</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>5.0634738167822126</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="1" customFormat="1">
+    <row r="153" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>2015</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>4.7667123667290863</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="1" customFormat="1">
+    <row r="154" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>2015</v>
       </c>
@@ -3403,7 +3406,7 @@
         <v>4.1661641021945153</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="1" customFormat="1">
+    <row r="155" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>2015</v>
       </c>
@@ -3417,7 +3420,7 @@
         <v>3.532724551201011</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="1" customFormat="1">
+    <row r="156" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>2015</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>2.9149322141427945</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="1" customFormat="1">
+    <row r="157" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>2015</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>4.2458505753980083</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="1" customFormat="1">
+    <row r="158" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>2015</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>3.5001609510219112</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="1" customFormat="1">
+    <row r="159" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>2015</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>5.6342890509036927</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="1" customFormat="1">
+    <row r="160" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>2015</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>4.2299439848957405</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="1" customFormat="1">
+    <row r="161" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>2015</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>3.7368314562024914</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="1" customFormat="1">
+    <row r="162" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>2015</v>
       </c>
@@ -3515,7 +3518,7 @@
         <v>4.4218314129775615</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="1" customFormat="1">
+    <row r="163" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>2015</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>3.4810928203738825</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="1" customFormat="1">
+    <row r="164" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>2015</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>3.5027538715982556</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="1" customFormat="1">
+    <row r="165" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>2015</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>3.4806877443585873</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="1" customFormat="1">
+    <row r="166" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>2015</v>
       </c>
@@ -3571,7 +3574,7 @@
         <v>4.5598954524026292</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="1" customFormat="1">
+    <row r="167" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>2015</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>3.9112373216914569</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="1" customFormat="1">
+    <row r="168" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>2015</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>3.4777210569327157</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="1" customFormat="1">
+    <row r="169" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>2015</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>4.5723186672303031</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="1" customFormat="1">
+    <row r="170" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>2015</v>
       </c>
@@ -3627,7 +3630,7 @@
         <v>4.8841489058565406</v>
       </c>
     </row>
-    <row r="171" spans="1:4" s="1" customFormat="1">
+    <row r="171" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>2015</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>5.9278035229790413</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="1" customFormat="1">
+    <row r="172" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>2015</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>4.1242683691587017</v>
       </c>
     </row>
-    <row r="173" spans="1:4" s="1" customFormat="1">
+    <row r="173" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>2015</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>5.8283841807909607</v>
       </c>
     </row>
-    <row r="174" spans="1:4" s="1" customFormat="1">
+    <row r="174" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>2015</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>3.2838650316132978</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="1" customFormat="1">
+    <row r="175" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>2015</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>5.0670814932684065</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="1" customFormat="1">
+    <row r="176" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>2015</v>
       </c>
@@ -3711,7 +3714,7 @@
         <v>5.2594821204920814</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="1" customFormat="1">
+    <row r="177" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>2015</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>5.0078559052993556</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="1" customFormat="1">
+    <row r="178" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>2015</v>
       </c>
@@ -3739,7 +3742,7 @@
         <v>4.6603085685806844</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="1" customFormat="1">
+    <row r="179" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>2015</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>3.7246804758922987</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="1" customFormat="1">
+    <row r="180" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>2015</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>2.9367477072296291</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="1" customFormat="1">
+    <row r="181" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>2015</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>4.5216718639262936</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="1" customFormat="1">
+    <row r="182" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>2015</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>3.5017779300891023</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="1" customFormat="1">
+    <row r="183" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>2015</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>5.9022914436487</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="1" customFormat="1">
+    <row r="184" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>2015</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>4.3555928615529362</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="1" customFormat="1">
+    <row r="185" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>2015</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>3.7689322995985051</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="1" customFormat="1">
+    <row r="186" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>2015</v>
       </c>
@@ -3851,7 +3854,7 @@
         <v>4.6734670381415784</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="1" customFormat="1">
+    <row r="187" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>2015</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>3.4816041169557321</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="1" customFormat="1">
+    <row r="188" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>2015</v>
       </c>
@@ -3879,7 +3882,7 @@
         <v>3.5029374258600239</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="1" customFormat="1">
+    <row r="189" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>2015</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>3.4809679619106126</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="1" customFormat="1">
+    <row r="190" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>2015</v>
       </c>
@@ -3907,7 +3910,7 @@
         <v>4.8098737745535551</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="1" customFormat="1">
+    <row r="191" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>2015</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>4.0941016914507635</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="1" customFormat="1">
+    <row r="192" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>2015</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>3.4748248642417257</v>
       </c>
     </row>
-    <row r="193" spans="1:4" s="1" customFormat="1">
+    <row r="193" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>2015</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>4.8822979463307776</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="1" customFormat="1">
+    <row r="194" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>2016</v>
       </c>
@@ -3963,7 +3966,7 @@
         <v>4.9921684374839135</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="1" customFormat="1">
+    <row r="195" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>2016</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>6.0474037028117014</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="1" customFormat="1">
+    <row r="196" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>2016</v>
       </c>
@@ -3991,7 +3994,7 @@
         <v>4.2035884492951343</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="1" customFormat="1">
+    <row r="197" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>2016</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>5.9914726832083094</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="1" customFormat="1">
+    <row r="198" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>2016</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>3.3796639330714164</v>
       </c>
     </row>
-    <row r="199" spans="1:4" s="1" customFormat="1">
+    <row r="199" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>2016</v>
       </c>
@@ -4033,7 +4036,7 @@
         <v>5.1568016170496689</v>
       </c>
     </row>
-    <row r="200" spans="1:4" s="1" customFormat="1">
+    <row r="200" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>2016</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>5.3712791170762504</v>
       </c>
     </row>
-    <row r="201" spans="1:4" s="1" customFormat="1">
+    <row r="201" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>2016</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>5.0845749056052432</v>
       </c>
     </row>
-    <row r="202" spans="1:4" s="1" customFormat="1">
+    <row r="202" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>2016</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>4.8723333804209634</v>
       </c>
     </row>
-    <row r="203" spans="1:4" s="1" customFormat="1">
+    <row r="203" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>2016</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>3.7712213425983374</v>
       </c>
     </row>
-    <row r="204" spans="1:4" s="1" customFormat="1">
+    <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>2016</v>
       </c>
@@ -4103,7 +4106,7 @@
         <v>3.0476420362792593</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="1" customFormat="1">
+    <row r="205" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>2016</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>4.616973938050446</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="1" customFormat="1">
+    <row r="206" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>2016</v>
       </c>
@@ -4131,7 +4134,7 @@
         <v>3.5028689229788785</v>
       </c>
     </row>
-    <row r="207" spans="1:4" s="1" customFormat="1">
+    <row r="207" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>2016</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>6.0009687173803092</v>
       </c>
     </row>
-    <row r="208" spans="1:4" s="1" customFormat="1">
+    <row r="208" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>2016</v>
       </c>
@@ -4159,7 +4162,7 @@
         <v>4.4204931490152664</v>
       </c>
     </row>
-    <row r="209" spans="1:4" s="1" customFormat="1">
+    <row r="209" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>2016</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>3.8266591968289161</v>
       </c>
     </row>
-    <row r="210" spans="1:4" s="1" customFormat="1">
+    <row r="210" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>2016</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>4.7418587845715239</v>
       </c>
     </row>
-    <row r="211" spans="1:4" s="1" customFormat="1">
+    <row r="211" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>2016</v>
       </c>
@@ -4201,7 +4204,7 @@
         <v>3.4855234907604769</v>
       </c>
     </row>
-    <row r="212" spans="1:4" s="1" customFormat="1">
+    <row r="212" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>2016</v>
       </c>
@@ -4215,7 +4218,7 @@
         <v>3.5029004392386534</v>
       </c>
     </row>
-    <row r="213" spans="1:4" s="1" customFormat="1">
+    <row r="213" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>2016</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>3.4831580897107401</v>
       </c>
     </row>
-    <row r="214" spans="1:4" s="1" customFormat="1">
+    <row r="214" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>2016</v>
       </c>
@@ -4243,7 +4246,7 @@
         <v>4.8981360289520461</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="1" customFormat="1">
+    <row r="215" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>2016</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>4.1740115643069231</v>
       </c>
     </row>
-    <row r="216" spans="1:4" s="1" customFormat="1">
+    <row r="216" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>2016</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>3.475082632716791</v>
       </c>
     </row>
-    <row r="217" spans="1:4" s="1" customFormat="1">
+    <row r="217" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>2016</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>5.0040366406798853</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="1" customFormat="1">
+    <row r="218" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>2016</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>5.4151443670048236</v>
       </c>
     </row>
-    <row r="219" spans="1:4" s="1" customFormat="1">
+    <row r="219" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>2016</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>6.5762189324592919</v>
       </c>
     </row>
-    <row r="220" spans="1:4" s="1" customFormat="1">
+    <row r="220" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>2016</v>
       </c>
@@ -4327,7 +4330,7 @@
         <v>4.3648359645166135</v>
       </c>
     </row>
-    <row r="221" spans="1:4" s="1" customFormat="1">
+    <row r="221" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>2016</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>6.2973575109580811</v>
       </c>
     </row>
-    <row r="222" spans="1:4" s="1" customFormat="1">
+    <row r="222" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>2016</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>3.3359734989855472</v>
       </c>
     </row>
-    <row r="223" spans="1:4" s="1" customFormat="1">
+    <row r="223" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>2016</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>5.5169128230028068</v>
       </c>
     </row>
-    <row r="224" spans="1:4" s="1" customFormat="1">
+    <row r="224" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>2016</v>
       </c>
@@ -4383,7 +4386,7 @@
         <v>5.6018225695242467</v>
       </c>
     </row>
-    <row r="225" spans="1:4" s="1" customFormat="1">
+    <row r="225" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>2016</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>5.1311427833012475</v>
       </c>
     </row>
-    <row r="226" spans="1:4" s="1" customFormat="1">
+    <row r="226" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>2016</v>
       </c>
@@ -4411,7 +4414,7 @@
         <v>5.1041321958662778</v>
       </c>
     </row>
-    <row r="227" spans="1:4" s="1" customFormat="1">
+    <row r="227" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>2016</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>3.8433530439580652</v>
       </c>
     </row>
-    <row r="228" spans="1:4" s="1" customFormat="1">
+    <row r="228" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>2016</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>3.1460678065253811</v>
       </c>
     </row>
-    <row r="229" spans="1:4" s="1" customFormat="1">
+    <row r="229" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>2016</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>4.7738430670010752</v>
       </c>
     </row>
-    <row r="230" spans="1:4" s="1" customFormat="1">
+    <row r="230" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>2016</v>
       </c>
@@ -4467,7 +4470,7 @@
         <v>3.5001685678716079</v>
       </c>
     </row>
-    <row r="231" spans="1:4" s="1" customFormat="1">
+    <row r="231" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>2016</v>
       </c>
@@ -4481,7 +4484,7 @@
         <v>6.2336605667547929</v>
       </c>
     </row>
-    <row r="232" spans="1:4" s="1" customFormat="1">
+    <row r="232" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>2016</v>
       </c>
@@ -4495,7 +4498,7 @@
         <v>4.86640695565863</v>
       </c>
     </row>
-    <row r="233" spans="1:4" s="1" customFormat="1">
+    <row r="233" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>2016</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>3.9766164119051468</v>
       </c>
     </row>
-    <row r="234" spans="1:4" s="1" customFormat="1">
+    <row r="234" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>2016</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>4.7493789353229277</v>
       </c>
     </row>
-    <row r="235" spans="1:4" s="1" customFormat="1">
+    <row r="235" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>2016</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>3.4883718294284334</v>
       </c>
     </row>
-    <row r="236" spans="1:4" s="1" customFormat="1">
+    <row r="236" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>2016</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>3.501983369175627</v>
       </c>
     </row>
-    <row r="237" spans="1:4" s="1" customFormat="1">
+    <row r="237" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>2016</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>3.5021150276004565</v>
       </c>
     </row>
-    <row r="238" spans="1:4" s="1" customFormat="1">
+    <row r="238" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>2016</v>
       </c>
@@ -4579,7 +4582,7 @@
         <v>5.1385985309185065</v>
       </c>
     </row>
-    <row r="239" spans="1:4" s="1" customFormat="1">
+    <row r="239" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>2016</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>4.309815179590645</v>
       </c>
     </row>
-    <row r="240" spans="1:4" s="1" customFormat="1">
+    <row r="240" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>2016</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>3.4786924632117722</v>
       </c>
     </row>
-    <row r="241" spans="1:4" s="1" customFormat="1">
+    <row r="241" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>2016</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>5.2009797617608742</v>
       </c>
     </row>
-    <row r="242" spans="1:4" s="1" customFormat="1">
+    <row r="242" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>2016</v>
       </c>
@@ -4635,7 +4638,7 @@
         <v>5.9149180081636841</v>
       </c>
     </row>
-    <row r="243" spans="1:4" s="1" customFormat="1">
+    <row r="243" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>2016</v>
       </c>
@@ -4649,7 +4652,7 @@
         <v>7.3801726992078054</v>
       </c>
     </row>
-    <row r="244" spans="1:4" s="1" customFormat="1">
+    <row r="244" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>2016</v>
       </c>
@@ -4663,7 +4666,7 @@
         <v>4.7252411799584939</v>
       </c>
     </row>
-    <row r="245" spans="1:4" s="1" customFormat="1">
+    <row r="245" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>2016</v>
       </c>
@@ -4677,7 +4680,7 @@
         <v>6.7182203632459512</v>
       </c>
     </row>
-    <row r="246" spans="1:4" s="1" customFormat="1">
+    <row r="246" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>2016</v>
       </c>
@@ -4691,7 +4694,7 @@
         <v>3.3438663279846357</v>
       </c>
     </row>
-    <row r="247" spans="1:4" s="1" customFormat="1">
+    <row r="247" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>2016</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>6.0685269235184069</v>
       </c>
     </row>
-    <row r="248" spans="1:4" s="1" customFormat="1">
+    <row r="248" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>2016</v>
       </c>
@@ -4719,7 +4722,7 @@
         <v>5.9581925610667144</v>
       </c>
     </row>
-    <row r="249" spans="1:4" s="1" customFormat="1">
+    <row r="249" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>2016</v>
       </c>
@@ -4733,7 +4736,7 @@
         <v>5.5864274883294893</v>
       </c>
     </row>
-    <row r="250" spans="1:4" s="1" customFormat="1">
+    <row r="250" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>2016</v>
       </c>
@@ -4747,7 +4750,7 @@
         <v>5.4161310069990956</v>
       </c>
     </row>
-    <row r="251" spans="1:4" s="1" customFormat="1">
+    <row r="251" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>2016</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>4.215291130909006</v>
       </c>
     </row>
-    <row r="252" spans="1:4" s="1" customFormat="1">
+    <row r="252" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>2016</v>
       </c>
@@ -4775,7 +4778,7 @@
         <v>3.1449984261882276</v>
       </c>
     </row>
-    <row r="253" spans="1:4" s="1" customFormat="1">
+    <row r="253" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>2016</v>
       </c>
@@ -4789,7 +4792,7 @@
         <v>5.0767317390020663</v>
       </c>
     </row>
-    <row r="254" spans="1:4" s="1" customFormat="1">
+    <row r="254" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>2016</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>3.5072908014531099</v>
       </c>
     </row>
-    <row r="255" spans="1:4" s="1" customFormat="1">
+    <row r="255" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>2016</v>
       </c>
@@ -4817,7 +4820,7 @@
         <v>6.7412222698422424</v>
       </c>
     </row>
-    <row r="256" spans="1:4" s="1" customFormat="1">
+    <row r="256" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>2016</v>
       </c>
@@ -4831,7 +4834,7 @@
         <v>5.2921668647312918</v>
       </c>
     </row>
-    <row r="257" spans="1:4" s="1" customFormat="1">
+    <row r="257" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>2016</v>
       </c>
@@ -4845,7 +4848,7 @@
         <v>4.1629242824827477</v>
       </c>
     </row>
-    <row r="258" spans="1:4" s="1" customFormat="1">
+    <row r="258" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>2016</v>
       </c>
@@ -4859,7 +4862,7 @@
         <v>5.052874436550483</v>
       </c>
     </row>
-    <row r="259" spans="1:4" s="1" customFormat="1">
+    <row r="259" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>2016</v>
       </c>
@@ -4873,7 +4876,7 @@
         <v>3.4890674462877342</v>
       </c>
     </row>
-    <row r="260" spans="1:4" s="1" customFormat="1">
+    <row r="260" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>2016</v>
       </c>
@@ -4887,7 +4890,7 @@
         <v>3.5030237740401673</v>
       </c>
     </row>
-    <row r="261" spans="1:4" s="1" customFormat="1">
+    <row r="261" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>2016</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>3.53583356483625</v>
       </c>
     </row>
-    <row r="262" spans="1:4" s="1" customFormat="1">
+    <row r="262" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>2016</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>5.6772637615647845</v>
       </c>
     </row>
-    <row r="263" spans="1:4" s="1" customFormat="1">
+    <row r="263" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>2016</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>4.6701230870135548</v>
       </c>
     </row>
-    <row r="264" spans="1:4" s="1" customFormat="1">
+    <row r="264" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>2016</v>
       </c>
@@ -4943,7 +4946,7 @@
         <v>3.4765453774624797</v>
       </c>
     </row>
-    <row r="265" spans="1:4" s="1" customFormat="1">
+    <row r="265" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>2016</v>
       </c>
@@ -4957,7 +4960,7 @@
         <v>5.5446832601914027</v>
       </c>
     </row>
-    <row r="266" spans="1:4" s="1" customFormat="1">
+    <row r="266" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>2016</v>
       </c>
@@ -4971,7 +4974,7 @@
         <v>6.3515464502603125</v>
       </c>
     </row>
-    <row r="267" spans="1:4" s="1" customFormat="1">
+    <row r="267" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>2016</v>
       </c>
@@ -4985,7 +4988,7 @@
         <v>7.9575962427528939</v>
       </c>
     </row>
-    <row r="268" spans="1:4" s="1" customFormat="1">
+    <row r="268" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>2016</v>
       </c>
@@ -4999,7 +5002,7 @@
         <v>4.885711305119858</v>
       </c>
     </row>
-    <row r="269" spans="1:4" s="1" customFormat="1">
+    <row r="269" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>2016</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>7.0775310059198233</v>
       </c>
     </row>
-    <row r="270" spans="1:4" s="1" customFormat="1">
+    <row r="270" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>2016</v>
       </c>
@@ -5027,7 +5030,7 @@
         <v>3.4071912914448172</v>
       </c>
     </row>
-    <row r="271" spans="1:4" s="1" customFormat="1">
+    <row r="271" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>2016</v>
       </c>
@@ -5041,7 +5044,7 @@
         <v>6.4667403639056085</v>
       </c>
     </row>
-    <row r="272" spans="1:4" s="1" customFormat="1">
+    <row r="272" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>2016</v>
       </c>
@@ -5055,7 +5058,7 @@
         <v>6.2362456040775092</v>
       </c>
     </row>
-    <row r="273" spans="1:4" s="1" customFormat="1">
+    <row r="273" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>2016</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>5.8073508291276141</v>
       </c>
     </row>
-    <row r="274" spans="1:4" s="1" customFormat="1">
+    <row r="274" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>2016</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>5.6306741649163223</v>
       </c>
     </row>
-    <row r="275" spans="1:4" s="1" customFormat="1">
+    <row r="275" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>2016</v>
       </c>
@@ -5097,7 +5100,7 @@
         <v>4.3239627457420351</v>
       </c>
     </row>
-    <row r="276" spans="1:4" s="1" customFormat="1">
+    <row r="276" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>2016</v>
       </c>
@@ -5111,7 +5114,7 @@
         <v>3.1895597297497957</v>
       </c>
     </row>
-    <row r="277" spans="1:4" s="1" customFormat="1">
+    <row r="277" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>2016</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>5.3437624272142195</v>
       </c>
     </row>
-    <row r="278" spans="1:4" s="1" customFormat="1">
+    <row r="278" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>2016</v>
       </c>
@@ -5139,7 +5142,7 @@
         <v>3.5066034697453756</v>
       </c>
     </row>
-    <row r="279" spans="1:4" s="1" customFormat="1">
+    <row r="279" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>2016</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>7.1094758091013635</v>
       </c>
     </row>
-    <row r="280" spans="1:4" s="1" customFormat="1">
+    <row r="280" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>2016</v>
       </c>
@@ -5167,7 +5170,7 @@
         <v>5.6784463065423729</v>
       </c>
     </row>
-    <row r="281" spans="1:4" s="1" customFormat="1">
+    <row r="281" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>2016</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>4.3699304631653293</v>
       </c>
     </row>
-    <row r="282" spans="1:4" s="1" customFormat="1">
+    <row r="282" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>2016</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>5.2208835778469709</v>
       </c>
     </row>
-    <row r="283" spans="1:4" s="1" customFormat="1">
+    <row r="283" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>2016</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>3.4911355540448672</v>
       </c>
     </row>
-    <row r="284" spans="1:4" s="1" customFormat="1">
+    <row r="284" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>2016</v>
       </c>
@@ -5223,7 +5226,7 @@
         <v>3.5028241499750519</v>
       </c>
     </row>
-    <row r="285" spans="1:4" s="1" customFormat="1">
+    <row r="285" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>2016</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v>3.5639164089588604</v>
       </c>
     </row>
-    <row r="286" spans="1:4" s="1" customFormat="1">
+    <row r="286" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>2016</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>6.0402333289406664</v>
       </c>
     </row>
-    <row r="287" spans="1:4" s="1" customFormat="1">
+    <row r="287" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>2016</v>
       </c>
@@ -5265,7 +5268,7 @@
         <v>4.8667944314486222</v>
       </c>
     </row>
-    <row r="288" spans="1:4" s="1" customFormat="1">
+    <row r="288" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>2016</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>3.4767614673760852</v>
       </c>
     </row>
-    <row r="289" spans="1:4" s="1" customFormat="1">
+    <row r="289" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>2016</v>
       </c>
@@ -5293,7 +5296,7 @@
         <v>5.7277669342021085</v>
       </c>
     </row>
-    <row r="290" spans="1:4" s="1" customFormat="1">
+    <row r="290" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>2017</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>6.6784825770917093</v>
       </c>
     </row>
-    <row r="291" spans="1:4" s="1" customFormat="1">
+    <row r="291" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>2017</v>
       </c>
@@ -5321,7 +5324,7 @@
         <v>8.3481473166954228</v>
       </c>
     </row>
-    <row r="292" spans="1:4" s="1" customFormat="1">
+    <row r="292" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>2017</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>4.9737848375451268</v>
       </c>
     </row>
-    <row r="293" spans="1:4" s="1" customFormat="1">
+    <row r="293" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>2017</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>7.3079053982728226</v>
       </c>
     </row>
-    <row r="294" spans="1:4" s="1" customFormat="1">
+    <row r="294" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>2017</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>3.4433862008733622</v>
       </c>
     </row>
-    <row r="295" spans="1:4" s="1" customFormat="1">
+    <row r="295" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>2017</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>6.7994776373699972</v>
       </c>
     </row>
-    <row r="296" spans="1:4" s="1" customFormat="1">
+    <row r="296" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>2017</v>
       </c>
@@ -5391,7 +5394,7 @@
         <v>6.4329712770159704</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="1" customFormat="1">
+    <row r="297" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>2017</v>
       </c>
@@ -5405,7 +5408,7 @@
         <v>5.9514745757075245</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="1" customFormat="1">
+    <row r="298" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>2017</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>5.742388931901572</v>
       </c>
     </row>
-    <row r="299" spans="1:4" s="1" customFormat="1">
+    <row r="299" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>2017</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>4.3938612596347477</v>
       </c>
     </row>
-    <row r="300" spans="1:4" s="1" customFormat="1">
+    <row r="300" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>2017</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v>3.2208135842183347</v>
       </c>
     </row>
-    <row r="301" spans="1:4" s="1" customFormat="1">
+    <row r="301" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>2017</v>
       </c>
@@ -5461,7 +5464,7 @@
         <v>5.4271804733727809</v>
       </c>
     </row>
-    <row r="302" spans="1:4" s="1" customFormat="1">
+    <row r="302" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>2017</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>3.5072942051440963</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="1" customFormat="1">
+    <row r="303" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>2017</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>7.3410419889163192</v>
       </c>
     </row>
-    <row r="304" spans="1:4" s="1" customFormat="1">
+    <row r="304" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>2017</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>6.0348361444213925</v>
       </c>
     </row>
-    <row r="305" spans="1:4" s="1" customFormat="1">
+    <row r="305" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>2017</v>
       </c>
@@ -5517,7 +5520,7 @@
         <v>4.449448877971685</v>
       </c>
     </row>
-    <row r="306" spans="1:4" s="1" customFormat="1">
+    <row r="306" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>2017</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>5.3353712178218746</v>
       </c>
     </row>
-    <row r="307" spans="1:4" s="1" customFormat="1">
+    <row r="307" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>2017</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>3.4924351612464282</v>
       </c>
     </row>
-    <row r="308" spans="1:4" s="1" customFormat="1">
+    <row r="308" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>2017</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>3.5028241499750519</v>
       </c>
     </row>
-    <row r="309" spans="1:4" s="1" customFormat="1">
+    <row r="309" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>2017</v>
       </c>
@@ -5573,7 +5576,7 @@
         <v>3.5919300756363182</v>
       </c>
     </row>
-    <row r="310" spans="1:4" s="1" customFormat="1">
+    <row r="310" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>2017</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>6.2840364868924112</v>
       </c>
     </row>
-    <row r="311" spans="1:4" s="1" customFormat="1">
+    <row r="311" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>2017</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>4.9489658332849942</v>
       </c>
     </row>
-    <row r="312" spans="1:4" s="1" customFormat="1">
+    <row r="312" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>2017</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>3.4767614673760852</v>
       </c>
     </row>
-    <row r="313" spans="1:4" s="1" customFormat="1">
+    <row r="313" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>2017</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>5.8755073256955805</v>
       </c>
     </row>
-    <row r="314" spans="1:4" s="1" customFormat="1">
+    <row r="314" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>2017</v>
       </c>
@@ -5643,7 +5646,7 @@
         <v>7.1987477518879839</v>
       </c>
     </row>
-    <row r="315" spans="1:4" s="1" customFormat="1">
+    <row r="315" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>2017</v>
       </c>
@@ -5657,7 +5660,7 @@
         <v>8.8432198307882537</v>
       </c>
     </row>
-    <row r="316" spans="1:4" s="1" customFormat="1">
+    <row r="316" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>2017</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>5.1021828258997113</v>
       </c>
     </row>
-    <row r="317" spans="1:4" s="1" customFormat="1">
+    <row r="317" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>2017</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>7.6892134335441282</v>
       </c>
     </row>
-    <row r="318" spans="1:4" s="1" customFormat="1">
+    <row r="318" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>2017</v>
       </c>
@@ -5699,7 +5702,7 @@
         <v>3.4472690922235101</v>
       </c>
     </row>
-    <row r="319" spans="1:4" s="1" customFormat="1">
+    <row r="319" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>2017</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>7.4213217990767744</v>
       </c>
     </row>
-    <row r="320" spans="1:4" s="1" customFormat="1">
+    <row r="320" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>2017</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>6.7915804826070545</v>
       </c>
     </row>
-    <row r="321" spans="1:4" s="1" customFormat="1">
+    <row r="321" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>2017</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>6.2878101062927731</v>
       </c>
     </row>
-    <row r="322" spans="1:4" s="1" customFormat="1">
+    <row r="322" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>2017</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>6.1786533146404965</v>
       </c>
     </row>
-    <row r="323" spans="1:4" s="1" customFormat="1">
+    <row r="323" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>2017</v>
       </c>
@@ -5769,7 +5772,7 @@
         <v>4.5418618781940081</v>
       </c>
     </row>
-    <row r="324" spans="1:4" s="1" customFormat="1">
+    <row r="324" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>2017</v>
       </c>
@@ -5783,7 +5786,7 @@
         <v>3.3182593614961053</v>
       </c>
     </row>
-    <row r="325" spans="1:4" s="1" customFormat="1">
+    <row r="325" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>2017</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>5.5338551080550102</v>
       </c>
     </row>
-    <row r="326" spans="1:4" s="1" customFormat="1">
+    <row r="326" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>2017</v>
       </c>
@@ -5811,7 +5814,7 @@
         <v>3.507255863215121</v>
       </c>
     </row>
-    <row r="327" spans="1:4" s="1" customFormat="1">
+    <row r="327" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>2017</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>7.6043384905206626</v>
       </c>
     </row>
-    <row r="328" spans="1:4" s="1" customFormat="1">
+    <row r="328" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>2017</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>6.7006106984468827</v>
       </c>
     </row>
-    <row r="329" spans="1:4" s="1" customFormat="1">
+    <row r="329" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>2017</v>
       </c>
@@ -5853,7 +5856,7 @@
         <v>4.7413508573814518</v>
       </c>
     </row>
-    <row r="330" spans="1:4" s="1" customFormat="1">
+    <row r="330" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>2017</v>
       </c>
@@ -5867,7 +5870,7 @@
         <v>5.7562131348398449</v>
       </c>
     </row>
-    <row r="331" spans="1:4" s="1" customFormat="1">
+    <row r="331" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>2017</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>3.4920338095238095</v>
       </c>
     </row>
-    <row r="332" spans="1:4" s="1" customFormat="1">
+    <row r="332" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>2017</v>
       </c>
@@ -5895,7 +5898,7 @@
         <v>3.5028241499750519</v>
       </c>
     </row>
-    <row r="333" spans="1:4" s="1" customFormat="1">
+    <row r="333" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>2017</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>3.60311348968991</v>
       </c>
     </row>
-    <row r="334" spans="1:4" s="1" customFormat="1">
+    <row r="334" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>2017</v>
       </c>
@@ -5923,7 +5926,7 @@
         <v>6.8387492504462042</v>
       </c>
     </row>
-    <row r="335" spans="1:4" s="1" customFormat="1">
+    <row r="335" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>2017</v>
       </c>
@@ -5937,7 +5940,7 @@
         <v>5.05794740805446</v>
       </c>
     </row>
-    <row r="336" spans="1:4" s="1" customFormat="1">
+    <row r="336" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>2017</v>
       </c>
@@ -5951,7 +5954,7 @@
         <v>3.4767614673760852</v>
       </c>
     </row>
-    <row r="337" spans="1:4" s="1" customFormat="1">
+    <row r="337" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>2017</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>6.0932804456247167</v>
       </c>
     </row>
-    <row r="338" spans="1:4" s="1" customFormat="1">
+    <row r="338" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>2017</v>
       </c>
@@ -5979,7 +5982,7 @@
         <v>8.425706211853651</v>
       </c>
     </row>
-    <row r="339" spans="1:4" s="1" customFormat="1">
+    <row r="339" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>2017</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>10.635720274073307</v>
       </c>
     </row>
-    <row r="340" spans="1:4" s="1" customFormat="1">
+    <row r="340" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>2017</v>
       </c>
@@ -6007,7 +6010,7 @@
         <v>5.2600180667135614</v>
       </c>
     </row>
-    <row r="341" spans="1:4" s="1" customFormat="1">
+    <row r="341" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>2017</v>
       </c>
@@ -6021,7 +6024,7 @@
         <v>8.4848712875554977</v>
       </c>
     </row>
-    <row r="342" spans="1:4" s="1" customFormat="1">
+    <row r="342" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>2017</v>
       </c>
@@ -6035,7 +6038,7 @@
         <v>3.4783469156690874</v>
       </c>
     </row>
-    <row r="343" spans="1:4" s="1" customFormat="1">
+    <row r="343" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>2017</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>9.115572873049981</v>
       </c>
     </row>
-    <row r="344" spans="1:4" s="1" customFormat="1">
+    <row r="344" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>2017</v>
       </c>
@@ -6063,7 +6066,7 @@
         <v>7.4474164280852628</v>
       </c>
     </row>
-    <row r="345" spans="1:4" s="1" customFormat="1">
+    <row r="345" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>2017</v>
       </c>
@@ -6077,7 +6080,7 @@
         <v>6.9934006393496526</v>
       </c>
     </row>
-    <row r="346" spans="1:4" s="1" customFormat="1">
+    <row r="346" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>2017</v>
       </c>
@@ -6091,7 +6094,7 @@
         <v>7.0688215341128098</v>
       </c>
     </row>
-    <row r="347" spans="1:4" s="1" customFormat="1">
+    <row r="347" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>2017</v>
       </c>
@@ -6105,7 +6108,7 @@
         <v>4.6890067253692012</v>
       </c>
     </row>
-    <row r="348" spans="1:4" s="1" customFormat="1">
+    <row r="348" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>2017</v>
       </c>
@@ -6119,7 +6122,7 @@
         <v>3.4381011143320657</v>
       </c>
     </row>
-    <row r="349" spans="1:4" s="1" customFormat="1">
+    <row r="349" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>2017</v>
       </c>
@@ -6133,7 +6136,7 @@
         <v>5.010090208766659</v>
       </c>
     </row>
-    <row r="350" spans="1:4" s="1" customFormat="1">
+    <row r="350" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>2017</v>
       </c>
@@ -6147,7 +6150,7 @@
         <v>3.5129626616630358</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="1" customFormat="1">
+    <row r="351" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>2017</v>
       </c>
@@ -6161,7 +6164,7 @@
         <v>8.4303830252869911</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="1" customFormat="1">
+    <row r="352" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>2017</v>
       </c>
@@ -6175,7 +6178,7 @@
         <v>8.1651773857022594</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="1" customFormat="1">
+    <row r="353" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>2017</v>
       </c>
@@ -6189,7 +6192,7 @@
         <v>5.4872788046738847</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="1" customFormat="1">
+    <row r="354" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>2017</v>
       </c>
@@ -6203,7 +6206,7 @@
         <v>6.1331462068965523</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="1" customFormat="1">
+    <row r="355" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>2017</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>3.4497842064911834</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="1" customFormat="1">
+    <row r="356" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>2017</v>
       </c>
@@ -6231,7 +6234,7 @@
         <v>3.50338739319684</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="1" customFormat="1">
+    <row r="357" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>2017</v>
       </c>
@@ -6245,7 +6248,7 @@
         <v>3.6104705057586379</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="1" customFormat="1">
+    <row r="358" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>2017</v>
       </c>
@@ -6259,7 +6262,7 @@
         <v>7.7922151483997428</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="1" customFormat="1">
+    <row r="359" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>2017</v>
       </c>
@@ -6273,7 +6276,7 @@
         <v>5.1785580783353726</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="1" customFormat="1">
+    <row r="360" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>2017</v>
       </c>
@@ -6287,7 +6290,7 @@
         <v>3.475358271865121</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="1" customFormat="1">
+    <row r="361" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>2017</v>
       </c>
@@ -6301,7 +6304,7 @@
         <v>6.3851768015553985</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="1" customFormat="1">
+    <row r="362" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>2017</v>
       </c>
@@ -6315,7 +6318,7 @@
         <v>12.9720825438982</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="1" customFormat="1">
+    <row r="363" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>2017</v>
       </c>
@@ -6329,7 +6332,7 @@
         <v>15.20221886916041</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="1" customFormat="1">
+    <row r="364" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>2017</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>7.7841543513957303</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="1" customFormat="1">
+    <row r="365" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>2017</v>
       </c>
@@ -6357,7 +6360,7 @@
         <v>11.702868121959403</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="1" customFormat="1">
+    <row r="366" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>2017</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>5.4082380768901448</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="1" customFormat="1">
+    <row r="367" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>2017</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>11.636584701156639</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="1" customFormat="1">
+    <row r="368" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>2017</v>
       </c>
@@ -6399,7 +6402,7 @@
         <v>10.384400430891967</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="1" customFormat="1">
+    <row r="369" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>2017</v>
       </c>
@@ -6413,7 +6416,7 @@
         <v>9.2959606199990663</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="1" customFormat="1">
+    <row r="370" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>2017</v>
       </c>
@@ -6427,7 +6430,7 @@
         <v>10.114170463766307</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="1" customFormat="1">
+    <row r="371" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>2017</v>
       </c>
@@ -6441,7 +6444,7 @@
         <v>6.6388212735664913</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="1" customFormat="1">
+    <row r="372" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>2017</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>3.9758194449815036</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="1" customFormat="1">
+    <row r="373" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>2017</v>
       </c>
@@ -6469,7 +6472,7 @@
         <v>5.8775888495066582</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="1" customFormat="1">
+    <row r="374" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>2017</v>
       </c>
@@ -6483,7 +6486,7 @@
         <v>5.71002586675844</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="1" customFormat="1">
+    <row r="375" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>2017</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v>11.324123723249613</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="1" customFormat="1">
+    <row r="376" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>2017</v>
       </c>
@@ -6511,7 +6514,7 @@
         <v>10.719151524540269</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="1" customFormat="1">
+    <row r="377" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>2017</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>8.045522324672751</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="1" customFormat="1">
+    <row r="378" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>2017</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>8.4517427677756327</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="1" customFormat="1">
+    <row r="379" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>2017</v>
       </c>
@@ -6553,7 +6556,7 @@
         <v>5.8322600730101328</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="1" customFormat="1">
+    <row r="380" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>2017</v>
       </c>
@@ -6567,7 +6570,7 @@
         <v>5.7322088013540542</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="1" customFormat="1">
+    <row r="381" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>2017</v>
       </c>
@@ -6581,7 +6584,7 @@
         <v>5.206584828874508</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="1" customFormat="1">
+    <row r="382" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>2017</v>
       </c>
@@ -6595,7 +6598,7 @@
         <v>10.297494601847182</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="1" customFormat="1">
+    <row r="383" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>2017</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>6.1656002149850382</v>
       </c>
     </row>
-    <row r="384" spans="1:4" s="1" customFormat="1">
+    <row r="384" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>2017</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>5.2032257045368384</v>
       </c>
     </row>
-    <row r="385" spans="1:4" s="1" customFormat="1">
+    <row r="385" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>2017</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>9.1060213071870582</v>
       </c>
     </row>
-    <row r="386" spans="1:4" s="1" customFormat="1">
+    <row r="386" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>2018</v>
       </c>
@@ -6651,7 +6654,7 @@
         <v>14.198889644680946</v>
       </c>
     </row>
-    <row r="387" spans="1:4" s="1" customFormat="1">
+    <row r="387" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>2018</v>
       </c>
@@ -6665,7 +6668,7 @@
         <v>17.745577304180081</v>
       </c>
     </row>
-    <row r="388" spans="1:4" s="1" customFormat="1">
+    <row r="388" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>2018</v>
       </c>
@@ -6679,7 +6682,7 @@
         <v>8.1988605287146772</v>
       </c>
     </row>
-    <row r="389" spans="1:4" s="1" customFormat="1">
+    <row r="389" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>2018</v>
       </c>
@@ -6693,7 +6696,7 @@
         <v>12.444064678644967</v>
       </c>
     </row>
-    <row r="390" spans="1:4" s="1" customFormat="1">
+    <row r="390" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>2018</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>5.4186379388277839</v>
       </c>
     </row>
-    <row r="391" spans="1:4" s="1" customFormat="1">
+    <row r="391" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>2018</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>12.790571217400485</v>
       </c>
     </row>
-    <row r="392" spans="1:4" s="1" customFormat="1">
+    <row r="392" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>2018</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>11.118502865253635</v>
       </c>
     </row>
-    <row r="393" spans="1:4" s="1" customFormat="1">
+    <row r="393" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>2018</v>
       </c>
@@ -6749,7 +6752,7 @@
         <v>9.875239366998759</v>
       </c>
     </row>
-    <row r="394" spans="1:4" s="1" customFormat="1">
+    <row r="394" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>2018</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>11.056815367469506</v>
       </c>
     </row>
-    <row r="395" spans="1:4" s="1" customFormat="1">
+    <row r="395" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>2018</v>
       </c>
@@ -6777,7 +6780,7 @@
         <v>6.7411858793845321</v>
       </c>
     </row>
-    <row r="396" spans="1:4" s="1" customFormat="1">
+    <row r="396" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>2018</v>
       </c>
@@ -6791,7 +6794,7 @@
         <v>3.9951313520641039</v>
       </c>
     </row>
-    <row r="397" spans="1:4" s="1" customFormat="1">
+    <row r="397" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>2018</v>
       </c>
@@ -6805,7 +6808,7 @@
         <v>5.8908206041116342</v>
       </c>
     </row>
-    <row r="398" spans="1:4" s="1" customFormat="1">
+    <row r="398" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>2018</v>
       </c>
@@ -6819,7 +6822,7 @@
         <v>5.8816269691693739</v>
       </c>
     </row>
-    <row r="399" spans="1:4" s="1" customFormat="1">
+    <row r="399" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>2018</v>
       </c>
@@ -6833,7 +6836,7 @@
         <v>12.082189465143012</v>
       </c>
     </row>
-    <row r="400" spans="1:4" s="1" customFormat="1">
+    <row r="400" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>2018</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>11.96045995607415</v>
       </c>
     </row>
-    <row r="401" spans="1:4" s="1" customFormat="1">
+    <row r="401" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>2018</v>
       </c>
@@ -6861,7 +6864,7 @@
         <v>8.9762431943615759</v>
       </c>
     </row>
-    <row r="402" spans="1:4" s="1" customFormat="1">
+    <row r="402" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>2018</v>
       </c>
@@ -6875,7 +6878,7 @@
         <v>9.1894409821994998</v>
       </c>
     </row>
-    <row r="403" spans="1:4" s="1" customFormat="1">
+    <row r="403" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>2018</v>
       </c>
@@ -6889,7 +6892,7 @@
         <v>5.850581035549749</v>
       </c>
     </row>
-    <row r="404" spans="1:4" s="1" customFormat="1">
+    <row r="404" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>2018</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>5.8943627045792697</v>
       </c>
     </row>
-    <row r="405" spans="1:4" s="1" customFormat="1">
+    <row r="405" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>2018</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>5.1892899508557875</v>
       </c>
     </row>
-    <row r="406" spans="1:4" s="1" customFormat="1">
+    <row r="406" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>2018</v>
       </c>
@@ -6931,7 +6934,7 @@
         <v>11.173305005746002</v>
       </c>
     </row>
-    <row r="407" spans="1:4" s="1" customFormat="1">
+    <row r="407" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>2018</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>6.2482107221630381</v>
       </c>
     </row>
-    <row r="408" spans="1:4" s="1" customFormat="1">
+    <row r="408" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>2018</v>
       </c>
@@ -6959,7 +6962,7 @@
         <v>5.7680820360328839</v>
       </c>
     </row>
-    <row r="409" spans="1:4" s="1" customFormat="1">
+    <row r="409" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>2018</v>
       </c>
@@ -6973,7 +6976,7 @@
         <v>9.3556316848061059</v>
       </c>
     </row>
-    <row r="410" spans="1:4" s="1" customFormat="1">
+    <row r="410" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>2018</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>14.679375512175804</v>
       </c>
     </row>
-    <row r="411" spans="1:4" s="1" customFormat="1">
+    <row r="411" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>2018</v>
       </c>
@@ -7001,7 +7004,7 @@
         <v>18.938134589278171</v>
       </c>
     </row>
-    <row r="412" spans="1:4" s="1" customFormat="1">
+    <row r="412" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>2018</v>
       </c>
@@ -7015,7 +7018,7 @@
         <v>7.6930965074529434</v>
       </c>
     </row>
-    <row r="413" spans="1:4" s="1" customFormat="1">
+    <row r="413" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>2018</v>
       </c>
@@ -7029,7 +7032,7 @@
         <v>12.499460181995785</v>
       </c>
     </row>
-    <row r="414" spans="1:4" s="1" customFormat="1">
+    <row r="414" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>2018</v>
       </c>
@@ -7043,7 +7046,7 @@
         <v>5.3298577305989134</v>
       </c>
     </row>
-    <row r="415" spans="1:4" s="1" customFormat="1">
+    <row r="415" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>2018</v>
       </c>
@@ -7057,7 +7060,7 @@
         <v>13.876809406349514</v>
       </c>
     </row>
-    <row r="416" spans="1:4" s="1" customFormat="1">
+    <row r="416" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>2018</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>10.87765289559918</v>
       </c>
     </row>
-    <row r="417" spans="1:4" s="1" customFormat="1">
+    <row r="417" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>2018</v>
       </c>
@@ -7085,7 +7088,7 @@
         <v>10.186702751759963</v>
       </c>
     </row>
-    <row r="418" spans="1:4" s="1" customFormat="1">
+    <row r="418" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>2018</v>
       </c>
@@ -7099,7 +7102,7 @@
         <v>8.9749865307771746</v>
       </c>
     </row>
-    <row r="419" spans="1:4" s="1" customFormat="1">
+    <row r="419" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>2018</v>
       </c>
@@ -7113,7 +7116,7 @@
         <v>6.2893455892136423</v>
       </c>
     </row>
-    <row r="420" spans="1:4" s="1" customFormat="1">
+    <row r="420" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>2018</v>
       </c>
@@ -7127,7 +7130,7 @@
         <v>4.0983641710574688</v>
       </c>
     </row>
-    <row r="421" spans="1:4" s="1" customFormat="1">
+    <row r="421" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>2018</v>
       </c>
@@ -7141,7 +7144,7 @@
         <v>5.5918615843680817</v>
       </c>
     </row>
-    <row r="422" spans="1:4" s="1" customFormat="1">
+    <row r="422" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>2018</v>
       </c>
@@ -7155,7 +7158,7 @@
         <v>5.8805296630450394</v>
       </c>
     </row>
-    <row r="423" spans="1:4" s="1" customFormat="1">
+    <row r="423" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>2018</v>
       </c>
@@ -7169,7 +7172,7 @@
         <v>11.759657402552001</v>
       </c>
     </row>
-    <row r="424" spans="1:4" s="1" customFormat="1">
+    <row r="424" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>2018</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>13.365011560107956</v>
       </c>
     </row>
-    <row r="425" spans="1:4" s="1" customFormat="1">
+    <row r="425" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>2018</v>
       </c>
@@ -7197,7 +7200,7 @@
         <v>9.5095951143739477</v>
       </c>
     </row>
-    <row r="426" spans="1:4" s="1" customFormat="1">
+    <row r="426" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>2018</v>
       </c>
@@ -7211,7 +7214,7 @@
         <v>8.9282717064426773</v>
       </c>
     </row>
-    <row r="427" spans="1:4" s="1" customFormat="1">
+    <row r="427" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>2018</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>5.8455978306923146</v>
       </c>
     </row>
-    <row r="428" spans="1:4" s="1" customFormat="1">
+    <row r="428" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>2018</v>
       </c>
@@ -7239,7 +7242,7 @@
         <v>5.9005751848808545</v>
       </c>
     </row>
-    <row r="429" spans="1:4" s="1" customFormat="1">
+    <row r="429" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>2018</v>
       </c>
@@ -7253,7 +7256,7 @@
         <v>5.1892899508557875</v>
       </c>
     </row>
-    <row r="430" spans="1:4" s="1" customFormat="1">
+    <row r="430" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>2018</v>
       </c>
@@ -7267,7 +7270,7 @@
         <v>11.74888462281756</v>
       </c>
     </row>
-    <row r="431" spans="1:4" s="1" customFormat="1">
+    <row r="431" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>2018</v>
       </c>
@@ -7281,7 +7284,7 @@
         <v>5.9110016469983835</v>
       </c>
     </row>
-    <row r="432" spans="1:4" s="1" customFormat="1">
+    <row r="432" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>2018</v>
       </c>
@@ -7295,7 +7298,7 @@
         <v>5.942745057375916</v>
       </c>
     </row>
-    <row r="433" spans="1:4" s="1" customFormat="1">
+    <row r="433" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>2018</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>13.506545729627103</v>
       </c>
     </row>
-    <row r="434" spans="1:4" s="1" customFormat="1">
+    <row r="434" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>2018</v>
       </c>
@@ -7323,7 +7326,7 @@
         <v>16.77973513236217</v>
       </c>
     </row>
-    <row r="435" spans="1:4" s="1" customFormat="1">
+    <row r="435" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>2018</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>21.643368364061413</v>
       </c>
     </row>
-    <row r="436" spans="1:4" s="1" customFormat="1">
+    <row r="436" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>2018</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>7.8065219415306313</v>
       </c>
     </row>
-    <row r="437" spans="1:4" s="1" customFormat="1">
+    <row r="437" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>2018</v>
       </c>
@@ -7365,7 +7368,7 @@
         <v>12.89496189060927</v>
       </c>
     </row>
-    <row r="438" spans="1:4" s="1" customFormat="1">
+    <row r="438" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>2018</v>
       </c>
@@ -7379,7 +7382,7 @@
         <v>6.076722322942862</v>
       </c>
     </row>
-    <row r="439" spans="1:4" s="1" customFormat="1">
+    <row r="439" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>2018</v>
       </c>
@@ -7393,7 +7396,7 @@
         <v>14.818249537567899</v>
       </c>
     </row>
-    <row r="440" spans="1:4" s="1" customFormat="1">
+    <row r="440" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>2018</v>
       </c>
@@ -7407,7 +7410,7 @@
         <v>11.493228365457123</v>
       </c>
     </row>
-    <row r="441" spans="1:4" s="1" customFormat="1">
+    <row r="441" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>2018</v>
       </c>
@@ -7421,7 +7424,7 @@
         <v>10.524753506287304</v>
       </c>
     </row>
-    <row r="442" spans="1:4" s="1" customFormat="1">
+    <row r="442" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>2018</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>9.3184954410682845</v>
       </c>
     </row>
-    <row r="443" spans="1:4" s="1" customFormat="1">
+    <row r="443" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>2018</v>
       </c>
@@ -7449,7 +7452,7 @@
         <v>7.6698721518141522</v>
       </c>
     </row>
-    <row r="444" spans="1:4" s="1" customFormat="1">
+    <row r="444" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>2018</v>
       </c>
@@ -7463,7 +7466,7 @@
         <v>4.2830483761676588</v>
       </c>
     </row>
-    <row r="445" spans="1:4" s="1" customFormat="1">
+    <row r="445" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>2018</v>
       </c>
@@ -7477,7 +7480,7 @@
         <v>6.1560132256260962</v>
       </c>
     </row>
-    <row r="446" spans="1:4" s="1" customFormat="1">
+    <row r="446" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>2018</v>
       </c>
@@ -7491,7 +7494,7 @@
         <v>5.7860156771581313</v>
       </c>
     </row>
-    <row r="447" spans="1:4" s="1" customFormat="1">
+    <row r="447" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>2018</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>12.487485758721087</v>
       </c>
     </row>
-    <row r="448" spans="1:4" s="1" customFormat="1">
+    <row r="448" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>2018</v>
       </c>
@@ -7519,7 +7522,7 @@
         <v>14.674244286624784</v>
       </c>
     </row>
-    <row r="449" spans="1:4" s="1" customFormat="1">
+    <row r="449" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>2018</v>
       </c>
@@ -7533,7 +7536,7 @@
         <v>10.064460081067541</v>
       </c>
     </row>
-    <row r="450" spans="1:4" s="1" customFormat="1">
+    <row r="450" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>2018</v>
       </c>
@@ -7547,7 +7550,7 @@
         <v>9.2658481775624058</v>
       </c>
     </row>
-    <row r="451" spans="1:4" s="1" customFormat="1">
+    <row r="451" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>2018</v>
       </c>
@@ -7561,7 +7564,7 @@
         <v>5.7382047258773632</v>
       </c>
     </row>
-    <row r="452" spans="1:4" s="1" customFormat="1">
+    <row r="452" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>2018</v>
       </c>
@@ -7575,7 +7578,7 @@
         <v>8.8149875793541259</v>
       </c>
     </row>
-    <row r="453" spans="1:4" s="1" customFormat="1">
+    <row r="453" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>2018</v>
       </c>
@@ -7589,7 +7592,7 @@
         <v>5.3697157166003828</v>
       </c>
     </row>
-    <row r="454" spans="1:4" s="1" customFormat="1">
+    <row r="454" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>2018</v>
       </c>
@@ -7603,7 +7606,7 @@
         <v>12.357326043488575</v>
       </c>
     </row>
-    <row r="455" spans="1:4" s="1" customFormat="1">
+    <row r="455" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>2018</v>
       </c>
@@ -7617,7 +7620,7 @@
         <v>5.7798425123690507</v>
       </c>
     </row>
-    <row r="456" spans="1:4" s="1" customFormat="1">
+    <row r="456" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>2018</v>
       </c>
@@ -7631,7 +7634,7 @@
         <v>5.9878837471783299</v>
       </c>
     </row>
-    <row r="457" spans="1:4" s="1" customFormat="1">
+    <row r="457" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>2018</v>
       </c>
@@ -7645,7 +7648,7 @@
         <v>15.255950362488306</v>
       </c>
     </row>
-    <row r="458" spans="1:4" s="1" customFormat="1">
+    <row r="458" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>2018</v>
       </c>
@@ -7659,7 +7662,7 @@
         <v>16.934363010150058</v>
       </c>
     </row>
-    <row r="459" spans="1:4" s="1" customFormat="1">
+    <row r="459" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>2018</v>
       </c>
@@ -7673,7 +7676,7 @@
         <v>22.93530199223472</v>
       </c>
     </row>
-    <row r="460" spans="1:4" s="1" customFormat="1">
+    <row r="460" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>2018</v>
       </c>
@@ -7687,7 +7690,7 @@
         <v>8.0439202026599119</v>
       </c>
     </row>
-    <row r="461" spans="1:4" s="1" customFormat="1">
+    <row r="461" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>2018</v>
       </c>
@@ -7701,7 +7704,7 @@
         <v>13.492083570210347</v>
       </c>
     </row>
-    <row r="462" spans="1:4" s="1" customFormat="1">
+    <row r="462" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>2018</v>
       </c>
@@ -7715,7 +7718,7 @@
         <v>6.0852239036840343</v>
       </c>
     </row>
-    <row r="463" spans="1:4" s="1" customFormat="1">
+    <row r="463" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>2018</v>
       </c>
@@ -7729,7 +7732,7 @@
         <v>15.813667433629776</v>
       </c>
     </row>
-    <row r="464" spans="1:4" s="1" customFormat="1">
+    <row r="464" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>2018</v>
       </c>
@@ -7743,7 +7746,7 @@
         <v>12.138923393387724</v>
       </c>
     </row>
-    <row r="465" spans="1:4" s="1" customFormat="1">
+    <row r="465" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>2018</v>
       </c>
@@ -7757,7 +7760,7 @@
         <v>11.023282490376955</v>
       </c>
     </row>
-    <row r="466" spans="1:4" s="1" customFormat="1">
+    <row r="466" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>2018</v>
       </c>
@@ -7771,7 +7774,7 @@
         <v>9.8168937119138029</v>
       </c>
     </row>
-    <row r="467" spans="1:4" s="1" customFormat="1">
+    <row r="467" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>2018</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v>8.5627376017526142</v>
       </c>
     </row>
-    <row r="468" spans="1:4" s="1" customFormat="1">
+    <row r="468" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>2018</v>
       </c>
@@ -7799,7 +7802,7 @@
         <v>4.3190949579434834</v>
       </c>
     </row>
-    <row r="469" spans="1:4" s="1" customFormat="1">
+    <row r="469" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>2018</v>
       </c>
@@ -7813,7 +7816,7 @@
         <v>7.0933821251548945</v>
       </c>
     </row>
-    <row r="470" spans="1:4" s="1" customFormat="1">
+    <row r="470" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>2018</v>
       </c>
@@ -7827,7 +7830,7 @@
         <v>5.7466751024343212</v>
       </c>
     </row>
-    <row r="471" spans="1:4" s="1" customFormat="1">
+    <row r="471" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>2018</v>
       </c>
@@ -7841,7 +7844,7 @@
         <v>12.495112674155788</v>
       </c>
     </row>
-    <row r="472" spans="1:4" s="1" customFormat="1">
+    <row r="472" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>2018</v>
       </c>
@@ -7855,7 +7858,7 @@
         <v>15.891233646070431</v>
       </c>
     </row>
-    <row r="473" spans="1:4" s="1" customFormat="1">
+    <row r="473" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>2018</v>
       </c>
@@ -7869,7 +7872,7 @@
         <v>10.487005565275494</v>
       </c>
     </row>
-    <row r="474" spans="1:4" s="1" customFormat="1">
+    <row r="474" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>2018</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>10.457284089135911</v>
       </c>
     </row>
-    <row r="475" spans="1:4" s="1" customFormat="1">
+    <row r="475" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>2018</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>5.7152665393578452</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>2018</v>
       </c>
@@ -7911,7 +7914,7 @@
         <v>8.8189927919005164</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>2018</v>
       </c>
@@ -7925,7 +7928,7 @@
         <v>5.1195073647728675</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>2018</v>
       </c>
@@ -7939,7 +7942,7 @@
         <v>13.179234899969483</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>2018</v>
       </c>
@@ -7953,7 +7956,7 @@
         <v>6.3092552438517453</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>2018</v>
       </c>
@@ -7967,7 +7970,7 @@
         <v>7.4365620082140254</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>2018</v>
       </c>
@@ -7981,7 +7984,7 @@
         <v>16.58323444553027</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>2019</v>
       </c>
@@ -7995,7 +7998,7 @@
         <v>19.643958224230506</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>2019</v>
       </c>
@@ -8009,7 +8012,7 @@
         <v>24.715063293849774</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>2019</v>
       </c>
@@ -8023,7 +8026,7 @@
         <v>7.9640051552718791</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>2019</v>
       </c>
@@ -8037,7 +8040,7 @@
         <v>13.444236269077935</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>2019</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>5.8917305691961586</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <v>2019</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>15.734864228645909</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>2019</v>
       </c>
@@ -8079,7 +8082,7 @@
         <v>12.049695550812029</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>2019</v>
       </c>
@@ -8093,7 +8096,7 @@
         <v>10.659197328953976</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>2019</v>
       </c>
@@ -8107,7 +8110,7 @@
         <v>9.8250899578357132</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>2019</v>
       </c>
@@ -8121,7 +8124,7 @@
         <v>8.5604642174650554</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>2019</v>
       </c>
@@ -8135,7 +8138,7 @@
         <v>5.0578618428674034</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>2019</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>7.0927922869920428</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>2019</v>
       </c>
@@ -8163,7 +8166,7 @@
         <v>5.742764175317399</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>2019</v>
       </c>
@@ -8177,7 +8180,7 @@
         <v>12.512773459683503</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>2019</v>
       </c>
@@ -8191,7 +8194,7 @@
         <v>15.884653263915219</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>2019</v>
       </c>
@@ -8205,7 +8208,7 @@
         <v>10.488420648136287</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>2019</v>
       </c>
@@ -8219,7 +8222,7 @@
         <v>10.377100013969459</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>2019</v>
       </c>
@@ -8233,7 +8236,7 @@
         <v>5.8392631894295359</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>2019</v>
       </c>
@@ -8247,7 +8250,7 @@
         <v>8.7085551887545929</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>2019</v>
       </c>
@@ -8261,7 +8264,7 @@
         <v>5.7799929703975632</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>2019</v>
       </c>
@@ -8275,7 +8278,7 @@
         <v>12.986963477266004</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>2019</v>
       </c>
@@ -8289,7 +8292,7 @@
         <v>6.4150707379690832</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>2019</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>6.3411014506123013</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>2019</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>16.573299964579572</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>2019</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>22.480046018557395</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <v>2019</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>30.346259857091994</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>2019</v>
       </c>
@@ -8359,7 +8362,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>2019</v>
       </c>
@@ -8373,7 +8376,7 @@
         <v>16.01024333099657</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <v>2019</v>
       </c>
@@ -8387,7 +8390,7 @@
         <v>6.0544068935437858</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>2019</v>
       </c>
@@ -8401,7 +8404,7 @@
         <v>18.431517831912782</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
         <v>2019</v>
       </c>
@@ -8415,7 +8418,7 @@
         <v>13.833035083816176</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
         <v>2019</v>
       </c>
@@ -8429,7 +8432,7 @@
         <v>12.193357817950574</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>2019</v>
       </c>
@@ -8443,7 +8446,7 @@
         <v>10.836611219480826</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <v>2019</v>
       </c>
@@ -8457,7 +8460,7 @@
         <v>12.073382280507326</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>2019</v>
       </c>
@@ -8471,7 +8474,7 @@
         <v>5.4922883214179663</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <v>2019</v>
       </c>
@@ -8485,7 +8488,7 @@
         <v>7.8941634860050893</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>2019</v>
       </c>
@@ -8499,7 +8502,7 @@
         <v>6.0262969045262302</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <v>2019</v>
       </c>
@@ -8513,7 +8516,7 @@
         <v>14.50130254739236</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
         <v>2019</v>
       </c>
@@ -8527,7 +8530,7 @@
         <v>17.242865250195976</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>2019</v>
       </c>
@@ -8541,7 +8544,7 @@
         <v>11.628050204319907</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
         <v>2019</v>
       </c>
@@ -8555,7 +8558,7 @@
         <v>12.548748750601563</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <v>2019</v>
       </c>
@@ -8569,7 +8572,7 @@
         <v>6.1185220130690414</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
         <v>2019</v>
       </c>
@@ -8583,7 +8586,7 @@
         <v>19.875972848399364</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
         <v>2019</v>
       </c>
@@ -8597,7 +8600,7 @@
         <v>6.0080473175608127</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>2019</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>15.074549058890282</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
         <v>2019</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>7.1031128829665224</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
         <v>2019</v>
       </c>
@@ -8639,7 +8642,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
         <v>2019</v>
       </c>
@@ -8653,7 +8656,7 @@
         <v>18.529317885920335</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <v>2019</v>
       </c>
@@ -8667,7 +8670,7 @@
         <v>25.679380143834067</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <v>2019</v>
       </c>
@@ -8681,7 +8684,7 @@
         <v>38.714100560711387</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
         <v>2019</v>
       </c>
@@ -8695,7 +8698,7 @@
         <v>9.2934074294598261</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
         <v>2019</v>
       </c>
@@ -8709,7 +8712,7 @@
         <v>19.994668122685404</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
         <v>2019</v>
       </c>
@@ -8723,7 +8726,7 @@
         <v>6.9663235884742907</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
         <v>2019</v>
       </c>
@@ -8737,7 +8740,7 @@
         <v>23.193402364939846</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
         <v>2019</v>
       </c>
@@ -8751,7 +8754,7 @@
         <v>16.69992255090861</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
         <v>2019</v>
       </c>
@@ -8765,7 +8768,7 @@
         <v>14.695132866500609</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
         <v>2019</v>
       </c>
@@ -8779,7 +8782,7 @@
         <v>13.22353748406198</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
         <v>2019</v>
       </c>
@@ -8793,7 +8796,7 @@
         <v>11.968240929924347</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
         <v>2019</v>
       </c>
@@ -8807,7 +8810,7 @@
         <v>5.7196664648910414</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
         <v>2019</v>
       </c>
@@ -8821,7 +8824,7 @@
         <v>8.0023752969121134</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
         <v>2019</v>
       </c>
@@ -8835,7 +8838,7 @@
         <v>6.1082285455214702</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
         <v>2019</v>
       </c>
@@ -8849,7 +8852,7 @@
         <v>17.931522461372833</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
         <v>2019</v>
       </c>
@@ -8863,7 +8866,7 @@
         <v>23.748415159966662</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
         <v>2019</v>
       </c>
@@ -8877,7 +8880,7 @@
         <v>15.983718503999242</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
         <v>2019</v>
       </c>
@@ -8891,7 +8894,7 @@
         <v>14.746465244455523</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
         <v>2019</v>
       </c>
@@ -8905,7 +8908,7 @@
         <v>6.0382295086509021</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
         <v>2019</v>
       </c>
@@ -8919,7 +8922,7 @@
         <v>19.743826982349614</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
         <v>2019</v>
       </c>
@@ -8933,7 +8936,7 @@
         <v>5.0177469409564512</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
         <v>2019</v>
       </c>
@@ -8947,7 +8950,7 @@
         <v>18.165529686687883</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
         <v>2019</v>
       </c>
@@ -8961,7 +8964,7 @@
         <v>9.3894131314263589</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
         <v>2019</v>
       </c>
@@ -8975,7 +8978,7 @@
         <v>6.6907013801434116</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
         <v>2019</v>
       </c>
@@ -8989,7 +8992,7 @@
         <v>19.323994794580525</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
         <v>2019</v>
       </c>
@@ -9003,7 +9006,7 @@
         <v>30.769694141005864</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
         <v>2019</v>
       </c>
@@ -9017,7 +9020,7 @@
         <v>44.203178670085876</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
         <v>2019</v>
       </c>
@@ -9031,7 +9034,7 @@
         <v>24.878307670462615</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
         <v>2019</v>
       </c>
@@ -9045,7 +9048,7 @@
         <v>23.374950800162289</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
         <v>2019</v>
       </c>
@@ -9059,7 +9062,7 @@
         <v>6.9941135234450593</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
         <v>2019</v>
       </c>
@@ -9073,7 +9076,7 @@
         <v>26.16228061451293</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
         <v>2019</v>
       </c>
@@ -9087,7 +9090,7 @@
         <v>19.255411607971407</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
         <v>2019</v>
       </c>
@@ -9101,7 +9104,7 @@
         <v>17.007580897657125</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
         <v>2019</v>
       </c>
@@ -9115,7 +9118,7 @@
         <v>14.525629551519327</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
         <v>2019</v>
       </c>
@@ -9129,7 +9132,7 @@
         <v>12.959200042804211</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
         <v>2019</v>
       </c>
@@ -9143,7 +9146,7 @@
         <v>6.5261521956930428</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
         <v>2019</v>
       </c>
@@ -9157,7 +9160,7 @@
         <v>8.0008803640296282</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
         <v>2019</v>
       </c>
@@ -9171,7 +9174,7 @@
         <v>7.7852008899870864</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
         <v>2019</v>
       </c>
@@ -9185,7 +9188,7 @@
         <v>20.320347435742729</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
         <v>2019</v>
       </c>
@@ -9199,7 +9202,7 @@
         <v>26.019884314782949</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
         <v>2019</v>
       </c>
@@ -9213,7 +9216,7 @@
         <v>17.17699897385603</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
         <v>2019</v>
       </c>
@@ -9227,7 +9230,7 @@
         <v>19.083573022833811</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
         <v>2019</v>
       </c>
@@ -9241,7 +9244,7 @@
         <v>6.040171698468491</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
         <v>2019</v>
       </c>
@@ -9255,7 +9258,7 @@
         <v>20.690353422143115</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
         <v>2019</v>
       </c>
@@ -9269,7 +9272,7 @@
         <v>5.2079250640697081</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
         <v>2019</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>20.547197019807282</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="2">
         <v>2019</v>
       </c>
@@ -9297,7 +9300,7 @@
         <v>9.7922018443558461</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="2">
         <v>2019</v>
       </c>
@@ -9311,7 +9314,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
         <v>2019</v>
       </c>
@@ -9325,7 +9328,7 @@
         <v>29.870389324312761</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
         <v>2020</v>
       </c>
@@ -9339,7 +9342,7 @@
         <v>45.181288073755518</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
         <v>2020</v>
       </c>
@@ -9353,7 +9356,7 @@
         <v>58.705682962422472</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" s="2">
         <v>2020</v>
       </c>
@@ -9367,7 +9370,7 @@
         <v>29.132225012939607</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="2">
         <v>2020</v>
       </c>
@@ -9381,7 +9384,7 @@
         <v>25.942049334121737</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="2">
         <v>2020</v>
       </c>
@@ -9395,7 +9398,7 @@
         <v>7.1170477818653968</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" s="2">
         <v>2020</v>
       </c>
@@ -9409,7 +9412,7 @@
         <v>29.394787835061326</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" s="2">
         <v>2020</v>
       </c>
@@ -9423,7 +9426,7 @@
         <v>20.538999274943325</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" s="2">
         <v>2020</v>
       </c>
@@ -9437,7 +9440,7 @@
         <v>19.029765335057498</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" s="2">
         <v>2020</v>
       </c>
@@ -9451,7 +9454,7 @@
         <v>15.697352607415109</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="2">
         <v>2020</v>
       </c>
@@ -9465,7 +9468,7 @@
         <v>14.14492205715465</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" s="2">
         <v>2020</v>
       </c>
@@ -9479,7 +9482,7 @@
         <v>7.2917577204748261</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="2">
         <v>2020</v>
       </c>
@@ -9493,7 +9496,7 @@
         <v>7.9624189471506872</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" s="2">
         <v>2020</v>
       </c>
@@ -9507,7 +9510,7 @@
         <v>8.4408677102169971</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" s="2">
         <v>2020</v>
       </c>
@@ -9521,7 +9524,7 @@
         <v>22.148213068436263</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="2">
         <v>2020</v>
       </c>
@@ -9535,7 +9538,7 @@
         <v>27.76828207897622</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="2">
         <v>2020</v>
       </c>
@@ -9549,7 +9552,7 @@
         <v>19.06030056406124</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" s="2">
         <v>2020</v>
       </c>
@@ -9563,7 +9566,7 @@
         <v>21.425047243902736</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
         <v>2020</v>
       </c>
@@ -9577,7 +9580,7 @@
         <v>6.0369845914840994</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="2">
         <v>2020</v>
       </c>
@@ -9591,7 +9594,7 @@
         <v>20.989379744282658</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
         <v>2020</v>
       </c>
@@ -9605,7 +9608,7 @@
         <v>6.4171706273640279</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
         <v>2020</v>
       </c>
@@ -9619,7 +9622,7 @@
         <v>22.424056770036248</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
         <v>2020</v>
       </c>
@@ -9633,7 +9636,7 @@
         <v>10.000539080494759</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="2">
         <v>2020</v>
       </c>
@@ -9647,7 +9650,7 @@
         <v>7.4108658376963348</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
         <v>2020</v>
       </c>
@@ -9661,7 +9664,7 @@
         <v>32.24553094303289</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <v>2020</v>
       </c>
@@ -9675,7 +9678,7 @@
         <v>45.661973632122773</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="2">
         <v>2020</v>
       </c>
@@ -9689,7 +9692,7 @@
         <v>60.4844973584038</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="2">
         <v>2020</v>
       </c>
@@ -9703,7 +9706,7 @@
         <v>34.925956428571432</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="2">
         <v>2020</v>
       </c>
@@ -9717,7 +9720,7 @@
         <v>27.952284674364286</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="2">
         <v>2020</v>
       </c>
@@ -9731,7 +9734,7 @@
         <v>7.6054879845590833</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <v>2020</v>
       </c>
@@ -9745,7 +9748,7 @@
         <v>30.987577637139466</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
         <v>2020</v>
       </c>
@@ -9759,7 +9762,7 @@
         <v>22.150306062575758</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
         <v>2020</v>
       </c>
@@ -9773,7 +9776,7 @@
         <v>20.448621178442586</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
         <v>2020</v>
       </c>
@@ -9787,7 +9790,7 @@
         <v>16.870258993114398</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
         <v>2020</v>
       </c>
@@ -9801,7 +9804,7 @@
         <v>15.864013631862552</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" s="2">
         <v>2020</v>
       </c>
@@ -9815,7 +9818,7 @@
         <v>8.0288622555984048</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" s="2">
         <v>2020</v>
       </c>
@@ -9829,7 +9832,7 @@
         <v>11.669110961977259</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
         <v>2020</v>
       </c>
@@ -9843,7 +9846,7 @@
         <v>9.2745627320941555</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
         <v>2020</v>
       </c>
@@ -9857,7 +9860,7 @@
         <v>22.560122617583183</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" s="2">
         <v>2020</v>
       </c>
@@ -9871,7 +9874,7 @@
         <v>29.100147623878513</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" s="2">
         <v>2020</v>
       </c>
@@ -9885,7 +9888,7 @@
         <v>19.679596047283173</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" s="2">
         <v>2020</v>
       </c>
@@ -9899,7 +9902,7 @@
         <v>22.558536187956619</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" s="2">
         <v>2020</v>
       </c>
@@ -9913,7 +9916,7 @@
         <v>6.3086149631964741</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" s="2">
         <v>2020</v>
       </c>
@@ -9927,7 +9930,7 @@
         <v>21.020626936890711</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" s="2">
         <v>2020</v>
       </c>
@@ -9941,7 +9944,7 @@
         <v>6.593202418178028</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" s="2">
         <v>2020</v>
       </c>
@@ -9955,7 +9958,7 @@
         <v>23.925791608984095</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" s="2">
         <v>2020</v>
       </c>
@@ -9969,7 +9972,7 @@
         <v>10.411619106122004</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" s="2">
         <v>2020</v>
       </c>
@@ -9983,7 +9986,7 @@
         <v>8.128329395457266</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" s="2">
         <v>2020</v>
       </c>
@@ -9997,7 +10000,7 @@
         <v>32.704534437187966</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
         <v>2020</v>
       </c>
@@ -10011,7 +10014,7 @@
         <v>48.376623908115107</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" s="2">
         <v>2020</v>
       </c>
@@ -10025,7 +10028,7 @@
         <v>63.808520256071724</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" s="2">
         <v>2020</v>
       </c>
@@ -10039,7 +10042,7 @@
         <v>36.540436607329845</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" s="2">
         <v>2020</v>
       </c>
@@ -10053,7 +10056,7 @@
         <v>30.802726948564217</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" s="2">
         <v>2020</v>
       </c>
@@ -10067,7 +10070,7 @@
         <v>7.4020744418447872</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" s="2">
         <v>2020</v>
       </c>
@@ -10081,7 +10084,7 @@
         <v>33.511194974197892</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" s="2">
         <v>2020</v>
       </c>
@@ -10095,7 +10098,7 @@
         <v>23.851523971242955</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" s="2">
         <v>2020</v>
       </c>
@@ -10109,7 +10112,7 @@
         <v>22.432598646206184</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" s="2">
         <v>2020</v>
       </c>
@@ -10123,7 +10126,7 @@
         <v>18.282832069430402</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" s="2">
         <v>2020</v>
       </c>
@@ -10137,7 +10140,7 @@
         <v>21.910419686869954</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
         <v>2020</v>
       </c>
@@ -10151,7 +10154,7 @@
         <v>10.697630905402091</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" s="2">
         <v>2020</v>
       </c>
@@ -10165,7 +10168,7 @@
         <v>12.194703767058197</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
         <v>2020</v>
       </c>
@@ -10179,7 +10182,7 @@
         <v>10.187491034595631</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
         <v>2020</v>
       </c>
@@ -10193,7 +10196,7 @@
         <v>24.141761872521517</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" s="2">
         <v>2020</v>
       </c>
@@ -10207,7 +10210,7 @@
         <v>31.460904027033759</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" s="2">
         <v>2020</v>
       </c>
@@ -10221,7 +10224,7 @@
         <v>21.077778703258762</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" s="2">
         <v>2020</v>
       </c>
@@ -10235,7 +10238,7 @@
         <v>25.261155924027737</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" s="2">
         <v>2020</v>
       </c>
@@ -10249,7 +10252,7 @@
         <v>6.0278647935826823</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" s="2">
         <v>2020</v>
       </c>
@@ -10263,7 +10266,7 @@
         <v>20.849928133788669</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" s="2">
         <v>2020</v>
       </c>
@@ -10277,7 +10280,7 @@
         <v>6.6493637120266333</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" s="2">
         <v>2020</v>
       </c>
@@ -10291,7 +10294,7 @@
         <v>25.690941341268072</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
         <v>2020</v>
       </c>
@@ -10305,7 +10308,7 @@
         <v>10.879017270659741</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" s="2">
         <v>2020</v>
       </c>
@@ -10319,7 +10322,7 @@
         <v>8.506676055475614</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
         <v>2020</v>
       </c>
@@ -10333,7 +10336,7 @@
         <v>34.835801698615526</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
         <v>2020</v>
       </c>
@@ -10347,7 +10350,7 @@
         <v>50.008380839635755</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" s="2">
         <v>2020</v>
       </c>
@@ -10361,7 +10364,7 @@
         <v>67.32513676879374</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
         <v>2020</v>
       </c>
@@ -10375,7 +10378,7 @@
         <v>37.650087727354403</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
         <v>2020</v>
       </c>
@@ -10389,7 +10392,7 @@
         <v>32.452046764181013</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654" s="2">
         <v>2020</v>
       </c>
@@ -10403,7 +10406,7 @@
         <v>7.3830876264147358</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
         <v>2020</v>
       </c>
@@ -10417,7 +10420,7 @@
         <v>35.120601241883946</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
         <v>2020</v>
       </c>
@@ -10431,7 +10434,7 @@
         <v>25.446700896630592</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657" s="2">
         <v>2020</v>
       </c>
@@ -10445,7 +10448,7 @@
         <v>24.053278253060451</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
         <v>2020</v>
       </c>
@@ -10459,7 +10462,7 @@
         <v>19.698349008778798</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659" s="2">
         <v>2020</v>
       </c>
@@ -10473,7 +10476,7 @@
         <v>25.206393284161489</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660" s="2">
         <v>2020</v>
       </c>
@@ -10487,7 +10490,7 @@
         <v>9.8756051708609274</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661" s="2">
         <v>2020</v>
       </c>
@@ -10501,7 +10504,7 @@
         <v>12.534655980598345</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662" s="2">
         <v>2020</v>
       </c>
@@ -10515,7 +10518,7 @@
         <v>11.093171319457166</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663" s="2">
         <v>2020</v>
       </c>
@@ -10529,7 +10532,7 @@
         <v>24.956617779680364</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664" s="2">
         <v>2020</v>
       </c>
@@ -10543,7 +10546,7 @@
         <v>33.907864866773927</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665" s="2">
         <v>2020</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>21.636719189849995</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666" s="2">
         <v>2020</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v>25.322439650744734</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A667" s="2">
         <v>2020</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>6.4128673979531827</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A668" s="2">
         <v>2020</v>
       </c>
@@ -10599,7 +10602,7 @@
         <v>21.252954082189127</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" s="2">
         <v>2020</v>
       </c>
@@ -10613,7 +10616,7 @@
         <v>7.492108628119051</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A670" s="2">
         <v>2020</v>
       </c>
@@ -10627,7 +10630,7 @@
         <v>27.294352446215623</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671" s="2">
         <v>2020</v>
       </c>
@@ -10641,7 +10644,7 @@
         <v>11.280765527511996</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A672" s="2">
         <v>2020</v>
       </c>
@@ -10655,7 +10658,7 @@
         <v>8.4868069493378684</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" s="2">
         <v>2020</v>
       </c>
@@ -10669,7 +10672,7 @@
         <v>36.442246829152964</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A674" s="2">
         <v>2021</v>
       </c>
@@ -10683,7 +10686,7 @@
         <v>50.785656085065078</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A675" s="2">
         <v>2021</v>
       </c>
@@ -10697,7 +10700,7 @@
         <v>68.290268867968976</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A676" s="2">
         <v>2021</v>
       </c>
@@ -10711,7 +10714,7 @@
         <v>39.966526239652822</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A677" s="2">
         <v>2021</v>
       </c>
@@ -10725,7 +10728,7 @@
         <v>33.626201299986299</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A678" s="2">
         <v>2021</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v>7.5315274091441973</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A679" s="2">
         <v>2021</v>
       </c>
@@ -10753,7 +10756,7 @@
         <v>36.168799328437636</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680" s="2">
         <v>2021</v>
       </c>
@@ -10767,7 +10770,7 @@
         <v>25.985171359720066</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681" s="2">
         <v>2021</v>
       </c>
@@ -10781,7 +10784,7 @@
         <v>23.871334373183572</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682" s="2">
         <v>2021</v>
       </c>
@@ -10795,7 +10798,7 @@
         <v>20.980327506975218</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683" s="2">
         <v>2021</v>
       </c>
@@ -10809,7 +10812,7 @@
         <v>26.777362312404005</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A684" s="2">
         <v>2021</v>
       </c>
@@ -10823,7 +10826,7 @@
         <v>10.728511929531797</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A685" s="2">
         <v>2021</v>
       </c>
@@ -10837,7 +10840,7 @@
         <v>12.697554732181876</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A686" s="2">
         <v>2021</v>
       </c>
@@ -10851,7 +10854,7 @@
         <v>12.599361245254226</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A687" s="2">
         <v>2021</v>
       </c>
@@ -10865,7 +10868,7 @@
         <v>25.076826126081443</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A688" s="2">
         <v>2021</v>
       </c>
@@ -10879,7 +10882,7 @@
         <v>34.238502647536421</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A689" s="2">
         <v>2021</v>
       </c>
@@ -10893,7 +10896,7 @@
         <v>21.923906760830956</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A690" s="2">
         <v>2021</v>
       </c>
@@ -10907,7 +10910,7 @@
         <v>27.318840694049818</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A691" s="2">
         <v>2021</v>
       </c>
@@ -10921,7 +10924,7 @@
         <v>6.9100899953820667</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A692" s="2">
         <v>2021</v>
       </c>
@@ -10935,7 +10938,7 @@
         <v>21.594379804710776</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A693" s="2">
         <v>2021</v>
       </c>
@@ -10949,7 +10952,7 @@
         <v>7.5015318475317638</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A694" s="2">
         <v>2021</v>
       </c>
@@ -10963,7 +10966,7 @@
         <v>28.130630073152936</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A695" s="2">
         <v>2021</v>
       </c>
@@ -10977,7 +10980,7 @@
         <v>11.584174516498134</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A696" s="2">
         <v>2021</v>
       </c>
@@ -10991,7 +10994,7 @@
         <v>8.7347523962778979</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A697" s="2">
         <v>2021</v>
       </c>
@@ -11005,7 +11008,7 @@
         <v>37.979619581908281</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A698" s="2">
         <v>2021</v>
       </c>
@@ -11019,7 +11022,7 @@
         <v>52.755429370037128</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A699" s="2">
         <v>2021</v>
       </c>
@@ -11033,7 +11036,7 @@
         <v>72.746750032314765</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A700" s="2">
         <v>2021</v>
       </c>
@@ -11047,7 +11050,7 @@
         <v>42.185063767791107</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A701" s="2">
         <v>2021</v>
       </c>
@@ -11061,7 +11064,7 @@
         <v>37.396909596222066</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A702" s="2">
         <v>2021</v>
       </c>
@@ -11075,7 +11078,7 @@
         <v>7.6769062171334799</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A703" s="2">
         <v>2021</v>
       </c>
@@ -11089,7 +11092,7 @@
         <v>39.590116489947938</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A704" s="2">
         <v>2021</v>
       </c>
@@ -11103,7 +11106,7 @@
         <v>30.368054802005656</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" s="2">
         <v>2021</v>
       </c>
@@ -11117,7 +11120,7 @@
         <v>27.618973062035561</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" s="2">
         <v>2021</v>
       </c>
@@ -11131,7 +11134,7 @@
         <v>23.96630452806761</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A707" s="2">
         <v>2021</v>
       </c>
@@ -11145,7 +11148,7 @@
         <v>25.812477856862227</v>
       </c>
     </row>
-    <row r="708" spans="1:4">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708" s="2">
         <v>2021</v>
       </c>
@@ -11159,7 +11162,7 @@
         <v>12.279223738048181</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A709" s="2">
         <v>2021</v>
       </c>
@@ -11173,7 +11176,7 @@
         <v>38.534894383007746</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A710" s="2">
         <v>2021</v>
       </c>
@@ -11187,7 +11190,7 @@
         <v>13.465987205003026</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A711" s="2">
         <v>2021</v>
       </c>
@@ -11201,7 +11204,7 @@
         <v>28.682221735396933</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A712" s="2">
         <v>2021</v>
       </c>
@@ -11215,7 +11218,7 @@
         <v>36.109721458466879</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A713" s="2">
         <v>2021</v>
       </c>
@@ -11229,7 +11232,7 @@
         <v>23.748446681442676</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A714" s="2">
         <v>2021</v>
       </c>
@@ -11243,7 +11246,7 @@
         <v>29.239354220742428</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715" s="2">
         <v>2021</v>
       </c>
@@ -11257,7 +11260,7 @@
         <v>6.9931626016260164</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A716" s="2">
         <v>2021</v>
       </c>
@@ -11271,7 +11274,7 @@
         <v>21.661889989639239</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A717" s="2">
         <v>2021</v>
       </c>
@@ -11285,7 +11288,7 @@
         <v>7.6296670052023963</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A718" s="2">
         <v>2021</v>
       </c>
@@ -11299,7 +11302,7 @@
         <v>30.701883164551901</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A719" s="2">
         <v>2021</v>
       </c>
@@ -11313,7 +11316,7 @@
         <v>12.718797838683303</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A720" s="2">
         <v>2021</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>8.5919214264834842</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" s="2">
         <v>2021</v>
       </c>
@@ -11341,7 +11344,7 @@
         <v>40.30992032851357</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A722" s="2">
         <v>2021</v>
       </c>
@@ -11355,7 +11358,7 @@
         <v>56.257550924695913</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A723" s="2">
         <v>2021</v>
       </c>
@@ -11369,7 +11372,7 @@
         <v>77.712071069073119</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A724" s="2">
         <v>2021</v>
       </c>
@@ -11383,7 +11386,7 @@
         <v>43.433335997631737</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A725" s="2">
         <v>2021</v>
       </c>
@@ -11397,7 +11400,7 @@
         <v>39.113135809207584</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A726" s="2">
         <v>2021</v>
       </c>
@@ -11411,7 +11414,7 @@
         <v>8.1768603631366048</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A727" s="2">
         <v>2021</v>
       </c>
@@ -11425,7 +11428,7 @@
         <v>41.927787245662017</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A728" s="2">
         <v>2021</v>
       </c>
@@ -11439,7 +11442,7 @@
         <v>32.168900827858288</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A729" s="2">
         <v>2021</v>
       </c>
@@ -11453,7 +11456,7 @@
         <v>29.601231879492769</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A730" s="2">
         <v>2021</v>
       </c>
@@ -11467,7 +11470,7 @@
         <v>26.689426784946654</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A731" s="2">
         <v>2021</v>
       </c>
@@ -11481,7 +11484,7 @@
         <v>25.980702520297545</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A732" s="2">
         <v>2021</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>12.99161507240359</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A733" s="2">
         <v>2021</v>
       </c>
@@ -11509,7 +11512,7 @@
         <v>38.867951854450439</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A734" s="2">
         <v>2021</v>
       </c>
@@ -11523,7 +11526,7 @@
         <v>13.365156173184467</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" s="2">
         <v>2021</v>
       </c>
@@ -11537,7 +11540,7 @@
         <v>30.87871831426499</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A736" s="2">
         <v>2021</v>
       </c>
@@ -11551,7 +11554,7 @@
         <v>38.342223154287417</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A737" s="2">
         <v>2021</v>
       </c>
@@ -11565,7 +11568,7 @@
         <v>25.400065197148727</v>
       </c>
     </row>
-    <row r="738" spans="1:4">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A738" s="2">
         <v>2021</v>
       </c>
@@ -11579,7 +11582,7 @@
         <v>31.209681857038827</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A739" s="2">
         <v>2021</v>
       </c>
@@ -11593,7 +11596,7 @@
         <v>7.0413008203949667</v>
       </c>
     </row>
-    <row r="740" spans="1:4">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A740" s="2">
         <v>2021</v>
       </c>
@@ -11607,7 +11610,7 @@
         <v>21.69870707116376</v>
       </c>
     </row>
-    <row r="741" spans="1:4">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A741" s="2">
         <v>2021</v>
       </c>
@@ -11621,7 +11624,7 @@
         <v>7.6923269418129809</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A742" s="2">
         <v>2021</v>
       </c>
@@ -11635,7 +11638,7 @@
         <v>33.132296247381312</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A743" s="2">
         <v>2021</v>
       </c>
@@ -11649,7 +11652,7 @@
         <v>13.352723533519553</v>
       </c>
     </row>
-    <row r="744" spans="1:4">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A744" s="2">
         <v>2021</v>
       </c>
@@ -11663,7 +11666,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A745" s="2">
         <v>2021</v>
       </c>
@@ -11677,7 +11680,7 @@
         <v>42.101185305714822</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A746" s="2">
         <v>2021</v>
       </c>
@@ -11691,7 +11694,7 @@
         <v>60.209123831555402</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A747" s="2">
         <v>2021</v>
       </c>
@@ -11705,7 +11708,7 @@
         <v>82.949954965422478</v>
       </c>
     </row>
-    <row r="748" spans="1:4">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A748" s="2">
         <v>2021</v>
       </c>
@@ -11719,7 +11722,7 @@
         <v>46.380057758939095</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A749" s="2">
         <v>2021</v>
       </c>
@@ -11733,7 +11736,7 @@
         <v>42.342637514688604</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A750" s="2">
         <v>2021</v>
       </c>
@@ -11747,7 +11750,7 @@
         <v>9.0826606385554669</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A751" s="2">
         <v>2021</v>
       </c>
@@ -11761,7 +11764,7 @@
         <v>46.360907457992141</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A752" s="2">
         <v>2021</v>
       </c>
@@ -11775,7 +11778,7 @@
         <v>35.772659194287044</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A753" s="2">
         <v>2021</v>
       </c>
@@ -11789,7 +11792,7 @@
         <v>33.317125841674617</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A754" s="2">
         <v>2021</v>
       </c>
@@ -11803,7 +11806,7 @@
         <v>28.757648947694211</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A755" s="2">
         <v>2021</v>
       </c>
@@ -11817,7 +11820,7 @@
         <v>27.144343038417077</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A756" s="2">
         <v>2021</v>
       </c>
@@ -11831,7 +11834,7 @@
         <v>13.853882842854395</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A757" s="2">
         <v>2021</v>
       </c>
@@ -11845,7 +11848,7 @@
         <v>39.695945136679981</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A758" s="2">
         <v>2021</v>
       </c>
@@ -11859,7 +11862,7 @@
         <v>22.23158340100516</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A759" s="2">
         <v>2021</v>
       </c>
@@ -11873,7 +11876,7 @@
         <v>38.903349250907574</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A760" s="2">
         <v>2021</v>
       </c>
@@ -11887,7 +11890,7 @@
         <v>40.092530111167584</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A761" s="2">
         <v>2021</v>
       </c>
@@ -11901,7 +11904,7 @@
         <v>27.203170454892149</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A762" s="2">
         <v>2021</v>
       </c>
@@ -11915,7 +11918,7 @@
         <v>33.940639744985226</v>
       </c>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A763" s="2">
         <v>2021</v>
       </c>
@@ -11929,7 +11932,7 @@
         <v>11.052749308157779</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A764" s="2">
         <v>2021</v>
       </c>
@@ -11943,7 +11946,7 @@
         <v>20.909724448014639</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A765" s="2">
         <v>2021</v>
       </c>
@@ -11957,7 +11960,7 @@
         <v>8.9906509844775488</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A766" s="2">
         <v>2021</v>
       </c>
@@ -11971,7 +11974,7 @@
         <v>36.024023837275145</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A767" s="2">
         <v>2021</v>
       </c>
@@ -11985,7 +11988,7 @@
         <v>13.840886849515069</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A768" s="2">
         <v>2021</v>
       </c>
@@ -11999,7 +12002,7 @@
         <v>10.696704944050465</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A769" s="2">
         <v>2021</v>
       </c>
@@ -12013,7 +12016,7 @@
         <v>45.148122433399472</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A770" s="2">
         <v>2022</v>
       </c>
@@ -12027,7 +12030,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A771" s="2">
         <v>2022</v>
       </c>
@@ -12041,7 +12044,7 @@
         <v>88.22</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A772" s="2">
         <v>2022</v>
       </c>
@@ -12055,7 +12058,7 @@
         <v>51.22</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A773" s="2">
         <v>2022</v>
       </c>
@@ -12069,7 +12072,7 @@
         <v>45.84</v>
       </c>
     </row>
-    <row r="774" spans="1:4">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A774" s="2">
         <v>2022</v>
       </c>
@@ -12083,7 +12086,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="775" spans="1:4">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A775" s="2">
         <v>2022</v>
       </c>
@@ -12097,7 +12100,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A776" s="2">
         <v>2022</v>
       </c>
@@ -12111,7 +12114,7 @@
         <v>38.11</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A777" s="2">
         <v>2022</v>
       </c>
@@ -12125,7 +12128,7 @@
         <v>35.590000000000003</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A778" s="2">
         <v>2022</v>
       </c>
@@ -12139,7 +12142,7 @@
         <v>30.28</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A779" s="2">
         <v>2022</v>
       </c>
@@ -12153,7 +12156,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="780" spans="1:4">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A780" s="2">
         <v>2022</v>
       </c>
@@ -12167,7 +12170,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="781" spans="1:4">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A781" s="2">
         <v>2022</v>
       </c>
@@ -12181,7 +12184,7 @@
         <v>41.37</v>
       </c>
     </row>
-    <row r="782" spans="1:4">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A782" s="2">
         <v>2022</v>
       </c>
@@ -12195,7 +12198,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="783" spans="1:4">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A783" s="2">
         <v>2022</v>
       </c>
@@ -12209,7 +12212,7 @@
         <v>41.87</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A784" s="2">
         <v>2022</v>
       </c>
@@ -12223,7 +12226,7 @@
         <v>43.05</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A785" s="2">
         <v>2022</v>
       </c>
@@ -12237,7 +12240,7 @@
         <v>31.09</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A786" s="2">
         <v>2022</v>
       </c>
@@ -12251,7 +12254,7 @@
         <v>36.71</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A787" s="2">
         <v>2022</v>
       </c>
@@ -12265,7 +12268,7 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A788" s="2">
         <v>2022</v>
       </c>
@@ -12279,7 +12282,7 @@
         <v>20.95</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A789" s="2">
         <v>2022</v>
       </c>
@@ -12293,7 +12296,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A790" s="2">
         <v>2022</v>
       </c>
@@ -12307,7 +12310,7 @@
         <v>38.89</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A791" s="2">
         <v>2022</v>
       </c>
@@ -12321,7 +12324,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="792" spans="1:4">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A792" s="2">
         <v>2022</v>
       </c>
@@ -12335,7 +12338,7 @@
         <v>10.73</v>
       </c>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A793" s="2">
         <v>2022</v>
       </c>
@@ -12349,7 +12352,7 @@
         <v>47.24</v>
       </c>
     </row>
-    <row r="794" spans="1:4">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A794" s="2">
         <v>2022</v>
       </c>
@@ -12363,7 +12366,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A795" s="2">
         <v>2022</v>
       </c>
@@ -12377,7 +12380,7 @@
         <v>93.97</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A796" s="2">
         <v>2022</v>
       </c>
@@ -12391,7 +12394,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A797" s="2">
         <v>2022</v>
       </c>
@@ -12405,7 +12408,7 @@
         <v>50.61</v>
       </c>
     </row>
-    <row r="798" spans="1:4">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A798" s="2">
         <v>2022</v>
       </c>
@@ -12419,7 +12422,7 @@
         <v>14.91</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A799" s="2">
         <v>2022</v>
       </c>
@@ -12433,7 +12436,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="800" spans="1:4">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A800" s="2">
         <v>2022</v>
       </c>
@@ -12447,7 +12450,7 @@
         <v>43.31</v>
       </c>
     </row>
-    <row r="801" spans="1:4">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A801" s="2">
         <v>2022</v>
       </c>
@@ -12461,7 +12464,7 @@
         <v>40.03</v>
       </c>
     </row>
-    <row r="802" spans="1:4">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A802" s="2">
         <v>2022</v>
       </c>
@@ -12475,7 +12478,7 @@
         <v>28.47</v>
       </c>
     </row>
-    <row r="803" spans="1:4">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A803" s="2">
         <v>2022</v>
       </c>
@@ -12489,7 +12492,7 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="804" spans="1:4">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A804" s="2">
         <v>2022</v>
       </c>
@@ -12503,7 +12506,7 @@
         <v>16.07</v>
       </c>
     </row>
-    <row r="805" spans="1:4">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A805" s="2">
         <v>2022</v>
       </c>
@@ -12517,7 +12520,7 @@
         <v>43.28</v>
       </c>
     </row>
-    <row r="806" spans="1:4">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A806" s="2">
         <v>2022</v>
       </c>
@@ -12531,7 +12534,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="807" spans="1:4">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A807" s="2">
         <v>2022</v>
       </c>
@@ -12545,7 +12548,7 @@
         <v>46.23</v>
       </c>
     </row>
-    <row r="808" spans="1:4">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A808" s="2">
         <v>2022</v>
       </c>
@@ -12559,7 +12562,7 @@
         <v>46.53</v>
       </c>
     </row>
-    <row r="809" spans="1:4">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A809" s="2">
         <v>2022</v>
       </c>
@@ -12573,7 +12576,7 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="810" spans="1:4">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A810" s="2">
         <v>2022</v>
       </c>
@@ -12587,7 +12590,7 @@
         <v>38.770000000000003</v>
       </c>
     </row>
-    <row r="811" spans="1:4">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A811" s="2">
         <v>2022</v>
       </c>
@@ -12601,7 +12604,7 @@
         <v>14.44</v>
       </c>
     </row>
-    <row r="812" spans="1:4">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A812" s="2">
         <v>2022</v>
       </c>
@@ -12615,7 +12618,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="813" spans="1:4">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A813" s="2">
         <v>2022</v>
       </c>
@@ -12629,7 +12632,7 @@
         <v>11.81</v>
       </c>
     </row>
-    <row r="814" spans="1:4">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A814" s="2">
         <v>2022</v>
       </c>
@@ -12643,7 +12646,7 @@
         <v>42.01</v>
       </c>
     </row>
-    <row r="815" spans="1:4">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A815" s="2">
         <v>2022</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="816" spans="1:4">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A816" s="2">
         <v>2022</v>
       </c>
@@ -12671,7 +12674,7 @@
         <v>10.97</v>
       </c>
     </row>
-    <row r="817" spans="1:4">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A817" s="2">
         <v>2022</v>
       </c>
@@ -12685,7 +12688,7 @@
         <v>50.09</v>
       </c>
     </row>
-    <row r="818" spans="1:4">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A818" s="2">
         <v>2022</v>
       </c>
@@ -12699,7 +12702,7 @@
         <v>70.19</v>
       </c>
     </row>
-    <row r="819" spans="1:4">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A819" s="2">
         <v>2022</v>
       </c>
@@ -12713,7 +12716,7 @@
         <v>101.05</v>
       </c>
     </row>
-    <row r="820" spans="1:4">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A820" s="2">
         <v>2022</v>
       </c>
@@ -12727,7 +12730,7 @@
         <v>60.99</v>
       </c>
     </row>
-    <row r="821" spans="1:4">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A821" s="2">
         <v>2022</v>
       </c>
@@ -12741,7 +12744,7 @@
         <v>53.21</v>
       </c>
     </row>
-    <row r="822" spans="1:4">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A822" s="2">
         <v>2022</v>
       </c>
@@ -12755,7 +12758,7 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="823" spans="1:4">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A823" s="2">
         <v>2022</v>
       </c>
@@ -12769,7 +12772,7 @@
         <v>56.32</v>
       </c>
     </row>
-    <row r="824" spans="1:4">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A824" s="2">
         <v>2022</v>
       </c>
@@ -12783,7 +12786,7 @@
         <v>45.07</v>
       </c>
     </row>
-    <row r="825" spans="1:4">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A825" s="2">
         <v>2022</v>
       </c>
@@ -12797,7 +12800,7 @@
         <v>42.49</v>
       </c>
     </row>
-    <row r="826" spans="1:4">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A826" s="2">
         <v>2022</v>
       </c>
@@ -12811,7 +12814,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="827" spans="1:4">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A827" s="2">
         <v>2022</v>
       </c>
@@ -12825,7 +12828,7 @@
         <v>32.43</v>
       </c>
     </row>
-    <row r="828" spans="1:4">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A828" s="2">
         <v>2022</v>
       </c>
@@ -12839,7 +12842,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="829" spans="1:4">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A829" s="2">
         <v>2022</v>
       </c>
@@ -12853,7 +12856,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="830" spans="1:4">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A830" s="2">
         <v>2022</v>
       </c>
@@ -12867,7 +12870,7 @@
         <v>34.159999999999997</v>
       </c>
     </row>
-    <row r="831" spans="1:4">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A831" s="2">
         <v>2022</v>
       </c>
@@ -12881,7 +12884,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="832" spans="1:4">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A832" s="2">
         <v>2022</v>
       </c>
@@ -12895,7 +12898,7 @@
         <v>47.81</v>
       </c>
     </row>
-    <row r="833" spans="1:4">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A833" s="2">
         <v>2022</v>
       </c>
@@ -12909,7 +12912,7 @@
         <v>34.130000000000003</v>
       </c>
     </row>
-    <row r="834" spans="1:4">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A834" s="2">
         <v>2022</v>
       </c>
@@ -12923,7 +12926,7 @@
         <v>41.33</v>
       </c>
     </row>
-    <row r="835" spans="1:4">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A835" s="2">
         <v>2022</v>
       </c>
@@ -12937,7 +12940,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="836" spans="1:4">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A836" s="2">
         <v>2022</v>
       </c>
@@ -12951,7 +12954,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="837" spans="1:4">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A837" s="2">
         <v>2022</v>
       </c>
@@ -12965,7 +12968,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="838" spans="1:4">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A838" s="2">
         <v>2022</v>
       </c>
@@ -12979,7 +12982,7 @@
         <v>45.15</v>
       </c>
     </row>
-    <row r="839" spans="1:4">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A839" s="2">
         <v>2022</v>
       </c>
@@ -12993,7 +12996,7 @@
         <v>17.690000000000001</v>
       </c>
     </row>
-    <row r="840" spans="1:4">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A840" s="2">
         <v>2022</v>
       </c>
@@ -13007,7 +13010,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="841" spans="1:4">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A841" s="2">
         <v>2022</v>
       </c>
@@ -13021,7 +13024,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="842" spans="1:4">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A842" s="2">
         <v>2022</v>
       </c>
@@ -13035,7 +13038,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="843" spans="1:4">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A843" s="2">
         <v>2022</v>
       </c>
@@ -13049,7 +13052,7 @@
         <v>182.86</v>
       </c>
     </row>
-    <row r="844" spans="1:4">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A844" s="2">
         <v>2022</v>
       </c>
@@ -13063,7 +13066,7 @@
         <v>83.33</v>
       </c>
     </row>
-    <row r="845" spans="1:4">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A845" s="2">
         <v>2022</v>
       </c>
@@ -13077,7 +13080,7 @@
         <v>104.02</v>
       </c>
     </row>
-    <row r="846" spans="1:4">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A846" s="2">
         <v>2022</v>
       </c>
@@ -13091,7 +13094,7 @@
         <v>15.92</v>
       </c>
     </row>
-    <row r="847" spans="1:4">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A847" s="2">
         <v>2022</v>
       </c>
@@ -13105,7 +13108,7 @@
         <v>108.77</v>
       </c>
     </row>
-    <row r="848" spans="1:4">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A848" s="2">
         <v>2022</v>
       </c>
@@ -13119,7 +13122,7 @@
         <v>94.72</v>
       </c>
     </row>
-    <row r="849" spans="1:4">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A849" s="2">
         <v>2022</v>
       </c>
@@ -13133,7 +13136,7 @@
         <v>87.47</v>
       </c>
     </row>
-    <row r="850" spans="1:4">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A850" s="2">
         <v>2022</v>
       </c>
@@ -13147,7 +13150,7 @@
         <v>72.03</v>
       </c>
     </row>
-    <row r="851" spans="1:4">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A851" s="2">
         <v>2022</v>
       </c>
@@ -13161,7 +13164,7 @@
         <v>39.32</v>
       </c>
     </row>
-    <row r="852" spans="1:4">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A852" s="2">
         <v>2022</v>
       </c>
@@ -13175,7 +13178,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="853" spans="1:4">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A853" s="2">
         <v>2022</v>
       </c>
@@ -13189,7 +13192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="854" spans="1:4">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A854" s="2">
         <v>2022</v>
       </c>
@@ -13203,7 +13206,7 @@
         <v>38.76</v>
       </c>
     </row>
-    <row r="855" spans="1:4">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A855" s="2">
         <v>2022</v>
       </c>
@@ -13217,7 +13220,7 @@
         <v>91.24</v>
       </c>
     </row>
-    <row r="856" spans="1:4">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A856" s="2">
         <v>2022</v>
       </c>
@@ -13231,7 +13234,7 @@
         <v>95.37</v>
       </c>
     </row>
-    <row r="857" spans="1:4">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A857" s="2">
         <v>2022</v>
       </c>
@@ -13245,7 +13248,7 @@
         <v>75.31</v>
       </c>
     </row>
-    <row r="858" spans="1:4">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A858" s="2">
         <v>2022</v>
       </c>
@@ -13259,7 +13262,7 @@
         <v>75.930000000000007</v>
       </c>
     </row>
-    <row r="859" spans="1:4">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A859" s="2">
         <v>2022</v>
       </c>
@@ -13272,8 +13275,12 @@
       <c r="D859" s="2">
         <v>16.39</v>
       </c>
-    </row>
-    <row r="860" spans="1:4">
+      <c r="H859">
+        <f>AVERAGE(D842:D865)</f>
+        <v>68.502083333333331</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A860" s="2">
         <v>2022</v>
       </c>
@@ -13287,7 +13294,7 @@
         <v>30.67</v>
       </c>
     </row>
-    <row r="861" spans="1:4">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A861" s="2">
         <v>2022</v>
       </c>
@@ -13301,7 +13308,7 @@
         <v>14.33</v>
       </c>
     </row>
-    <row r="862" spans="1:4">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A862" s="2">
         <v>2022</v>
       </c>
@@ -13315,7 +13322,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="863" spans="1:4">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A863" s="2">
         <v>2022</v>
       </c>
@@ -13329,7 +13336,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="864" spans="1:4">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A864" s="2">
         <v>2022</v>
       </c>
@@ -13343,7 +13350,7 @@
         <v>13.48</v>
       </c>
     </row>
-    <row r="865" spans="1:4">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A865" s="2">
         <v>2022</v>
       </c>
@@ -13358,6 +13365,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F865" xr:uid="{B32E496C-27EE-D545-91EB-CA7FB54A8B73}"/>
   <sortState ref="A2:D865">
     <sortCondition ref="A2:A865"/>
     <sortCondition ref="B2:B865"/>

--- a/Datasets/Velocidad Media de bajada de Internet por provincia y nacional.xlsx
+++ b/Datasets/Velocidad Media de bajada de Internet por provincia y nacional.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsdrajlin/Library/CloudStorage/GoogleDrive-dsdrajlin@gmail.com/Mi unidad/_Archive/Henry/LABS/PI DA/PI-02/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CFF684-E728-DA44-BE4B-6B9F0108E89A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F74266-EC4E-F744-9CCE-BA26A45DE125}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Velocidad-media-totales" sheetId="14" r:id="rId1"/>
     <sheet name="Velocidad-media-provincia" sheetId="16" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Velocidad-media-provincia'!$A$1:$F$865</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Velocidad-media-provincia'!$A$1:$D$865</definedName>
     <definedName name="trim">#REF!</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -232,7 +232,7 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,11 +692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="4"/>
     <col min="2" max="2" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -704,7 +704,7 @@
     <col min="4" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -718,7 +718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>2014</v>
       </c>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>2014</v>
       </c>
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>2014</v>
       </c>
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>2014</v>
       </c>
@@ -774,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>2015</v>
       </c>
@@ -788,7 +788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>2015</v>
       </c>
@@ -802,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>2015</v>
       </c>
@@ -816,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>2015</v>
       </c>
@@ -830,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>2016</v>
       </c>
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>2016</v>
       </c>
@@ -858,7 +858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>2016</v>
       </c>
@@ -872,7 +872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="4">
         <v>2016</v>
       </c>
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>2017</v>
       </c>
@@ -900,7 +900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>2017</v>
       </c>
@@ -914,7 +914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>2017</v>
       </c>
@@ -928,7 +928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>2017</v>
       </c>
@@ -942,7 +942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>2018</v>
       </c>
@@ -956,7 +956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>2018</v>
       </c>
@@ -970,7 +970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>2018</v>
       </c>
@@ -984,7 +984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>2018</v>
       </c>
@@ -998,7 +998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>2019</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>2019</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>2019</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>2019</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>2020</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>2020</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>2020</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>2020</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="4">
         <v>2021</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>2021</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>2021</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>2021</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
         <v>2022</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>2022</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="4">
         <v>2022</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="4">
         <v>2022</v>
       </c>
@@ -1234,13 +1234,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H865"/>
+  <dimension ref="A1:D865"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H860" sqref="H860"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="2"/>
     <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
@@ -1248,7 +1248,7 @@
     <col min="4" max="4" width="24.1640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1261,10 +1261,8 @@
       <c r="D1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="2">
         <v>2014</v>
       </c>
@@ -1278,7 +1276,7 @@
         <v>3.7331327999829305</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="1" customFormat="1">
       <c r="A3" s="2">
         <v>2014</v>
       </c>
@@ -1292,7 +1290,7 @@
         <v>4.024081510870217</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="1" customFormat="1">
       <c r="A4" s="2">
         <v>2014</v>
       </c>
@@ -1306,7 +1304,7 @@
         <v>2.8027344007923407</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="1" customFormat="1">
       <c r="A5" s="2">
         <v>2014</v>
       </c>
@@ -1320,7 +1318,7 @@
         <v>3.2558373037444444</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="1" customFormat="1">
       <c r="A6" s="2">
         <v>2014</v>
       </c>
@@ -1334,7 +1332,7 @@
         <v>3.1759166751464583</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="1" customFormat="1">
       <c r="A7" s="2">
         <v>2014</v>
       </c>
@@ -1348,7 +1346,7 @@
         <v>3.3874045815248133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="1" customFormat="1">
       <c r="A8" s="2">
         <v>2014</v>
       </c>
@@ -1362,7 +1360,7 @@
         <v>3.2186250823491607</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="1" customFormat="1">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
@@ -1376,7 +1374,7 @@
         <v>3.1672900899827185</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="1" customFormat="1">
       <c r="A10" s="2">
         <v>2014</v>
       </c>
@@ -1390,7 +1388,7 @@
         <v>2.5737292109196757</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="1" customFormat="1">
       <c r="A11" s="2">
         <v>2014</v>
       </c>
@@ -1404,7 +1402,7 @@
         <v>2.6902633494068571</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="1" customFormat="1">
       <c r="A12" s="2">
         <v>2014</v>
       </c>
@@ -1418,7 +1416,7 @@
         <v>2.6472104244613601</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="1" customFormat="1">
       <c r="A13" s="2">
         <v>2014</v>
       </c>
@@ -1432,7 +1430,7 @@
         <v>2.9647403729870789</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="1" customFormat="1">
       <c r="A14" s="2">
         <v>2014</v>
       </c>
@@ -1446,7 +1444,7 @@
         <v>3.5026805565551156</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="1" customFormat="1">
       <c r="A15" s="2">
         <v>2014</v>
       </c>
@@ -1460,7 +1458,7 @@
         <v>3.4031262676799088</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="1" customFormat="1">
       <c r="A16" s="2">
         <v>2014</v>
       </c>
@@ -1474,7 +1472,7 @@
         <v>3.5493016508254125</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="1" customFormat="1">
       <c r="A17" s="2">
         <v>2014</v>
       </c>
@@ -1488,7 +1486,7 @@
         <v>3.3537963181894952</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="1" customFormat="1">
       <c r="A18" s="2">
         <v>2014</v>
       </c>
@@ -1502,7 +1500,7 @@
         <v>3.3009019792545207</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="1" customFormat="1">
       <c r="A19" s="2">
         <v>2014</v>
       </c>
@@ -1516,7 +1514,7 @@
         <v>3.4691384597491712</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="1" customFormat="1">
       <c r="A20" s="2">
         <v>2014</v>
       </c>
@@ -1530,7 +1528,7 @@
         <v>3.5028153221310823</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="1" customFormat="1">
       <c r="A21" s="2">
         <v>2014</v>
       </c>
@@ -1544,7 +1542,7 @@
         <v>3.315991479820628</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="1" customFormat="1">
       <c r="A22" s="2">
         <v>2014</v>
       </c>
@@ -1558,7 +1556,7 @@
         <v>3.1474068452786788</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="1" customFormat="1">
       <c r="A23" s="2">
         <v>2014</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>2.9494717214992052</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="1" customFormat="1">
       <c r="A24" s="2">
         <v>2014</v>
       </c>
@@ -1586,7 +1584,7 @@
         <v>3.4468879373235639</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="1" customFormat="1">
       <c r="A25" s="2">
         <v>2014</v>
       </c>
@@ -1600,7 +1598,7 @@
         <v>3.2083418235511258</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" s="1" customFormat="1">
       <c r="A26" s="2">
         <v>2014</v>
       </c>
@@ -1614,7 +1612,7 @@
         <v>3.8518627600436659</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="1" customFormat="1">
       <c r="A27" s="2">
         <v>2014</v>
       </c>
@@ -1628,7 +1626,7 @@
         <v>4.2499912236384807</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" s="1" customFormat="1">
       <c r="A28" s="2">
         <v>2014</v>
       </c>
@@ -1642,7 +1640,7 @@
         <v>2.9153584248268039</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" s="1" customFormat="1">
       <c r="A29" s="2">
         <v>2014</v>
       </c>
@@ -1656,7 +1654,7 @@
         <v>3.4206301023631998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" s="1" customFormat="1">
       <c r="A30" s="2">
         <v>2014</v>
       </c>
@@ -1670,7 +1668,7 @@
         <v>3.1564052528575886</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="1" customFormat="1">
       <c r="A31" s="2">
         <v>2014</v>
       </c>
@@ -1684,7 +1682,7 @@
         <v>3.5567859606832632</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" s="1" customFormat="1">
       <c r="A32" s="2">
         <v>2014</v>
       </c>
@@ -1698,7 +1696,7 @@
         <v>3.3669705989802563</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" s="1" customFormat="1">
       <c r="A33" s="2">
         <v>2014</v>
       </c>
@@ -1712,7 +1710,7 @@
         <v>3.3124003099745378</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" s="1" customFormat="1">
       <c r="A34" s="2">
         <v>2014</v>
       </c>
@@ -1726,7 +1724,7 @@
         <v>2.6523512500000006</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" s="1" customFormat="1">
       <c r="A35" s="2">
         <v>2014</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>2.7690316794782204</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" s="1" customFormat="1">
       <c r="A36" s="2">
         <v>2014</v>
       </c>
@@ -1754,7 +1752,7 @@
         <v>2.6845760554268661</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" s="1" customFormat="1">
       <c r="A37" s="2">
         <v>2014</v>
       </c>
@@ -1768,7 +1766,7 @@
         <v>3.0951533433886378</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" s="1" customFormat="1">
       <c r="A38" s="2">
         <v>2014</v>
       </c>
@@ -1782,7 +1780,7 @@
         <v>3.503033182060705</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" s="1" customFormat="1">
       <c r="A39" s="2">
         <v>2014</v>
       </c>
@@ -1796,7 +1794,7 @@
         <v>3.5400238857127562</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" s="1" customFormat="1">
       <c r="A40" s="2">
         <v>2014</v>
       </c>
@@ -1810,7 +1808,7 @@
         <v>3.6647043380451545</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" s="1" customFormat="1">
       <c r="A41" s="2">
         <v>2014</v>
       </c>
@@ -1824,7 +1822,7 @@
         <v>3.4286257504445143</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" s="1" customFormat="1">
       <c r="A42" s="2">
         <v>2014</v>
       </c>
@@ -1838,7 +1836,7 @@
         <v>3.3911377511087921</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" s="1" customFormat="1">
       <c r="A43" s="2">
         <v>2014</v>
       </c>
@@ -1852,7 +1850,7 @@
         <v>3.4724840645935795</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" s="1" customFormat="1">
       <c r="A44" s="2">
         <v>2014</v>
       </c>
@@ -1866,7 +1864,7 @@
         <v>3.5041044810417468</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" s="1" customFormat="1">
       <c r="A45" s="2">
         <v>2014</v>
       </c>
@@ -1880,7 +1878,7 @@
         <v>3.3181516601634393</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" s="1" customFormat="1">
       <c r="A46" s="2">
         <v>2014</v>
       </c>
@@ -1894,7 +1892,7 @@
         <v>3.3116910410979234</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" s="1" customFormat="1">
       <c r="A47" s="2">
         <v>2014</v>
       </c>
@@ -1908,7 +1906,7 @@
         <v>3.0697509211495944</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" s="1" customFormat="1">
       <c r="A48" s="2">
         <v>2014</v>
       </c>
@@ -1922,7 +1920,7 @@
         <v>3.470095986812908</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" s="1" customFormat="1">
       <c r="A49" s="2">
         <v>2014</v>
       </c>
@@ -1936,7 +1934,7 @@
         <v>3.34994476711167</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" s="1" customFormat="1">
       <c r="A50" s="2">
         <v>2014</v>
       </c>
@@ -1950,7 +1948,7 @@
         <v>3.9690469911732418</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" s="1" customFormat="1">
       <c r="A51" s="2">
         <v>2014</v>
       </c>
@@ -1964,7 +1962,7 @@
         <v>4.4373809433900746</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" s="1" customFormat="1">
       <c r="A52" s="2">
         <v>2014</v>
       </c>
@@ -1978,7 +1976,7 @@
         <v>2.9151761750405192</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" s="1" customFormat="1">
       <c r="A53" s="2">
         <v>2014</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>3.4619478124509961</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" s="1" customFormat="1">
       <c r="A54" s="2">
         <v>2014</v>
       </c>
@@ -2006,7 +2004,7 @@
         <v>3.1657417907639762</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" s="1" customFormat="1">
       <c r="A55" s="2">
         <v>2014</v>
       </c>
@@ -2020,7 +2018,7 @@
         <v>3.6600622495599104</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" s="1" customFormat="1">
       <c r="A56" s="2">
         <v>2014</v>
       </c>
@@ -2034,7 +2032,7 @@
         <v>3.4109277766411181</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" s="1" customFormat="1">
       <c r="A57" s="2">
         <v>2014</v>
       </c>
@@ -2048,7 +2046,7 @@
         <v>3.3996079417526825</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" s="1" customFormat="1">
       <c r="A58" s="2">
         <v>2014</v>
       </c>
@@ -2062,7 +2060,7 @@
         <v>2.6562830152303833</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" s="1" customFormat="1">
       <c r="A59" s="2">
         <v>2014</v>
       </c>
@@ -2076,7 +2074,7 @@
         <v>2.9307053902518616</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" s="1" customFormat="1">
       <c r="A60" s="2">
         <v>2014</v>
       </c>
@@ -2090,7 +2088,7 @@
         <v>2.816519545748315</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" s="1" customFormat="1">
       <c r="A61" s="2">
         <v>2014</v>
       </c>
@@ -2104,7 +2102,7 @@
         <v>3.095178784641488</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" s="1" customFormat="1">
       <c r="A62" s="2">
         <v>2014</v>
       </c>
@@ -2118,7 +2116,7 @@
         <v>3.5028531768490665</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" s="1" customFormat="1">
       <c r="A63" s="2">
         <v>2014</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>3.5775238575714927</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" s="1" customFormat="1">
       <c r="A64" s="2">
         <v>2014</v>
       </c>
@@ -2146,7 +2144,7 @@
         <v>3.7429104879160966</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="1" customFormat="1">
       <c r="A65" s="2">
         <v>2014</v>
       </c>
@@ -2160,7 +2158,7 @@
         <v>3.4799791702900404</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" s="1" customFormat="1">
       <c r="A66" s="2">
         <v>2014</v>
       </c>
@@ -2174,7 +2172,7 @@
         <v>3.4109103624880306</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="1" customFormat="1">
       <c r="A67" s="2">
         <v>2014</v>
       </c>
@@ -2188,7 +2186,7 @@
         <v>3.4737259855903888</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" s="1" customFormat="1">
       <c r="A68" s="2">
         <v>2014</v>
       </c>
@@ -2202,7 +2200,7 @@
         <v>3.5031131901840489</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" s="1" customFormat="1">
       <c r="A69" s="2">
         <v>2014</v>
       </c>
@@ -2216,7 +2214,7 @@
         <v>3.3073222601557406</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" s="1" customFormat="1">
       <c r="A70" s="2">
         <v>2014</v>
       </c>
@@ -2230,7 +2228,7 @@
         <v>3.3755929122491111</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="1" customFormat="1">
       <c r="A71" s="2">
         <v>2014</v>
       </c>
@@ -2244,7 +2242,7 @@
         <v>3.0995465103889184</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" s="1" customFormat="1">
       <c r="A72" s="2">
         <v>2014</v>
       </c>
@@ -2258,7 +2256,7 @@
         <v>3.4709817114196588</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" s="1" customFormat="1">
       <c r="A73" s="2">
         <v>2014</v>
       </c>
@@ -2272,7 +2270,7 @@
         <v>3.349897526769352</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" s="1" customFormat="1">
       <c r="A74" s="2">
         <v>2014</v>
       </c>
@@ -2286,7 +2284,7 @@
         <v>4.1989435082366571</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" s="1" customFormat="1">
       <c r="A75" s="2">
         <v>2014</v>
       </c>
@@ -2300,7 +2298,7 @@
         <v>4.7817877112755625</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" s="1" customFormat="1">
       <c r="A76" s="2">
         <v>2014</v>
       </c>
@@ -2314,7 +2312,7 @@
         <v>3.3360053347977878</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" s="1" customFormat="1">
       <c r="A77" s="2">
         <v>2014</v>
       </c>
@@ -2328,7 +2326,7 @@
         <v>3.977400363306085</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" s="1" customFormat="1">
       <c r="A78" s="2">
         <v>2014</v>
       </c>
@@ -2342,7 +2340,7 @@
         <v>3.1746491581312557</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" s="1" customFormat="1">
       <c r="A79" s="2">
         <v>2014</v>
       </c>
@@ -2356,7 +2354,7 @@
         <v>4.0929030621845719</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" s="1" customFormat="1">
       <c r="A80" s="2">
         <v>2014</v>
       </c>
@@ -2370,7 +2368,7 @@
         <v>3.8061123116725004</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" s="1" customFormat="1">
       <c r="A81" s="2">
         <v>2014</v>
       </c>
@@ -2384,7 +2382,7 @@
         <v>3.8000517871100685</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" s="1" customFormat="1">
       <c r="A82" s="2">
         <v>2014</v>
       </c>
@@ -2398,7 +2396,7 @@
         <v>3.0233266178266178</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" s="1" customFormat="1">
       <c r="A83" s="2">
         <v>2014</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>3.1276421081907939</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" s="1" customFormat="1">
       <c r="A84" s="2">
         <v>2014</v>
       </c>
@@ -2426,7 +2424,7 @@
         <v>2.754208730637699</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" s="1" customFormat="1">
       <c r="A85" s="2">
         <v>2014</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>3.5820238995244482</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" s="1" customFormat="1">
       <c r="A86" s="2">
         <v>2014</v>
       </c>
@@ -2454,7 +2452,7 @@
         <v>3.4987677685999139</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" s="1" customFormat="1">
       <c r="A87" s="2">
         <v>2014</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>4.0256199614134589</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" s="1" customFormat="1">
       <c r="A88" s="2">
         <v>2014</v>
       </c>
@@ -2482,7 +2480,7 @@
         <v>3.8507725825973909</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" s="1" customFormat="1">
       <c r="A89" s="2">
         <v>2014</v>
       </c>
@@ -2496,7 +2494,7 @@
         <v>3.5431292542542541</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" s="1" customFormat="1">
       <c r="A90" s="2">
         <v>2014</v>
       </c>
@@ -2510,7 +2508,7 @@
         <v>3.8622594315025491</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" s="1" customFormat="1">
       <c r="A91" s="2">
         <v>2014</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>3.4752201692281126</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" s="1" customFormat="1">
       <c r="A92" s="2">
         <v>2014</v>
       </c>
@@ -2538,7 +2536,7 @@
         <v>3.503621206358865</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" s="1" customFormat="1">
       <c r="A93" s="2">
         <v>2014</v>
       </c>
@@ -2552,7 +2550,7 @@
         <v>3.3330261837139634</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" s="1" customFormat="1">
       <c r="A94" s="2">
         <v>2014</v>
       </c>
@@ -2566,7 +2564,7 @@
         <v>3.7807078607165132</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" s="1" customFormat="1">
       <c r="A95" s="2">
         <v>2014</v>
       </c>
@@ -2580,7 +2578,7 @@
         <v>3.4582244726597287</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" s="1" customFormat="1">
       <c r="A96" s="2">
         <v>2014</v>
       </c>
@@ -2594,7 +2592,7 @@
         <v>3.4747244698924056</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" s="1" customFormat="1">
       <c r="A97" s="2">
         <v>2014</v>
       </c>
@@ -2608,7 +2606,7 @@
         <v>3.8606123102449525</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" s="1" customFormat="1">
       <c r="A98" s="2">
         <v>2015</v>
       </c>
@@ -2622,7 +2620,7 @@
         <v>4.3238037093467714</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" s="1" customFormat="1">
       <c r="A99" s="2">
         <v>2015</v>
       </c>
@@ -2636,7 +2634,7 @@
         <v>4.999711683876372</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" s="1" customFormat="1">
       <c r="A100" s="2">
         <v>2015</v>
       </c>
@@ -2650,7 +2648,7 @@
         <v>3.4836036609629919</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" s="1" customFormat="1">
       <c r="A101" s="2">
         <v>2015</v>
       </c>
@@ -2664,7 +2662,7 @@
         <v>4.8999087970303723</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" s="1" customFormat="1">
       <c r="A102" s="2">
         <v>2015</v>
       </c>
@@ -2678,7 +2676,7 @@
         <v>3.2131565777597957</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" s="1" customFormat="1">
       <c r="A103" s="2">
         <v>2015</v>
       </c>
@@ -2692,7 +2690,7 @@
         <v>4.3042792820068483</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" s="1" customFormat="1">
       <c r="A104" s="2">
         <v>2015</v>
       </c>
@@ -2706,7 +2704,7 @@
         <v>4.6281902213931572</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" s="1" customFormat="1">
       <c r="A105" s="2">
         <v>2015</v>
       </c>
@@ -2720,7 +2718,7 @@
         <v>4.3467465057866335</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" s="1" customFormat="1">
       <c r="A106" s="2">
         <v>2015</v>
       </c>
@@ -2734,7 +2732,7 @@
         <v>3.3811501123595504</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" s="1" customFormat="1">
       <c r="A107" s="2">
         <v>2015</v>
       </c>
@@ -2748,7 +2746,7 @@
         <v>3.241902108598274</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" s="1" customFormat="1">
       <c r="A108" s="2">
         <v>2015</v>
       </c>
@@ -2762,7 +2760,7 @@
         <v>2.8340995102178685</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" s="1" customFormat="1">
       <c r="A109" s="2">
         <v>2015</v>
       </c>
@@ -2776,7 +2774,7 @@
         <v>3.7804021060364885</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" s="1" customFormat="1">
       <c r="A110" s="2">
         <v>2015</v>
       </c>
@@ -2790,7 +2788,7 @@
         <v>3.4991306708983512</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" s="1" customFormat="1">
       <c r="A111" s="2">
         <v>2015</v>
       </c>
@@ -2804,7 +2802,7 @@
         <v>4.9730042513211981</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" s="1" customFormat="1">
       <c r="A112" s="2">
         <v>2015</v>
       </c>
@@ -2818,7 +2816,7 @@
         <v>3.9114916381985845</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" s="1" customFormat="1">
       <c r="A113" s="2">
         <v>2015</v>
       </c>
@@ -2832,7 +2830,7 @@
         <v>3.5852970882573771</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" s="1" customFormat="1">
       <c r="A114" s="2">
         <v>2015</v>
       </c>
@@ -2846,7 +2844,7 @@
         <v>4.0227779361636191</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" s="1" customFormat="1">
       <c r="A115" s="2">
         <v>2015</v>
       </c>
@@ -2860,7 +2858,7 @@
         <v>3.4769891700932414</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" s="1" customFormat="1">
       <c r="A116" s="2">
         <v>2015</v>
       </c>
@@ -2874,7 +2872,7 @@
         <v>3.5009942704654264</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" s="1" customFormat="1">
       <c r="A117" s="2">
         <v>2015</v>
       </c>
@@ -2888,7 +2886,7 @@
         <v>3.474217030667377</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" s="1" customFormat="1">
       <c r="A118" s="2">
         <v>2015</v>
       </c>
@@ -2902,7 +2900,7 @@
         <v>4.0632830684081371</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" s="1" customFormat="1">
       <c r="A119" s="2">
         <v>2015</v>
       </c>
@@ -2916,7 +2914,7 @@
         <v>3.5711041251262392</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" s="1" customFormat="1">
       <c r="A120" s="2">
         <v>2015</v>
       </c>
@@ -2930,7 +2928,7 @@
         <v>3.4538780857514078</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" s="1" customFormat="1">
       <c r="A121" s="2">
         <v>2015</v>
       </c>
@@ -2944,7 +2942,7 @@
         <v>4.0710780402424378</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" s="1" customFormat="1">
       <c r="A122" s="2">
         <v>2015</v>
       </c>
@@ -2958,7 +2956,7 @@
         <v>4.4634956635480139</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" s="1" customFormat="1">
       <c r="A123" s="2">
         <v>2015</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>5.3121487382378101</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" s="1" customFormat="1">
       <c r="A124" s="2">
         <v>2015</v>
       </c>
@@ -2986,7 +2984,7 @@
         <v>3.6825082950385544</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" s="1" customFormat="1">
       <c r="A125" s="2">
         <v>2015</v>
       </c>
@@ -3000,7 +2998,7 @@
         <v>5.1947714142594759</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" s="1" customFormat="1">
       <c r="A126" s="2">
         <v>2015</v>
       </c>
@@ -3014,7 +3012,7 @@
         <v>3.2165716474851154</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" s="1" customFormat="1">
       <c r="A127" s="2">
         <v>2015</v>
       </c>
@@ -3028,7 +3026,7 @@
         <v>4.5579376662008544</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" s="1" customFormat="1">
       <c r="A128" s="2">
         <v>2015</v>
       </c>
@@ -3042,7 +3040,7 @@
         <v>4.8471976379937356</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" s="1" customFormat="1">
       <c r="A129" s="2">
         <v>2015</v>
       </c>
@@ -3056,7 +3054,7 @@
         <v>4.55056996750087</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" s="1" customFormat="1">
       <c r="A130" s="2">
         <v>2015</v>
       </c>
@@ -3070,7 +3068,7 @@
         <v>3.7649156840276494</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" s="1" customFormat="1">
       <c r="A131" s="2">
         <v>2015</v>
       </c>
@@ -3084,7 +3082,7 @@
         <v>3.4086788431460913</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" s="1" customFormat="1">
       <c r="A132" s="2">
         <v>2015</v>
       </c>
@@ -3098,7 +3096,7 @@
         <v>2.8626566401062417</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" s="1" customFormat="1">
       <c r="A133" s="2">
         <v>2015</v>
       </c>
@@ -3112,7 +3110,7 @@
         <v>4.0015513962081286</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" s="1" customFormat="1">
       <c r="A134" s="2">
         <v>2015</v>
       </c>
@@ -3126,7 +3124,7 @@
         <v>3.4997241088624933</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" s="1" customFormat="1">
       <c r="A135" s="2">
         <v>2015</v>
       </c>
@@ -3140,7 +3138,7 @@
         <v>5.3275626496769233</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" s="1" customFormat="1">
       <c r="A136" s="2">
         <v>2015</v>
       </c>
@@ -3154,7 +3152,7 @@
         <v>4.0596177375330358</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" s="1" customFormat="1">
       <c r="A137" s="2">
         <v>2015</v>
       </c>
@@ -3168,7 +3166,7 @@
         <v>3.6667344486214271</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" s="1" customFormat="1">
       <c r="A138" s="2">
         <v>2015</v>
       </c>
@@ -3182,7 +3180,7 @@
         <v>4.2181216456868391</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" s="1" customFormat="1">
       <c r="A139" s="2">
         <v>2015</v>
       </c>
@@ -3196,7 +3194,7 @@
         <v>3.4789192890667078</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" s="1" customFormat="1">
       <c r="A140" s="2">
         <v>2015</v>
       </c>
@@ -3210,7 +3208,7 @@
         <v>3.5027709531013613</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" s="1" customFormat="1">
       <c r="A141" s="2">
         <v>2015</v>
       </c>
@@ -3224,7 +3222,7 @@
         <v>3.47332349743749</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" s="1" customFormat="1">
       <c r="A142" s="2">
         <v>2015</v>
       </c>
@@ -3238,7 +3236,7 @@
         <v>4.3031961816563822</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" s="1" customFormat="1">
       <c r="A143" s="2">
         <v>2015</v>
       </c>
@@ -3252,7 +3250,7 @@
         <v>3.7288112953604711</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" s="1" customFormat="1">
       <c r="A144" s="2">
         <v>2015</v>
       </c>
@@ -3266,7 +3264,7 @@
         <v>3.4775158762886598</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" s="1" customFormat="1">
       <c r="A145" s="2">
         <v>2015</v>
       </c>
@@ -3280,7 +3278,7 @@
         <v>4.3068127674699648</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" s="1" customFormat="1">
       <c r="A146" s="2">
         <v>2015</v>
       </c>
@@ -3294,7 +3292,7 @@
         <v>4.7005979142704586</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" s="1" customFormat="1">
       <c r="A147" s="2">
         <v>2015</v>
       </c>
@@ -3308,7 +3306,7 @@
         <v>5.66468043459464</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" s="1" customFormat="1">
       <c r="A148" s="2">
         <v>2015</v>
       </c>
@@ -3322,7 +3320,7 @@
         <v>3.8845638725997471</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" s="1" customFormat="1">
       <c r="A149" s="2">
         <v>2015</v>
       </c>
@@ -3336,7 +3334,7 @@
         <v>5.4664329655398598</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" s="1" customFormat="1">
       <c r="A150" s="2">
         <v>2015</v>
       </c>
@@ -3350,7 +3348,7 @@
         <v>3.2790384114749496</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" s="1" customFormat="1">
       <c r="A151" s="2">
         <v>2015</v>
       </c>
@@ -3364,7 +3362,7 @@
         <v>4.8678490012250863</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" s="1" customFormat="1">
       <c r="A152" s="2">
         <v>2015</v>
       </c>
@@ -3378,7 +3376,7 @@
         <v>5.0634738167822126</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" s="1" customFormat="1">
       <c r="A153" s="2">
         <v>2015</v>
       </c>
@@ -3392,7 +3390,7 @@
         <v>4.7667123667290863</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" s="1" customFormat="1">
       <c r="A154" s="2">
         <v>2015</v>
       </c>
@@ -3406,7 +3404,7 @@
         <v>4.1661641021945153</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" s="1" customFormat="1">
       <c r="A155" s="2">
         <v>2015</v>
       </c>
@@ -3420,7 +3418,7 @@
         <v>3.532724551201011</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" s="1" customFormat="1">
       <c r="A156" s="2">
         <v>2015</v>
       </c>
@@ -3434,7 +3432,7 @@
         <v>2.9149322141427945</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" s="1" customFormat="1">
       <c r="A157" s="2">
         <v>2015</v>
       </c>
@@ -3448,7 +3446,7 @@
         <v>4.2458505753980083</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" s="1" customFormat="1">
       <c r="A158" s="2">
         <v>2015</v>
       </c>
@@ -3462,7 +3460,7 @@
         <v>3.5001609510219112</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" s="1" customFormat="1">
       <c r="A159" s="2">
         <v>2015</v>
       </c>
@@ -3476,7 +3474,7 @@
         <v>5.6342890509036927</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" s="1" customFormat="1">
       <c r="A160" s="2">
         <v>2015</v>
       </c>
@@ -3490,7 +3488,7 @@
         <v>4.2299439848957405</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" s="1" customFormat="1">
       <c r="A161" s="2">
         <v>2015</v>
       </c>
@@ -3504,7 +3502,7 @@
         <v>3.7368314562024914</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" s="1" customFormat="1">
       <c r="A162" s="2">
         <v>2015</v>
       </c>
@@ -3518,7 +3516,7 @@
         <v>4.4218314129775615</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" s="1" customFormat="1">
       <c r="A163" s="2">
         <v>2015</v>
       </c>
@@ -3532,7 +3530,7 @@
         <v>3.4810928203738825</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" s="1" customFormat="1">
       <c r="A164" s="2">
         <v>2015</v>
       </c>
@@ -3546,7 +3544,7 @@
         <v>3.5027538715982556</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" s="1" customFormat="1">
       <c r="A165" s="2">
         <v>2015</v>
       </c>
@@ -3560,7 +3558,7 @@
         <v>3.4806877443585873</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" s="1" customFormat="1">
       <c r="A166" s="2">
         <v>2015</v>
       </c>
@@ -3574,7 +3572,7 @@
         <v>4.5598954524026292</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" s="1" customFormat="1">
       <c r="A167" s="2">
         <v>2015</v>
       </c>
@@ -3588,7 +3586,7 @@
         <v>3.9112373216914569</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" s="1" customFormat="1">
       <c r="A168" s="2">
         <v>2015</v>
       </c>
@@ -3602,7 +3600,7 @@
         <v>3.4777210569327157</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" s="1" customFormat="1">
       <c r="A169" s="2">
         <v>2015</v>
       </c>
@@ -3616,7 +3614,7 @@
         <v>4.5723186672303031</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" s="1" customFormat="1">
       <c r="A170" s="2">
         <v>2015</v>
       </c>
@@ -3630,7 +3628,7 @@
         <v>4.8841489058565406</v>
       </c>
     </row>
-    <row r="171" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" s="1" customFormat="1">
       <c r="A171" s="2">
         <v>2015</v>
       </c>
@@ -3644,7 +3642,7 @@
         <v>5.9278035229790413</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" s="1" customFormat="1">
       <c r="A172" s="2">
         <v>2015</v>
       </c>
@@ -3658,7 +3656,7 @@
         <v>4.1242683691587017</v>
       </c>
     </row>
-    <row r="173" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" s="1" customFormat="1">
       <c r="A173" s="2">
         <v>2015</v>
       </c>
@@ -3672,7 +3670,7 @@
         <v>5.8283841807909607</v>
       </c>
     </row>
-    <row r="174" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" s="1" customFormat="1">
       <c r="A174" s="2">
         <v>2015</v>
       </c>
@@ -3686,7 +3684,7 @@
         <v>3.2838650316132978</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" s="1" customFormat="1">
       <c r="A175" s="2">
         <v>2015</v>
       </c>
@@ -3700,7 +3698,7 @@
         <v>5.0670814932684065</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" s="1" customFormat="1">
       <c r="A176" s="2">
         <v>2015</v>
       </c>
@@ -3714,7 +3712,7 @@
         <v>5.2594821204920814</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" s="1" customFormat="1">
       <c r="A177" s="2">
         <v>2015</v>
       </c>
@@ -3728,7 +3726,7 @@
         <v>5.0078559052993556</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" s="1" customFormat="1">
       <c r="A178" s="2">
         <v>2015</v>
       </c>
@@ -3742,7 +3740,7 @@
         <v>4.6603085685806844</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" s="1" customFormat="1">
       <c r="A179" s="2">
         <v>2015</v>
       </c>
@@ -3756,7 +3754,7 @@
         <v>3.7246804758922987</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" s="1" customFormat="1">
       <c r="A180" s="2">
         <v>2015</v>
       </c>
@@ -3770,7 +3768,7 @@
         <v>2.9367477072296291</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" s="1" customFormat="1">
       <c r="A181" s="2">
         <v>2015</v>
       </c>
@@ -3784,7 +3782,7 @@
         <v>4.5216718639262936</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" s="1" customFormat="1">
       <c r="A182" s="2">
         <v>2015</v>
       </c>
@@ -3798,7 +3796,7 @@
         <v>3.5017779300891023</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" s="1" customFormat="1">
       <c r="A183" s="2">
         <v>2015</v>
       </c>
@@ -3812,7 +3810,7 @@
         <v>5.9022914436487</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" s="1" customFormat="1">
       <c r="A184" s="2">
         <v>2015</v>
       </c>
@@ -3826,7 +3824,7 @@
         <v>4.3555928615529362</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" s="1" customFormat="1">
       <c r="A185" s="2">
         <v>2015</v>
       </c>
@@ -3840,7 +3838,7 @@
         <v>3.7689322995985051</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" s="1" customFormat="1">
       <c r="A186" s="2">
         <v>2015</v>
       </c>
@@ -3854,7 +3852,7 @@
         <v>4.6734670381415784</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" s="1" customFormat="1">
       <c r="A187" s="2">
         <v>2015</v>
       </c>
@@ -3868,7 +3866,7 @@
         <v>3.4816041169557321</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" s="1" customFormat="1">
       <c r="A188" s="2">
         <v>2015</v>
       </c>
@@ -3882,7 +3880,7 @@
         <v>3.5029374258600239</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" s="1" customFormat="1">
       <c r="A189" s="2">
         <v>2015</v>
       </c>
@@ -3896,7 +3894,7 @@
         <v>3.4809679619106126</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" s="1" customFormat="1">
       <c r="A190" s="2">
         <v>2015</v>
       </c>
@@ -3910,7 +3908,7 @@
         <v>4.8098737745535551</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" s="1" customFormat="1">
       <c r="A191" s="2">
         <v>2015</v>
       </c>
@@ -3924,7 +3922,7 @@
         <v>4.0941016914507635</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" s="1" customFormat="1">
       <c r="A192" s="2">
         <v>2015</v>
       </c>
@@ -3938,7 +3936,7 @@
         <v>3.4748248642417257</v>
       </c>
     </row>
-    <row r="193" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" s="1" customFormat="1">
       <c r="A193" s="2">
         <v>2015</v>
       </c>
@@ -3952,7 +3950,7 @@
         <v>4.8822979463307776</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" s="1" customFormat="1">
       <c r="A194" s="2">
         <v>2016</v>
       </c>
@@ -3966,7 +3964,7 @@
         <v>4.9921684374839135</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" s="1" customFormat="1">
       <c r="A195" s="2">
         <v>2016</v>
       </c>
@@ -3980,7 +3978,7 @@
         <v>6.0474037028117014</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" s="1" customFormat="1">
       <c r="A196" s="2">
         <v>2016</v>
       </c>
@@ -3994,7 +3992,7 @@
         <v>4.2035884492951343</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" s="1" customFormat="1">
       <c r="A197" s="2">
         <v>2016</v>
       </c>
@@ -4008,7 +4006,7 @@
         <v>5.9914726832083094</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" s="1" customFormat="1">
       <c r="A198" s="2">
         <v>2016</v>
       </c>
@@ -4022,7 +4020,7 @@
         <v>3.3796639330714164</v>
       </c>
     </row>
-    <row r="199" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" s="1" customFormat="1">
       <c r="A199" s="2">
         <v>2016</v>
       </c>
@@ -4036,7 +4034,7 @@
         <v>5.1568016170496689</v>
       </c>
     </row>
-    <row r="200" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" s="1" customFormat="1">
       <c r="A200" s="2">
         <v>2016</v>
       </c>
@@ -4050,7 +4048,7 @@
         <v>5.3712791170762504</v>
       </c>
     </row>
-    <row r="201" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" s="1" customFormat="1">
       <c r="A201" s="2">
         <v>2016</v>
       </c>
@@ -4064,7 +4062,7 @@
         <v>5.0845749056052432</v>
       </c>
     </row>
-    <row r="202" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" s="1" customFormat="1">
       <c r="A202" s="2">
         <v>2016</v>
       </c>
@@ -4078,7 +4076,7 @@
         <v>4.8723333804209634</v>
       </c>
     </row>
-    <row r="203" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" s="1" customFormat="1">
       <c r="A203" s="2">
         <v>2016</v>
       </c>
@@ -4092,7 +4090,7 @@
         <v>3.7712213425983374</v>
       </c>
     </row>
-    <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" s="1" customFormat="1">
       <c r="A204" s="2">
         <v>2016</v>
       </c>
@@ -4106,7 +4104,7 @@
         <v>3.0476420362792593</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" s="1" customFormat="1">
       <c r="A205" s="2">
         <v>2016</v>
       </c>
@@ -4120,7 +4118,7 @@
         <v>4.616973938050446</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" s="1" customFormat="1">
       <c r="A206" s="2">
         <v>2016</v>
       </c>
@@ -4134,7 +4132,7 @@
         <v>3.5028689229788785</v>
       </c>
     </row>
-    <row r="207" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" s="1" customFormat="1">
       <c r="A207" s="2">
         <v>2016</v>
       </c>
@@ -4148,7 +4146,7 @@
         <v>6.0009687173803092</v>
       </c>
     </row>
-    <row r="208" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" s="1" customFormat="1">
       <c r="A208" s="2">
         <v>2016</v>
       </c>
@@ -4162,7 +4160,7 @@
         <v>4.4204931490152664</v>
       </c>
     </row>
-    <row r="209" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" s="1" customFormat="1">
       <c r="A209" s="2">
         <v>2016</v>
       </c>
@@ -4176,7 +4174,7 @@
         <v>3.8266591968289161</v>
       </c>
     </row>
-    <row r="210" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" s="1" customFormat="1">
       <c r="A210" s="2">
         <v>2016</v>
       </c>
@@ -4190,7 +4188,7 @@
         <v>4.7418587845715239</v>
       </c>
     </row>
-    <row r="211" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" s="1" customFormat="1">
       <c r="A211" s="2">
         <v>2016</v>
       </c>
@@ -4204,7 +4202,7 @@
         <v>3.4855234907604769</v>
       </c>
     </row>
-    <row r="212" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" s="1" customFormat="1">
       <c r="A212" s="2">
         <v>2016</v>
       </c>
@@ -4218,7 +4216,7 @@
         <v>3.5029004392386534</v>
       </c>
     </row>
-    <row r="213" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" s="1" customFormat="1">
       <c r="A213" s="2">
         <v>2016</v>
       </c>
@@ -4232,7 +4230,7 @@
         <v>3.4831580897107401</v>
       </c>
     </row>
-    <row r="214" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" s="1" customFormat="1">
       <c r="A214" s="2">
         <v>2016</v>
       </c>
@@ -4246,7 +4244,7 @@
         <v>4.8981360289520461</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" s="1" customFormat="1">
       <c r="A215" s="2">
         <v>2016</v>
       </c>
@@ -4260,7 +4258,7 @@
         <v>4.1740115643069231</v>
       </c>
     </row>
-    <row r="216" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" s="1" customFormat="1">
       <c r="A216" s="2">
         <v>2016</v>
       </c>
@@ -4274,7 +4272,7 @@
         <v>3.475082632716791</v>
       </c>
     </row>
-    <row r="217" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" s="1" customFormat="1">
       <c r="A217" s="2">
         <v>2016</v>
       </c>
@@ -4288,7 +4286,7 @@
         <v>5.0040366406798853</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" s="1" customFormat="1">
       <c r="A218" s="2">
         <v>2016</v>
       </c>
@@ -4302,7 +4300,7 @@
         <v>5.4151443670048236</v>
       </c>
     </row>
-    <row r="219" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" s="1" customFormat="1">
       <c r="A219" s="2">
         <v>2016</v>
       </c>
@@ -4316,7 +4314,7 @@
         <v>6.5762189324592919</v>
       </c>
     </row>
-    <row r="220" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" s="1" customFormat="1">
       <c r="A220" s="2">
         <v>2016</v>
       </c>
@@ -4330,7 +4328,7 @@
         <v>4.3648359645166135</v>
       </c>
     </row>
-    <row r="221" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" s="1" customFormat="1">
       <c r="A221" s="2">
         <v>2016</v>
       </c>
@@ -4344,7 +4342,7 @@
         <v>6.2973575109580811</v>
       </c>
     </row>
-    <row r="222" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" s="1" customFormat="1">
       <c r="A222" s="2">
         <v>2016</v>
       </c>
@@ -4358,7 +4356,7 @@
         <v>3.3359734989855472</v>
       </c>
     </row>
-    <row r="223" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" s="1" customFormat="1">
       <c r="A223" s="2">
         <v>2016</v>
       </c>
@@ -4372,7 +4370,7 @@
         <v>5.5169128230028068</v>
       </c>
     </row>
-    <row r="224" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" s="1" customFormat="1">
       <c r="A224" s="2">
         <v>2016</v>
       </c>
@@ -4386,7 +4384,7 @@
         <v>5.6018225695242467</v>
       </c>
     </row>
-    <row r="225" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" s="1" customFormat="1">
       <c r="A225" s="2">
         <v>2016</v>
       </c>
@@ -4400,7 +4398,7 @@
         <v>5.1311427833012475</v>
       </c>
     </row>
-    <row r="226" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" s="1" customFormat="1">
       <c r="A226" s="2">
         <v>2016</v>
       </c>
@@ -4414,7 +4412,7 @@
         <v>5.1041321958662778</v>
       </c>
     </row>
-    <row r="227" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" s="1" customFormat="1">
       <c r="A227" s="2">
         <v>2016</v>
       </c>
@@ -4428,7 +4426,7 @@
         <v>3.8433530439580652</v>
       </c>
     </row>
-    <row r="228" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" s="1" customFormat="1">
       <c r="A228" s="2">
         <v>2016</v>
       </c>
@@ -4442,7 +4440,7 @@
         <v>3.1460678065253811</v>
       </c>
     </row>
-    <row r="229" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" s="1" customFormat="1">
       <c r="A229" s="2">
         <v>2016</v>
       </c>
@@ -4456,7 +4454,7 @@
         <v>4.7738430670010752</v>
       </c>
     </row>
-    <row r="230" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" s="1" customFormat="1">
       <c r="A230" s="2">
         <v>2016</v>
       </c>
@@ -4470,7 +4468,7 @@
         <v>3.5001685678716079</v>
       </c>
     </row>
-    <row r="231" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" s="1" customFormat="1">
       <c r="A231" s="2">
         <v>2016</v>
       </c>
@@ -4484,7 +4482,7 @@
         <v>6.2336605667547929</v>
       </c>
     </row>
-    <row r="232" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" s="1" customFormat="1">
       <c r="A232" s="2">
         <v>2016</v>
       </c>
@@ -4498,7 +4496,7 @@
         <v>4.86640695565863</v>
       </c>
     </row>
-    <row r="233" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" s="1" customFormat="1">
       <c r="A233" s="2">
         <v>2016</v>
       </c>
@@ -4512,7 +4510,7 @@
         <v>3.9766164119051468</v>
       </c>
     </row>
-    <row r="234" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" s="1" customFormat="1">
       <c r="A234" s="2">
         <v>2016</v>
       </c>
@@ -4526,7 +4524,7 @@
         <v>4.7493789353229277</v>
       </c>
     </row>
-    <row r="235" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" s="1" customFormat="1">
       <c r="A235" s="2">
         <v>2016</v>
       </c>
@@ -4540,7 +4538,7 @@
         <v>3.4883718294284334</v>
       </c>
     </row>
-    <row r="236" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" s="1" customFormat="1">
       <c r="A236" s="2">
         <v>2016</v>
       </c>
@@ -4554,7 +4552,7 @@
         <v>3.501983369175627</v>
       </c>
     </row>
-    <row r="237" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" s="1" customFormat="1">
       <c r="A237" s="2">
         <v>2016</v>
       </c>
@@ -4568,7 +4566,7 @@
         <v>3.5021150276004565</v>
       </c>
     </row>
-    <row r="238" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" s="1" customFormat="1">
       <c r="A238" s="2">
         <v>2016</v>
       </c>
@@ -4582,7 +4580,7 @@
         <v>5.1385985309185065</v>
       </c>
     </row>
-    <row r="239" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" s="1" customFormat="1">
       <c r="A239" s="2">
         <v>2016</v>
       </c>
@@ -4596,7 +4594,7 @@
         <v>4.309815179590645</v>
       </c>
     </row>
-    <row r="240" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" s="1" customFormat="1">
       <c r="A240" s="2">
         <v>2016</v>
       </c>
@@ -4610,7 +4608,7 @@
         <v>3.4786924632117722</v>
       </c>
     </row>
-    <row r="241" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" s="1" customFormat="1">
       <c r="A241" s="2">
         <v>2016</v>
       </c>
@@ -4624,7 +4622,7 @@
         <v>5.2009797617608742</v>
       </c>
     </row>
-    <row r="242" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" s="1" customFormat="1">
       <c r="A242" s="2">
         <v>2016</v>
       </c>
@@ -4638,7 +4636,7 @@
         <v>5.9149180081636841</v>
       </c>
     </row>
-    <row r="243" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" s="1" customFormat="1">
       <c r="A243" s="2">
         <v>2016</v>
       </c>
@@ -4652,7 +4650,7 @@
         <v>7.3801726992078054</v>
       </c>
     </row>
-    <row r="244" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" s="1" customFormat="1">
       <c r="A244" s="2">
         <v>2016</v>
       </c>
@@ -4666,7 +4664,7 @@
         <v>4.7252411799584939</v>
       </c>
     </row>
-    <row r="245" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" s="1" customFormat="1">
       <c r="A245" s="2">
         <v>2016</v>
       </c>
@@ -4680,7 +4678,7 @@
         <v>6.7182203632459512</v>
       </c>
     </row>
-    <row r="246" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" s="1" customFormat="1">
       <c r="A246" s="2">
         <v>2016</v>
       </c>
@@ -4694,7 +4692,7 @@
         <v>3.3438663279846357</v>
       </c>
     </row>
-    <row r="247" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" s="1" customFormat="1">
       <c r="A247" s="2">
         <v>2016</v>
       </c>
@@ -4708,7 +4706,7 @@
         <v>6.0685269235184069</v>
       </c>
     </row>
-    <row r="248" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" s="1" customFormat="1">
       <c r="A248" s="2">
         <v>2016</v>
       </c>
@@ -4722,7 +4720,7 @@
         <v>5.9581925610667144</v>
       </c>
     </row>
-    <row r="249" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" s="1" customFormat="1">
       <c r="A249" s="2">
         <v>2016</v>
       </c>
@@ -4736,7 +4734,7 @@
         <v>5.5864274883294893</v>
       </c>
     </row>
-    <row r="250" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" s="1" customFormat="1">
       <c r="A250" s="2">
         <v>2016</v>
       </c>
@@ -4750,7 +4748,7 @@
         <v>5.4161310069990956</v>
       </c>
     </row>
-    <row r="251" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" s="1" customFormat="1">
       <c r="A251" s="2">
         <v>2016</v>
       </c>
@@ -4764,7 +4762,7 @@
         <v>4.215291130909006</v>
       </c>
     </row>
-    <row r="252" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" s="1" customFormat="1">
       <c r="A252" s="2">
         <v>2016</v>
       </c>
@@ -4778,7 +4776,7 @@
         <v>3.1449984261882276</v>
       </c>
     </row>
-    <row r="253" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" s="1" customFormat="1">
       <c r="A253" s="2">
         <v>2016</v>
       </c>
@@ -4792,7 +4790,7 @@
         <v>5.0767317390020663</v>
       </c>
     </row>
-    <row r="254" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" s="1" customFormat="1">
       <c r="A254" s="2">
         <v>2016</v>
       </c>
@@ -4806,7 +4804,7 @@
         <v>3.5072908014531099</v>
       </c>
     </row>
-    <row r="255" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" s="1" customFormat="1">
       <c r="A255" s="2">
         <v>2016</v>
       </c>
@@ -4820,7 +4818,7 @@
         <v>6.7412222698422424</v>
       </c>
     </row>
-    <row r="256" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" s="1" customFormat="1">
       <c r="A256" s="2">
         <v>2016</v>
       </c>
@@ -4834,7 +4832,7 @@
         <v>5.2921668647312918</v>
       </c>
     </row>
-    <row r="257" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" s="1" customFormat="1">
       <c r="A257" s="2">
         <v>2016</v>
       </c>
@@ -4848,7 +4846,7 @@
         <v>4.1629242824827477</v>
       </c>
     </row>
-    <row r="258" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" s="1" customFormat="1">
       <c r="A258" s="2">
         <v>2016</v>
       </c>
@@ -4862,7 +4860,7 @@
         <v>5.052874436550483</v>
       </c>
     </row>
-    <row r="259" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" s="1" customFormat="1">
       <c r="A259" s="2">
         <v>2016</v>
       </c>
@@ -4876,7 +4874,7 @@
         <v>3.4890674462877342</v>
       </c>
     </row>
-    <row r="260" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" s="1" customFormat="1">
       <c r="A260" s="2">
         <v>2016</v>
       </c>
@@ -4890,7 +4888,7 @@
         <v>3.5030237740401673</v>
       </c>
     </row>
-    <row r="261" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" s="1" customFormat="1">
       <c r="A261" s="2">
         <v>2016</v>
       </c>
@@ -4904,7 +4902,7 @@
         <v>3.53583356483625</v>
       </c>
     </row>
-    <row r="262" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" s="1" customFormat="1">
       <c r="A262" s="2">
         <v>2016</v>
       </c>
@@ -4918,7 +4916,7 @@
         <v>5.6772637615647845</v>
       </c>
     </row>
-    <row r="263" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" s="1" customFormat="1">
       <c r="A263" s="2">
         <v>2016</v>
       </c>
@@ -4932,7 +4930,7 @@
         <v>4.6701230870135548</v>
       </c>
     </row>
-    <row r="264" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" s="1" customFormat="1">
       <c r="A264" s="2">
         <v>2016</v>
       </c>
@@ -4946,7 +4944,7 @@
         <v>3.4765453774624797</v>
       </c>
     </row>
-    <row r="265" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" s="1" customFormat="1">
       <c r="A265" s="2">
         <v>2016</v>
       </c>
@@ -4960,7 +4958,7 @@
         <v>5.5446832601914027</v>
       </c>
     </row>
-    <row r="266" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" s="1" customFormat="1">
       <c r="A266" s="2">
         <v>2016</v>
       </c>
@@ -4974,7 +4972,7 @@
         <v>6.3515464502603125</v>
       </c>
     </row>
-    <row r="267" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" s="1" customFormat="1">
       <c r="A267" s="2">
         <v>2016</v>
       </c>
@@ -4988,7 +4986,7 @@
         <v>7.9575962427528939</v>
       </c>
     </row>
-    <row r="268" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" s="1" customFormat="1">
       <c r="A268" s="2">
         <v>2016</v>
       </c>
@@ -5002,7 +5000,7 @@
         <v>4.885711305119858</v>
       </c>
     </row>
-    <row r="269" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" s="1" customFormat="1">
       <c r="A269" s="2">
         <v>2016</v>
       </c>
@@ -5016,7 +5014,7 @@
         <v>7.0775310059198233</v>
       </c>
     </row>
-    <row r="270" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" s="1" customFormat="1">
       <c r="A270" s="2">
         <v>2016</v>
       </c>
@@ -5030,7 +5028,7 @@
         <v>3.4071912914448172</v>
       </c>
     </row>
-    <row r="271" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" s="1" customFormat="1">
       <c r="A271" s="2">
         <v>2016</v>
       </c>
@@ -5044,7 +5042,7 @@
         <v>6.4667403639056085</v>
       </c>
     </row>
-    <row r="272" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" s="1" customFormat="1">
       <c r="A272" s="2">
         <v>2016</v>
       </c>
@@ -5058,7 +5056,7 @@
         <v>6.2362456040775092</v>
       </c>
     </row>
-    <row r="273" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" s="1" customFormat="1">
       <c r="A273" s="2">
         <v>2016</v>
       </c>
@@ -5072,7 +5070,7 @@
         <v>5.8073508291276141</v>
       </c>
     </row>
-    <row r="274" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" s="1" customFormat="1">
       <c r="A274" s="2">
         <v>2016</v>
       </c>
@@ -5086,7 +5084,7 @@
         <v>5.6306741649163223</v>
       </c>
     </row>
-    <row r="275" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" s="1" customFormat="1">
       <c r="A275" s="2">
         <v>2016</v>
       </c>
@@ -5100,7 +5098,7 @@
         <v>4.3239627457420351</v>
       </c>
     </row>
-    <row r="276" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" s="1" customFormat="1">
       <c r="A276" s="2">
         <v>2016</v>
       </c>
@@ -5114,7 +5112,7 @@
         <v>3.1895597297497957</v>
       </c>
     </row>
-    <row r="277" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" s="1" customFormat="1">
       <c r="A277" s="2">
         <v>2016</v>
       </c>
@@ -5128,7 +5126,7 @@
         <v>5.3437624272142195</v>
       </c>
     </row>
-    <row r="278" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" s="1" customFormat="1">
       <c r="A278" s="2">
         <v>2016</v>
       </c>
@@ -5142,7 +5140,7 @@
         <v>3.5066034697453756</v>
       </c>
     </row>
-    <row r="279" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" s="1" customFormat="1">
       <c r="A279" s="2">
         <v>2016</v>
       </c>
@@ -5156,7 +5154,7 @@
         <v>7.1094758091013635</v>
       </c>
     </row>
-    <row r="280" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" s="1" customFormat="1">
       <c r="A280" s="2">
         <v>2016</v>
       </c>
@@ -5170,7 +5168,7 @@
         <v>5.6784463065423729</v>
       </c>
     </row>
-    <row r="281" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" s="1" customFormat="1">
       <c r="A281" s="2">
         <v>2016</v>
       </c>
@@ -5184,7 +5182,7 @@
         <v>4.3699304631653293</v>
       </c>
     </row>
-    <row r="282" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" s="1" customFormat="1">
       <c r="A282" s="2">
         <v>2016</v>
       </c>
@@ -5198,7 +5196,7 @@
         <v>5.2208835778469709</v>
       </c>
     </row>
-    <row r="283" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" s="1" customFormat="1">
       <c r="A283" s="2">
         <v>2016</v>
       </c>
@@ -5212,7 +5210,7 @@
         <v>3.4911355540448672</v>
       </c>
     </row>
-    <row r="284" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" s="1" customFormat="1">
       <c r="A284" s="2">
         <v>2016</v>
       </c>
@@ -5226,7 +5224,7 @@
         <v>3.5028241499750519</v>
       </c>
     </row>
-    <row r="285" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" s="1" customFormat="1">
       <c r="A285" s="2">
         <v>2016</v>
       </c>
@@ -5240,7 +5238,7 @@
         <v>3.5639164089588604</v>
       </c>
     </row>
-    <row r="286" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" s="1" customFormat="1">
       <c r="A286" s="2">
         <v>2016</v>
       </c>
@@ -5254,7 +5252,7 @@
         <v>6.0402333289406664</v>
       </c>
     </row>
-    <row r="287" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" s="1" customFormat="1">
       <c r="A287" s="2">
         <v>2016</v>
       </c>
@@ -5268,7 +5266,7 @@
         <v>4.8667944314486222</v>
       </c>
     </row>
-    <row r="288" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" s="1" customFormat="1">
       <c r="A288" s="2">
         <v>2016</v>
       </c>
@@ -5282,7 +5280,7 @@
         <v>3.4767614673760852</v>
       </c>
     </row>
-    <row r="289" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" s="1" customFormat="1">
       <c r="A289" s="2">
         <v>2016</v>
       </c>
@@ -5296,7 +5294,7 @@
         <v>5.7277669342021085</v>
       </c>
     </row>
-    <row r="290" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" s="1" customFormat="1">
       <c r="A290" s="2">
         <v>2017</v>
       </c>
@@ -5310,7 +5308,7 @@
         <v>6.6784825770917093</v>
       </c>
     </row>
-    <row r="291" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" s="1" customFormat="1">
       <c r="A291" s="2">
         <v>2017</v>
       </c>
@@ -5324,7 +5322,7 @@
         <v>8.3481473166954228</v>
       </c>
     </row>
-    <row r="292" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" s="1" customFormat="1">
       <c r="A292" s="2">
         <v>2017</v>
       </c>
@@ -5338,7 +5336,7 @@
         <v>4.9737848375451268</v>
       </c>
     </row>
-    <row r="293" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" s="1" customFormat="1">
       <c r="A293" s="2">
         <v>2017</v>
       </c>
@@ -5352,7 +5350,7 @@
         <v>7.3079053982728226</v>
       </c>
     </row>
-    <row r="294" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" s="1" customFormat="1">
       <c r="A294" s="2">
         <v>2017</v>
       </c>
@@ -5366,7 +5364,7 @@
         <v>3.4433862008733622</v>
       </c>
     </row>
-    <row r="295" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" s="1" customFormat="1">
       <c r="A295" s="2">
         <v>2017</v>
       </c>
@@ -5380,7 +5378,7 @@
         <v>6.7994776373699972</v>
       </c>
     </row>
-    <row r="296" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" s="1" customFormat="1">
       <c r="A296" s="2">
         <v>2017</v>
       </c>
@@ -5394,7 +5392,7 @@
         <v>6.4329712770159704</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" s="1" customFormat="1">
       <c r="A297" s="2">
         <v>2017</v>
       </c>
@@ -5408,7 +5406,7 @@
         <v>5.9514745757075245</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" s="1" customFormat="1">
       <c r="A298" s="2">
         <v>2017</v>
       </c>
@@ -5422,7 +5420,7 @@
         <v>5.742388931901572</v>
       </c>
     </row>
-    <row r="299" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" s="1" customFormat="1">
       <c r="A299" s="2">
         <v>2017</v>
       </c>
@@ -5436,7 +5434,7 @@
         <v>4.3938612596347477</v>
       </c>
     </row>
-    <row r="300" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" s="1" customFormat="1">
       <c r="A300" s="2">
         <v>2017</v>
       </c>
@@ -5450,7 +5448,7 @@
         <v>3.2208135842183347</v>
       </c>
     </row>
-    <row r="301" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" s="1" customFormat="1">
       <c r="A301" s="2">
         <v>2017</v>
       </c>
@@ -5464,7 +5462,7 @@
         <v>5.4271804733727809</v>
       </c>
     </row>
-    <row r="302" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" s="1" customFormat="1">
       <c r="A302" s="2">
         <v>2017</v>
       </c>
@@ -5478,7 +5476,7 @@
         <v>3.5072942051440963</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" s="1" customFormat="1">
       <c r="A303" s="2">
         <v>2017</v>
       </c>
@@ -5492,7 +5490,7 @@
         <v>7.3410419889163192</v>
       </c>
     </row>
-    <row r="304" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" s="1" customFormat="1">
       <c r="A304" s="2">
         <v>2017</v>
       </c>
@@ -5506,7 +5504,7 @@
         <v>6.0348361444213925</v>
       </c>
     </row>
-    <row r="305" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" s="1" customFormat="1">
       <c r="A305" s="2">
         <v>2017</v>
       </c>
@@ -5520,7 +5518,7 @@
         <v>4.449448877971685</v>
       </c>
     </row>
-    <row r="306" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" s="1" customFormat="1">
       <c r="A306" s="2">
         <v>2017</v>
       </c>
@@ -5534,7 +5532,7 @@
         <v>5.3353712178218746</v>
       </c>
     </row>
-    <row r="307" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" s="1" customFormat="1">
       <c r="A307" s="2">
         <v>2017</v>
       </c>
@@ -5548,7 +5546,7 @@
         <v>3.4924351612464282</v>
       </c>
     </row>
-    <row r="308" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" s="1" customFormat="1">
       <c r="A308" s="2">
         <v>2017</v>
       </c>
@@ -5562,7 +5560,7 @@
         <v>3.5028241499750519</v>
       </c>
     </row>
-    <row r="309" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" s="1" customFormat="1">
       <c r="A309" s="2">
         <v>2017</v>
       </c>
@@ -5576,7 +5574,7 @@
         <v>3.5919300756363182</v>
       </c>
     </row>
-    <row r="310" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" s="1" customFormat="1">
       <c r="A310" s="2">
         <v>2017</v>
       </c>
@@ -5590,7 +5588,7 @@
         <v>6.2840364868924112</v>
       </c>
     </row>
-    <row r="311" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" s="1" customFormat="1">
       <c r="A311" s="2">
         <v>2017</v>
       </c>
@@ -5604,7 +5602,7 @@
         <v>4.9489658332849942</v>
       </c>
     </row>
-    <row r="312" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" s="1" customFormat="1">
       <c r="A312" s="2">
         <v>2017</v>
       </c>
@@ -5618,7 +5616,7 @@
         <v>3.4767614673760852</v>
       </c>
     </row>
-    <row r="313" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" s="1" customFormat="1">
       <c r="A313" s="2">
         <v>2017</v>
       </c>
@@ -5632,7 +5630,7 @@
         <v>5.8755073256955805</v>
       </c>
     </row>
-    <row r="314" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" s="1" customFormat="1">
       <c r="A314" s="2">
         <v>2017</v>
       </c>
@@ -5646,7 +5644,7 @@
         <v>7.1987477518879839</v>
       </c>
     </row>
-    <row r="315" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" s="1" customFormat="1">
       <c r="A315" s="2">
         <v>2017</v>
       </c>
@@ -5660,7 +5658,7 @@
         <v>8.8432198307882537</v>
       </c>
     </row>
-    <row r="316" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" s="1" customFormat="1">
       <c r="A316" s="2">
         <v>2017</v>
       </c>
@@ -5674,7 +5672,7 @@
         <v>5.1021828258997113</v>
       </c>
     </row>
-    <row r="317" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" s="1" customFormat="1">
       <c r="A317" s="2">
         <v>2017</v>
       </c>
@@ -5688,7 +5686,7 @@
         <v>7.6892134335441282</v>
       </c>
     </row>
-    <row r="318" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" s="1" customFormat="1">
       <c r="A318" s="2">
         <v>2017</v>
       </c>
@@ -5702,7 +5700,7 @@
         <v>3.4472690922235101</v>
       </c>
     </row>
-    <row r="319" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" s="1" customFormat="1">
       <c r="A319" s="2">
         <v>2017</v>
       </c>
@@ -5716,7 +5714,7 @@
         <v>7.4213217990767744</v>
       </c>
     </row>
-    <row r="320" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" s="1" customFormat="1">
       <c r="A320" s="2">
         <v>2017</v>
       </c>
@@ -5730,7 +5728,7 @@
         <v>6.7915804826070545</v>
       </c>
     </row>
-    <row r="321" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" s="1" customFormat="1">
       <c r="A321" s="2">
         <v>2017</v>
       </c>
@@ -5744,7 +5742,7 @@
         <v>6.2878101062927731</v>
       </c>
     </row>
-    <row r="322" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" s="1" customFormat="1">
       <c r="A322" s="2">
         <v>2017</v>
       </c>
@@ -5758,7 +5756,7 @@
         <v>6.1786533146404965</v>
       </c>
     </row>
-    <row r="323" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" s="1" customFormat="1">
       <c r="A323" s="2">
         <v>2017</v>
       </c>
@@ -5772,7 +5770,7 @@
         <v>4.5418618781940081</v>
       </c>
     </row>
-    <row r="324" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" s="1" customFormat="1">
       <c r="A324" s="2">
         <v>2017</v>
       </c>
@@ -5786,7 +5784,7 @@
         <v>3.3182593614961053</v>
       </c>
     </row>
-    <row r="325" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" s="1" customFormat="1">
       <c r="A325" s="2">
         <v>2017</v>
       </c>
@@ -5800,7 +5798,7 @@
         <v>5.5338551080550102</v>
       </c>
     </row>
-    <row r="326" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" s="1" customFormat="1">
       <c r="A326" s="2">
         <v>2017</v>
       </c>
@@ -5814,7 +5812,7 @@
         <v>3.507255863215121</v>
       </c>
     </row>
-    <row r="327" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" s="1" customFormat="1">
       <c r="A327" s="2">
         <v>2017</v>
       </c>
@@ -5828,7 +5826,7 @@
         <v>7.6043384905206626</v>
       </c>
     </row>
-    <row r="328" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" s="1" customFormat="1">
       <c r="A328" s="2">
         <v>2017</v>
       </c>
@@ -5842,7 +5840,7 @@
         <v>6.7006106984468827</v>
       </c>
     </row>
-    <row r="329" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" s="1" customFormat="1">
       <c r="A329" s="2">
         <v>2017</v>
       </c>
@@ -5856,7 +5854,7 @@
         <v>4.7413508573814518</v>
       </c>
     </row>
-    <row r="330" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" s="1" customFormat="1">
       <c r="A330" s="2">
         <v>2017</v>
       </c>
@@ -5870,7 +5868,7 @@
         <v>5.7562131348398449</v>
       </c>
     </row>
-    <row r="331" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" s="1" customFormat="1">
       <c r="A331" s="2">
         <v>2017</v>
       </c>
@@ -5884,7 +5882,7 @@
         <v>3.4920338095238095</v>
       </c>
     </row>
-    <row r="332" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" s="1" customFormat="1">
       <c r="A332" s="2">
         <v>2017</v>
       </c>
@@ -5898,7 +5896,7 @@
         <v>3.5028241499750519</v>
       </c>
     </row>
-    <row r="333" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" s="1" customFormat="1">
       <c r="A333" s="2">
         <v>2017</v>
       </c>
@@ -5912,7 +5910,7 @@
         <v>3.60311348968991</v>
       </c>
     </row>
-    <row r="334" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" s="1" customFormat="1">
       <c r="A334" s="2">
         <v>2017</v>
       </c>
@@ -5926,7 +5924,7 @@
         <v>6.8387492504462042</v>
       </c>
     </row>
-    <row r="335" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" s="1" customFormat="1">
       <c r="A335" s="2">
         <v>2017</v>
       </c>
@@ -5940,7 +5938,7 @@
         <v>5.05794740805446</v>
       </c>
     </row>
-    <row r="336" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" s="1" customFormat="1">
       <c r="A336" s="2">
         <v>2017</v>
       </c>
@@ -5954,7 +5952,7 @@
         <v>3.4767614673760852</v>
       </c>
     </row>
-    <row r="337" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" s="1" customFormat="1">
       <c r="A337" s="2">
         <v>2017</v>
       </c>
@@ -5968,7 +5966,7 @@
         <v>6.0932804456247167</v>
       </c>
     </row>
-    <row r="338" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" s="1" customFormat="1">
       <c r="A338" s="2">
         <v>2017</v>
       </c>
@@ -5982,7 +5980,7 @@
         <v>8.425706211853651</v>
       </c>
     </row>
-    <row r="339" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" s="1" customFormat="1">
       <c r="A339" s="2">
         <v>2017</v>
       </c>
@@ -5996,7 +5994,7 @@
         <v>10.635720274073307</v>
       </c>
     </row>
-    <row r="340" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" s="1" customFormat="1">
       <c r="A340" s="2">
         <v>2017</v>
       </c>
@@ -6010,7 +6008,7 @@
         <v>5.2600180667135614</v>
       </c>
     </row>
-    <row r="341" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" s="1" customFormat="1">
       <c r="A341" s="2">
         <v>2017</v>
       </c>
@@ -6024,7 +6022,7 @@
         <v>8.4848712875554977</v>
       </c>
     </row>
-    <row r="342" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" s="1" customFormat="1">
       <c r="A342" s="2">
         <v>2017</v>
       </c>
@@ -6038,7 +6036,7 @@
         <v>3.4783469156690874</v>
       </c>
     </row>
-    <row r="343" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" s="1" customFormat="1">
       <c r="A343" s="2">
         <v>2017</v>
       </c>
@@ -6052,7 +6050,7 @@
         <v>9.115572873049981</v>
       </c>
     </row>
-    <row r="344" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" s="1" customFormat="1">
       <c r="A344" s="2">
         <v>2017</v>
       </c>
@@ -6066,7 +6064,7 @@
         <v>7.4474164280852628</v>
       </c>
     </row>
-    <row r="345" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" s="1" customFormat="1">
       <c r="A345" s="2">
         <v>2017</v>
       </c>
@@ -6080,7 +6078,7 @@
         <v>6.9934006393496526</v>
       </c>
     </row>
-    <row r="346" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" s="1" customFormat="1">
       <c r="A346" s="2">
         <v>2017</v>
       </c>
@@ -6094,7 +6092,7 @@
         <v>7.0688215341128098</v>
       </c>
     </row>
-    <row r="347" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" s="1" customFormat="1">
       <c r="A347" s="2">
         <v>2017</v>
       </c>
@@ -6108,7 +6106,7 @@
         <v>4.6890067253692012</v>
       </c>
     </row>
-    <row r="348" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" s="1" customFormat="1">
       <c r="A348" s="2">
         <v>2017</v>
       </c>
@@ -6122,7 +6120,7 @@
         <v>3.4381011143320657</v>
       </c>
     </row>
-    <row r="349" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" s="1" customFormat="1">
       <c r="A349" s="2">
         <v>2017</v>
       </c>
@@ -6136,7 +6134,7 @@
         <v>5.010090208766659</v>
       </c>
     </row>
-    <row r="350" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" s="1" customFormat="1">
       <c r="A350" s="2">
         <v>2017</v>
       </c>
@@ -6150,7 +6148,7 @@
         <v>3.5129626616630358</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" s="1" customFormat="1">
       <c r="A351" s="2">
         <v>2017</v>
       </c>
@@ -6164,7 +6162,7 @@
         <v>8.4303830252869911</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" s="1" customFormat="1">
       <c r="A352" s="2">
         <v>2017</v>
       </c>
@@ -6178,7 +6176,7 @@
         <v>8.1651773857022594</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" s="1" customFormat="1">
       <c r="A353" s="2">
         <v>2017</v>
       </c>
@@ -6192,7 +6190,7 @@
         <v>5.4872788046738847</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" s="1" customFormat="1">
       <c r="A354" s="2">
         <v>2017</v>
       </c>
@@ -6206,7 +6204,7 @@
         <v>6.1331462068965523</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" s="1" customFormat="1">
       <c r="A355" s="2">
         <v>2017</v>
       </c>
@@ -6220,7 +6218,7 @@
         <v>3.4497842064911834</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" s="1" customFormat="1">
       <c r="A356" s="2">
         <v>2017</v>
       </c>
@@ -6234,7 +6232,7 @@
         <v>3.50338739319684</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" s="1" customFormat="1">
       <c r="A357" s="2">
         <v>2017</v>
       </c>
@@ -6248,7 +6246,7 @@
         <v>3.6104705057586379</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" s="1" customFormat="1">
       <c r="A358" s="2">
         <v>2017</v>
       </c>
@@ -6262,7 +6260,7 @@
         <v>7.7922151483997428</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" s="1" customFormat="1">
       <c r="A359" s="2">
         <v>2017</v>
       </c>
@@ -6276,7 +6274,7 @@
         <v>5.1785580783353726</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" s="1" customFormat="1">
       <c r="A360" s="2">
         <v>2017</v>
       </c>
@@ -6290,7 +6288,7 @@
         <v>3.475358271865121</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" s="1" customFormat="1">
       <c r="A361" s="2">
         <v>2017</v>
       </c>
@@ -6304,7 +6302,7 @@
         <v>6.3851768015553985</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" s="1" customFormat="1">
       <c r="A362" s="2">
         <v>2017</v>
       </c>
@@ -6318,7 +6316,7 @@
         <v>12.9720825438982</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" s="1" customFormat="1">
       <c r="A363" s="2">
         <v>2017</v>
       </c>
@@ -6332,7 +6330,7 @@
         <v>15.20221886916041</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" s="1" customFormat="1">
       <c r="A364" s="2">
         <v>2017</v>
       </c>
@@ -6346,7 +6344,7 @@
         <v>7.7841543513957303</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" s="1" customFormat="1">
       <c r="A365" s="2">
         <v>2017</v>
       </c>
@@ -6360,7 +6358,7 @@
         <v>11.702868121959403</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" s="1" customFormat="1">
       <c r="A366" s="2">
         <v>2017</v>
       </c>
@@ -6374,7 +6372,7 @@
         <v>5.4082380768901448</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" s="1" customFormat="1">
       <c r="A367" s="2">
         <v>2017</v>
       </c>
@@ -6388,7 +6386,7 @@
         <v>11.636584701156639</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" s="1" customFormat="1">
       <c r="A368" s="2">
         <v>2017</v>
       </c>
@@ -6402,7 +6400,7 @@
         <v>10.384400430891967</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" s="1" customFormat="1">
       <c r="A369" s="2">
         <v>2017</v>
       </c>
@@ -6416,7 +6414,7 @@
         <v>9.2959606199990663</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" s="1" customFormat="1">
       <c r="A370" s="2">
         <v>2017</v>
       </c>
@@ -6430,7 +6428,7 @@
         <v>10.114170463766307</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" s="1" customFormat="1">
       <c r="A371" s="2">
         <v>2017</v>
       </c>
@@ -6444,7 +6442,7 @@
         <v>6.6388212735664913</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" s="1" customFormat="1">
       <c r="A372" s="2">
         <v>2017</v>
       </c>
@@ -6458,7 +6456,7 @@
         <v>3.9758194449815036</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" s="1" customFormat="1">
       <c r="A373" s="2">
         <v>2017</v>
       </c>
@@ -6472,7 +6470,7 @@
         <v>5.8775888495066582</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" s="1" customFormat="1">
       <c r="A374" s="2">
         <v>2017</v>
       </c>
@@ -6486,7 +6484,7 @@
         <v>5.71002586675844</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" s="1" customFormat="1">
       <c r="A375" s="2">
         <v>2017</v>
       </c>
@@ -6500,7 +6498,7 @@
         <v>11.324123723249613</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" s="1" customFormat="1">
       <c r="A376" s="2">
         <v>2017</v>
       </c>
@@ -6514,7 +6512,7 @@
         <v>10.719151524540269</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" s="1" customFormat="1">
       <c r="A377" s="2">
         <v>2017</v>
       </c>
@@ -6528,7 +6526,7 @@
         <v>8.045522324672751</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" s="1" customFormat="1">
       <c r="A378" s="2">
         <v>2017</v>
       </c>
@@ -6542,7 +6540,7 @@
         <v>8.4517427677756327</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" s="1" customFormat="1">
       <c r="A379" s="2">
         <v>2017</v>
       </c>
@@ -6556,7 +6554,7 @@
         <v>5.8322600730101328</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" s="1" customFormat="1">
       <c r="A380" s="2">
         <v>2017</v>
       </c>
@@ -6570,7 +6568,7 @@
         <v>5.7322088013540542</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" s="1" customFormat="1">
       <c r="A381" s="2">
         <v>2017</v>
       </c>
@@ -6584,7 +6582,7 @@
         <v>5.206584828874508</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" s="1" customFormat="1">
       <c r="A382" s="2">
         <v>2017</v>
       </c>
@@ -6598,7 +6596,7 @@
         <v>10.297494601847182</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" s="1" customFormat="1">
       <c r="A383" s="2">
         <v>2017</v>
       </c>
@@ -6612,7 +6610,7 @@
         <v>6.1656002149850382</v>
       </c>
     </row>
-    <row r="384" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" s="1" customFormat="1">
       <c r="A384" s="2">
         <v>2017</v>
       </c>
@@ -6626,7 +6624,7 @@
         <v>5.2032257045368384</v>
       </c>
     </row>
-    <row r="385" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" s="1" customFormat="1">
       <c r="A385" s="2">
         <v>2017</v>
       </c>
@@ -6640,7 +6638,7 @@
         <v>9.1060213071870582</v>
       </c>
     </row>
-    <row r="386" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" s="1" customFormat="1">
       <c r="A386" s="2">
         <v>2018</v>
       </c>
@@ -6654,7 +6652,7 @@
         <v>14.198889644680946</v>
       </c>
     </row>
-    <row r="387" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" s="1" customFormat="1">
       <c r="A387" s="2">
         <v>2018</v>
       </c>
@@ -6668,7 +6666,7 @@
         <v>17.745577304180081</v>
       </c>
     </row>
-    <row r="388" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" s="1" customFormat="1">
       <c r="A388" s="2">
         <v>2018</v>
       </c>
@@ -6682,7 +6680,7 @@
         <v>8.1988605287146772</v>
       </c>
     </row>
-    <row r="389" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" s="1" customFormat="1">
       <c r="A389" s="2">
         <v>2018</v>
       </c>
@@ -6696,7 +6694,7 @@
         <v>12.444064678644967</v>
       </c>
     </row>
-    <row r="390" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" s="1" customFormat="1">
       <c r="A390" s="2">
         <v>2018</v>
       </c>
@@ -6710,7 +6708,7 @@
         <v>5.4186379388277839</v>
       </c>
     </row>
-    <row r="391" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" s="1" customFormat="1">
       <c r="A391" s="2">
         <v>2018</v>
       </c>
@@ -6724,7 +6722,7 @@
         <v>12.790571217400485</v>
       </c>
     </row>
-    <row r="392" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" s="1" customFormat="1">
       <c r="A392" s="2">
         <v>2018</v>
       </c>
@@ -6738,7 +6736,7 @@
         <v>11.118502865253635</v>
       </c>
     </row>
-    <row r="393" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" s="1" customFormat="1">
       <c r="A393" s="2">
         <v>2018</v>
       </c>
@@ -6752,7 +6750,7 @@
         <v>9.875239366998759</v>
       </c>
     </row>
-    <row r="394" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" s="1" customFormat="1">
       <c r="A394" s="2">
         <v>2018</v>
       </c>
@@ -6766,7 +6764,7 @@
         <v>11.056815367469506</v>
       </c>
     </row>
-    <row r="395" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" s="1" customFormat="1">
       <c r="A395" s="2">
         <v>2018</v>
       </c>
@@ -6780,7 +6778,7 @@
         <v>6.7411858793845321</v>
       </c>
     </row>
-    <row r="396" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" s="1" customFormat="1">
       <c r="A396" s="2">
         <v>2018</v>
       </c>
@@ -6794,7 +6792,7 @@
         <v>3.9951313520641039</v>
       </c>
     </row>
-    <row r="397" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" s="1" customFormat="1">
       <c r="A397" s="2">
         <v>2018</v>
       </c>
@@ -6808,7 +6806,7 @@
         <v>5.8908206041116342</v>
       </c>
     </row>
-    <row r="398" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" s="1" customFormat="1">
       <c r="A398" s="2">
         <v>2018</v>
       </c>
@@ -6822,7 +6820,7 @@
         <v>5.8816269691693739</v>
       </c>
     </row>
-    <row r="399" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" s="1" customFormat="1">
       <c r="A399" s="2">
         <v>2018</v>
       </c>
@@ -6836,7 +6834,7 @@
         <v>12.082189465143012</v>
       </c>
     </row>
-    <row r="400" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" s="1" customFormat="1">
       <c r="A400" s="2">
         <v>2018</v>
       </c>
@@ -6850,7 +6848,7 @@
         <v>11.96045995607415</v>
       </c>
     </row>
-    <row r="401" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" s="1" customFormat="1">
       <c r="A401" s="2">
         <v>2018</v>
       </c>
@@ -6864,7 +6862,7 @@
         <v>8.9762431943615759</v>
       </c>
     </row>
-    <row r="402" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" s="1" customFormat="1">
       <c r="A402" s="2">
         <v>2018</v>
       </c>
@@ -6878,7 +6876,7 @@
         <v>9.1894409821994998</v>
       </c>
     </row>
-    <row r="403" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" s="1" customFormat="1">
       <c r="A403" s="2">
         <v>2018</v>
       </c>
@@ -6892,7 +6890,7 @@
         <v>5.850581035549749</v>
       </c>
     </row>
-    <row r="404" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" s="1" customFormat="1">
       <c r="A404" s="2">
         <v>2018</v>
       </c>
@@ -6906,7 +6904,7 @@
         <v>5.8943627045792697</v>
       </c>
     </row>
-    <row r="405" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" s="1" customFormat="1">
       <c r="A405" s="2">
         <v>2018</v>
       </c>
@@ -6920,7 +6918,7 @@
         <v>5.1892899508557875</v>
       </c>
     </row>
-    <row r="406" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" s="1" customFormat="1">
       <c r="A406" s="2">
         <v>2018</v>
       </c>
@@ -6934,7 +6932,7 @@
         <v>11.173305005746002</v>
       </c>
     </row>
-    <row r="407" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" s="1" customFormat="1">
       <c r="A407" s="2">
         <v>2018</v>
       </c>
@@ -6948,7 +6946,7 @@
         <v>6.2482107221630381</v>
       </c>
     </row>
-    <row r="408" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" s="1" customFormat="1">
       <c r="A408" s="2">
         <v>2018</v>
       </c>
@@ -6962,7 +6960,7 @@
         <v>5.7680820360328839</v>
       </c>
     </row>
-    <row r="409" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" s="1" customFormat="1">
       <c r="A409" s="2">
         <v>2018</v>
       </c>
@@ -6976,7 +6974,7 @@
         <v>9.3556316848061059</v>
       </c>
     </row>
-    <row r="410" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" s="1" customFormat="1">
       <c r="A410" s="2">
         <v>2018</v>
       </c>
@@ -6990,7 +6988,7 @@
         <v>14.679375512175804</v>
       </c>
     </row>
-    <row r="411" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" s="1" customFormat="1">
       <c r="A411" s="2">
         <v>2018</v>
       </c>
@@ -7004,7 +7002,7 @@
         <v>18.938134589278171</v>
       </c>
     </row>
-    <row r="412" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" s="1" customFormat="1">
       <c r="A412" s="2">
         <v>2018</v>
       </c>
@@ -7018,7 +7016,7 @@
         <v>7.6930965074529434</v>
       </c>
     </row>
-    <row r="413" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" s="1" customFormat="1">
       <c r="A413" s="2">
         <v>2018</v>
       </c>
@@ -7032,7 +7030,7 @@
         <v>12.499460181995785</v>
       </c>
     </row>
-    <row r="414" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" s="1" customFormat="1">
       <c r="A414" s="2">
         <v>2018</v>
       </c>
@@ -7046,7 +7044,7 @@
         <v>5.3298577305989134</v>
       </c>
     </row>
-    <row r="415" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" s="1" customFormat="1">
       <c r="A415" s="2">
         <v>2018</v>
       </c>
@@ -7060,7 +7058,7 @@
         <v>13.876809406349514</v>
       </c>
     </row>
-    <row r="416" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" s="1" customFormat="1">
       <c r="A416" s="2">
         <v>2018</v>
       </c>
@@ -7074,7 +7072,7 @@
         <v>10.87765289559918</v>
       </c>
     </row>
-    <row r="417" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" s="1" customFormat="1">
       <c r="A417" s="2">
         <v>2018</v>
       </c>
@@ -7088,7 +7086,7 @@
         <v>10.186702751759963</v>
       </c>
     </row>
-    <row r="418" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" s="1" customFormat="1">
       <c r="A418" s="2">
         <v>2018</v>
       </c>
@@ -7102,7 +7100,7 @@
         <v>8.9749865307771746</v>
       </c>
     </row>
-    <row r="419" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" s="1" customFormat="1">
       <c r="A419" s="2">
         <v>2018</v>
       </c>
@@ -7116,7 +7114,7 @@
         <v>6.2893455892136423</v>
       </c>
     </row>
-    <row r="420" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" s="1" customFormat="1">
       <c r="A420" s="2">
         <v>2018</v>
       </c>
@@ -7130,7 +7128,7 @@
         <v>4.0983641710574688</v>
       </c>
     </row>
-    <row r="421" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" s="1" customFormat="1">
       <c r="A421" s="2">
         <v>2018</v>
       </c>
@@ -7144,7 +7142,7 @@
         <v>5.5918615843680817</v>
       </c>
     </row>
-    <row r="422" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" s="1" customFormat="1">
       <c r="A422" s="2">
         <v>2018</v>
       </c>
@@ -7158,7 +7156,7 @@
         <v>5.8805296630450394</v>
       </c>
     </row>
-    <row r="423" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" s="1" customFormat="1">
       <c r="A423" s="2">
         <v>2018</v>
       </c>
@@ -7172,7 +7170,7 @@
         <v>11.759657402552001</v>
       </c>
     </row>
-    <row r="424" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" s="1" customFormat="1">
       <c r="A424" s="2">
         <v>2018</v>
       </c>
@@ -7186,7 +7184,7 @@
         <v>13.365011560107956</v>
       </c>
     </row>
-    <row r="425" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" s="1" customFormat="1">
       <c r="A425" s="2">
         <v>2018</v>
       </c>
@@ -7200,7 +7198,7 @@
         <v>9.5095951143739477</v>
       </c>
     </row>
-    <row r="426" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" s="1" customFormat="1">
       <c r="A426" s="2">
         <v>2018</v>
       </c>
@@ -7214,7 +7212,7 @@
         <v>8.9282717064426773</v>
       </c>
     </row>
-    <row r="427" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" s="1" customFormat="1">
       <c r="A427" s="2">
         <v>2018</v>
       </c>
@@ -7228,7 +7226,7 @@
         <v>5.8455978306923146</v>
       </c>
     </row>
-    <row r="428" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" s="1" customFormat="1">
       <c r="A428" s="2">
         <v>2018</v>
       </c>
@@ -7242,7 +7240,7 @@
         <v>5.9005751848808545</v>
       </c>
     </row>
-    <row r="429" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" s="1" customFormat="1">
       <c r="A429" s="2">
         <v>2018</v>
       </c>
@@ -7256,7 +7254,7 @@
         <v>5.1892899508557875</v>
       </c>
     </row>
-    <row r="430" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" s="1" customFormat="1">
       <c r="A430" s="2">
         <v>2018</v>
       </c>
@@ -7270,7 +7268,7 @@
         <v>11.74888462281756</v>
       </c>
     </row>
-    <row r="431" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" s="1" customFormat="1">
       <c r="A431" s="2">
         <v>2018</v>
       </c>
@@ -7284,7 +7282,7 @@
         <v>5.9110016469983835</v>
       </c>
     </row>
-    <row r="432" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" s="1" customFormat="1">
       <c r="A432" s="2">
         <v>2018</v>
       </c>
@@ -7298,7 +7296,7 @@
         <v>5.942745057375916</v>
       </c>
     </row>
-    <row r="433" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" s="1" customFormat="1">
       <c r="A433" s="2">
         <v>2018</v>
       </c>
@@ -7312,7 +7310,7 @@
         <v>13.506545729627103</v>
       </c>
     </row>
-    <row r="434" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" s="1" customFormat="1">
       <c r="A434" s="2">
         <v>2018</v>
       </c>
@@ -7326,7 +7324,7 @@
         <v>16.77973513236217</v>
       </c>
     </row>
-    <row r="435" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" s="1" customFormat="1">
       <c r="A435" s="2">
         <v>2018</v>
       </c>
@@ -7340,7 +7338,7 @@
         <v>21.643368364061413</v>
       </c>
     </row>
-    <row r="436" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" s="1" customFormat="1">
       <c r="A436" s="2">
         <v>2018</v>
       </c>
@@ -7354,7 +7352,7 @@
         <v>7.8065219415306313</v>
       </c>
     </row>
-    <row r="437" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" s="1" customFormat="1">
       <c r="A437" s="2">
         <v>2018</v>
       </c>
@@ -7368,7 +7366,7 @@
         <v>12.89496189060927</v>
       </c>
     </row>
-    <row r="438" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" s="1" customFormat="1">
       <c r="A438" s="2">
         <v>2018</v>
       </c>
@@ -7382,7 +7380,7 @@
         <v>6.076722322942862</v>
       </c>
     </row>
-    <row r="439" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" s="1" customFormat="1">
       <c r="A439" s="2">
         <v>2018</v>
       </c>
@@ -7396,7 +7394,7 @@
         <v>14.818249537567899</v>
       </c>
     </row>
-    <row r="440" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" s="1" customFormat="1">
       <c r="A440" s="2">
         <v>2018</v>
       </c>
@@ -7410,7 +7408,7 @@
         <v>11.493228365457123</v>
       </c>
     </row>
-    <row r="441" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" s="1" customFormat="1">
       <c r="A441" s="2">
         <v>2018</v>
       </c>
@@ -7424,7 +7422,7 @@
         <v>10.524753506287304</v>
       </c>
     </row>
-    <row r="442" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" s="1" customFormat="1">
       <c r="A442" s="2">
         <v>2018</v>
       </c>
@@ -7438,7 +7436,7 @@
         <v>9.3184954410682845</v>
       </c>
     </row>
-    <row r="443" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" s="1" customFormat="1">
       <c r="A443" s="2">
         <v>2018</v>
       </c>
@@ -7452,7 +7450,7 @@
         <v>7.6698721518141522</v>
       </c>
     </row>
-    <row r="444" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" s="1" customFormat="1">
       <c r="A444" s="2">
         <v>2018</v>
       </c>
@@ -7466,7 +7464,7 @@
         <v>4.2830483761676588</v>
       </c>
     </row>
-    <row r="445" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" s="1" customFormat="1">
       <c r="A445" s="2">
         <v>2018</v>
       </c>
@@ -7480,7 +7478,7 @@
         <v>6.1560132256260962</v>
       </c>
     </row>
-    <row r="446" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" s="1" customFormat="1">
       <c r="A446" s="2">
         <v>2018</v>
       </c>
@@ -7494,7 +7492,7 @@
         <v>5.7860156771581313</v>
       </c>
     </row>
-    <row r="447" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" s="1" customFormat="1">
       <c r="A447" s="2">
         <v>2018</v>
       </c>
@@ -7508,7 +7506,7 @@
         <v>12.487485758721087</v>
       </c>
     </row>
-    <row r="448" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" s="1" customFormat="1">
       <c r="A448" s="2">
         <v>2018</v>
       </c>
@@ -7522,7 +7520,7 @@
         <v>14.674244286624784</v>
       </c>
     </row>
-    <row r="449" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" s="1" customFormat="1">
       <c r="A449" s="2">
         <v>2018</v>
       </c>
@@ -7536,7 +7534,7 @@
         <v>10.064460081067541</v>
       </c>
     </row>
-    <row r="450" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" s="1" customFormat="1">
       <c r="A450" s="2">
         <v>2018</v>
       </c>
@@ -7550,7 +7548,7 @@
         <v>9.2658481775624058</v>
       </c>
     </row>
-    <row r="451" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" s="1" customFormat="1">
       <c r="A451" s="2">
         <v>2018</v>
       </c>
@@ -7564,7 +7562,7 @@
         <v>5.7382047258773632</v>
       </c>
     </row>
-    <row r="452" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" s="1" customFormat="1">
       <c r="A452" s="2">
         <v>2018</v>
       </c>
@@ -7578,7 +7576,7 @@
         <v>8.8149875793541259</v>
       </c>
     </row>
-    <row r="453" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" s="1" customFormat="1">
       <c r="A453" s="2">
         <v>2018</v>
       </c>
@@ -7592,7 +7590,7 @@
         <v>5.3697157166003828</v>
       </c>
     </row>
-    <row r="454" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" s="1" customFormat="1">
       <c r="A454" s="2">
         <v>2018</v>
       </c>
@@ -7606,7 +7604,7 @@
         <v>12.357326043488575</v>
       </c>
     </row>
-    <row r="455" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" s="1" customFormat="1">
       <c r="A455" s="2">
         <v>2018</v>
       </c>
@@ -7620,7 +7618,7 @@
         <v>5.7798425123690507</v>
       </c>
     </row>
-    <row r="456" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" s="1" customFormat="1">
       <c r="A456" s="2">
         <v>2018</v>
       </c>
@@ -7634,7 +7632,7 @@
         <v>5.9878837471783299</v>
       </c>
     </row>
-    <row r="457" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" s="1" customFormat="1">
       <c r="A457" s="2">
         <v>2018</v>
       </c>
@@ -7648,7 +7646,7 @@
         <v>15.255950362488306</v>
       </c>
     </row>
-    <row r="458" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" s="1" customFormat="1">
       <c r="A458" s="2">
         <v>2018</v>
       </c>
@@ -7662,7 +7660,7 @@
         <v>16.934363010150058</v>
       </c>
     </row>
-    <row r="459" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" s="1" customFormat="1">
       <c r="A459" s="2">
         <v>2018</v>
       </c>
@@ -7676,7 +7674,7 @@
         <v>22.93530199223472</v>
       </c>
     </row>
-    <row r="460" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" s="1" customFormat="1">
       <c r="A460" s="2">
         <v>2018</v>
       </c>
@@ -7690,7 +7688,7 @@
         <v>8.0439202026599119</v>
       </c>
     </row>
-    <row r="461" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" s="1" customFormat="1">
       <c r="A461" s="2">
         <v>2018</v>
       </c>
@@ -7704,7 +7702,7 @@
         <v>13.492083570210347</v>
       </c>
     </row>
-    <row r="462" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" s="1" customFormat="1">
       <c r="A462" s="2">
         <v>2018</v>
       </c>
@@ -7718,7 +7716,7 @@
         <v>6.0852239036840343</v>
       </c>
     </row>
-    <row r="463" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" s="1" customFormat="1">
       <c r="A463" s="2">
         <v>2018</v>
       </c>
@@ -7732,7 +7730,7 @@
         <v>15.813667433629776</v>
       </c>
     </row>
-    <row r="464" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" s="1" customFormat="1">
       <c r="A464" s="2">
         <v>2018</v>
       </c>
@@ -7746,7 +7744,7 @@
         <v>12.138923393387724</v>
       </c>
     </row>
-    <row r="465" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" s="1" customFormat="1">
       <c r="A465" s="2">
         <v>2018</v>
       </c>
@@ -7760,7 +7758,7 @@
         <v>11.023282490376955</v>
       </c>
     </row>
-    <row r="466" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" s="1" customFormat="1">
       <c r="A466" s="2">
         <v>2018</v>
       </c>
@@ -7774,7 +7772,7 @@
         <v>9.8168937119138029</v>
       </c>
     </row>
-    <row r="467" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" s="1" customFormat="1">
       <c r="A467" s="2">
         <v>2018</v>
       </c>
@@ -7788,7 +7786,7 @@
         <v>8.5627376017526142</v>
       </c>
     </row>
-    <row r="468" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" s="1" customFormat="1">
       <c r="A468" s="2">
         <v>2018</v>
       </c>
@@ -7802,7 +7800,7 @@
         <v>4.3190949579434834</v>
       </c>
     </row>
-    <row r="469" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" s="1" customFormat="1">
       <c r="A469" s="2">
         <v>2018</v>
       </c>
@@ -7816,7 +7814,7 @@
         <v>7.0933821251548945</v>
       </c>
     </row>
-    <row r="470" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" s="1" customFormat="1">
       <c r="A470" s="2">
         <v>2018</v>
       </c>
@@ -7830,7 +7828,7 @@
         <v>5.7466751024343212</v>
       </c>
     </row>
-    <row r="471" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" s="1" customFormat="1">
       <c r="A471" s="2">
         <v>2018</v>
       </c>
@@ -7844,7 +7842,7 @@
         <v>12.495112674155788</v>
       </c>
     </row>
-    <row r="472" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" s="1" customFormat="1">
       <c r="A472" s="2">
         <v>2018</v>
       </c>
@@ -7858,7 +7856,7 @@
         <v>15.891233646070431</v>
       </c>
     </row>
-    <row r="473" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" s="1" customFormat="1">
       <c r="A473" s="2">
         <v>2018</v>
       </c>
@@ -7872,7 +7870,7 @@
         <v>10.487005565275494</v>
       </c>
     </row>
-    <row r="474" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" s="1" customFormat="1">
       <c r="A474" s="2">
         <v>2018</v>
       </c>
@@ -7886,7 +7884,7 @@
         <v>10.457284089135911</v>
       </c>
     </row>
-    <row r="475" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" s="1" customFormat="1">
       <c r="A475" s="2">
         <v>2018</v>
       </c>
@@ -7900,7 +7898,7 @@
         <v>5.7152665393578452</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4">
       <c r="A476" s="2">
         <v>2018</v>
       </c>
@@ -7914,7 +7912,7 @@
         <v>8.8189927919005164</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4">
       <c r="A477" s="2">
         <v>2018</v>
       </c>
@@ -7928,7 +7926,7 @@
         <v>5.1195073647728675</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4">
       <c r="A478" s="2">
         <v>2018</v>
       </c>
@@ -7942,7 +7940,7 @@
         <v>13.179234899969483</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4">
       <c r="A479" s="2">
         <v>2018</v>
       </c>
@@ -7956,7 +7954,7 @@
         <v>6.3092552438517453</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4">
       <c r="A480" s="2">
         <v>2018</v>
       </c>
@@ -7970,7 +7968,7 @@
         <v>7.4365620082140254</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4">
       <c r="A481" s="2">
         <v>2018</v>
       </c>
@@ -7984,7 +7982,7 @@
         <v>16.58323444553027</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4">
       <c r="A482" s="2">
         <v>2019</v>
       </c>
@@ -7998,7 +7996,7 @@
         <v>19.643958224230506</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4">
       <c r="A483" s="2">
         <v>2019</v>
       </c>
@@ -8012,7 +8010,7 @@
         <v>24.715063293849774</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4">
       <c r="A484" s="2">
         <v>2019</v>
       </c>
@@ -8026,7 +8024,7 @@
         <v>7.9640051552718791</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4">
       <c r="A485" s="2">
         <v>2019</v>
       </c>
@@ -8040,7 +8038,7 @@
         <v>13.444236269077935</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4">
       <c r="A486" s="2">
         <v>2019</v>
       </c>
@@ -8054,7 +8052,7 @@
         <v>5.8917305691961586</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4">
       <c r="A487" s="2">
         <v>2019</v>
       </c>
@@ -8068,7 +8066,7 @@
         <v>15.734864228645909</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4">
       <c r="A488" s="2">
         <v>2019</v>
       </c>
@@ -8082,7 +8080,7 @@
         <v>12.049695550812029</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4">
       <c r="A489" s="2">
         <v>2019</v>
       </c>
@@ -8096,7 +8094,7 @@
         <v>10.659197328953976</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4">
       <c r="A490" s="2">
         <v>2019</v>
       </c>
@@ -8110,7 +8108,7 @@
         <v>9.8250899578357132</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4">
       <c r="A491" s="2">
         <v>2019</v>
       </c>
@@ -8124,7 +8122,7 @@
         <v>8.5604642174650554</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4">
       <c r="A492" s="2">
         <v>2019</v>
       </c>
@@ -8138,7 +8136,7 @@
         <v>5.0578618428674034</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4">
       <c r="A493" s="2">
         <v>2019</v>
       </c>
@@ -8152,7 +8150,7 @@
         <v>7.0927922869920428</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4">
       <c r="A494" s="2">
         <v>2019</v>
       </c>
@@ -8166,7 +8164,7 @@
         <v>5.742764175317399</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4">
       <c r="A495" s="2">
         <v>2019</v>
       </c>
@@ -8180,7 +8178,7 @@
         <v>12.512773459683503</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4">
       <c r="A496" s="2">
         <v>2019</v>
       </c>
@@ -8194,7 +8192,7 @@
         <v>15.884653263915219</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4">
       <c r="A497" s="2">
         <v>2019</v>
       </c>
@@ -8208,7 +8206,7 @@
         <v>10.488420648136287</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4">
       <c r="A498" s="2">
         <v>2019</v>
       </c>
@@ -8222,7 +8220,7 @@
         <v>10.377100013969459</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4">
       <c r="A499" s="2">
         <v>2019</v>
       </c>
@@ -8236,7 +8234,7 @@
         <v>5.8392631894295359</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4">
       <c r="A500" s="2">
         <v>2019</v>
       </c>
@@ -8250,7 +8248,7 @@
         <v>8.7085551887545929</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4">
       <c r="A501" s="2">
         <v>2019</v>
       </c>
@@ -8264,7 +8262,7 @@
         <v>5.7799929703975632</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4">
       <c r="A502" s="2">
         <v>2019</v>
       </c>
@@ -8278,7 +8276,7 @@
         <v>12.986963477266004</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4">
       <c r="A503" s="2">
         <v>2019</v>
       </c>
@@ -8292,7 +8290,7 @@
         <v>6.4150707379690832</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4">
       <c r="A504" s="2">
         <v>2019</v>
       </c>
@@ -8306,7 +8304,7 @@
         <v>6.3411014506123013</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4">
       <c r="A505" s="2">
         <v>2019</v>
       </c>
@@ -8320,7 +8318,7 @@
         <v>16.573299964579572</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4">
       <c r="A506" s="2">
         <v>2019</v>
       </c>
@@ -8334,7 +8332,7 @@
         <v>22.480046018557395</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4">
       <c r="A507" s="2">
         <v>2019</v>
       </c>
@@ -8348,7 +8346,7 @@
         <v>30.346259857091994</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4">
       <c r="A508" s="2">
         <v>2019</v>
       </c>
@@ -8362,7 +8360,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4">
       <c r="A509" s="2">
         <v>2019</v>
       </c>
@@ -8376,7 +8374,7 @@
         <v>16.01024333099657</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4">
       <c r="A510" s="2">
         <v>2019</v>
       </c>
@@ -8390,7 +8388,7 @@
         <v>6.0544068935437858</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4">
       <c r="A511" s="2">
         <v>2019</v>
       </c>
@@ -8404,7 +8402,7 @@
         <v>18.431517831912782</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4">
       <c r="A512" s="2">
         <v>2019</v>
       </c>
@@ -8418,7 +8416,7 @@
         <v>13.833035083816176</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4">
       <c r="A513" s="2">
         <v>2019</v>
       </c>
@@ -8432,7 +8430,7 @@
         <v>12.193357817950574</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4">
       <c r="A514" s="2">
         <v>2019</v>
       </c>
@@ -8446,7 +8444,7 @@
         <v>10.836611219480826</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4">
       <c r="A515" s="2">
         <v>2019</v>
       </c>
@@ -8460,7 +8458,7 @@
         <v>12.073382280507326</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4">
       <c r="A516" s="2">
         <v>2019</v>
       </c>
@@ -8474,7 +8472,7 @@
         <v>5.4922883214179663</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4">
       <c r="A517" s="2">
         <v>2019</v>
       </c>
@@ -8488,7 +8486,7 @@
         <v>7.8941634860050893</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4">
       <c r="A518" s="2">
         <v>2019</v>
       </c>
@@ -8502,7 +8500,7 @@
         <v>6.0262969045262302</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4">
       <c r="A519" s="2">
         <v>2019</v>
       </c>
@@ -8516,7 +8514,7 @@
         <v>14.50130254739236</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4">
       <c r="A520" s="2">
         <v>2019</v>
       </c>
@@ -8530,7 +8528,7 @@
         <v>17.242865250195976</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4">
       <c r="A521" s="2">
         <v>2019</v>
       </c>
@@ -8544,7 +8542,7 @@
         <v>11.628050204319907</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4">
       <c r="A522" s="2">
         <v>2019</v>
       </c>
@@ -8558,7 +8556,7 @@
         <v>12.548748750601563</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4">
       <c r="A523" s="2">
         <v>2019</v>
       </c>
@@ -8572,7 +8570,7 @@
         <v>6.1185220130690414</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4">
       <c r="A524" s="2">
         <v>2019</v>
       </c>
@@ -8586,7 +8584,7 @@
         <v>19.875972848399364</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4">
       <c r="A525" s="2">
         <v>2019</v>
       </c>
@@ -8600,7 +8598,7 @@
         <v>6.0080473175608127</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4">
       <c r="A526" s="2">
         <v>2019</v>
       </c>
@@ -8614,7 +8612,7 @@
         <v>15.074549058890282</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4">
       <c r="A527" s="2">
         <v>2019</v>
       </c>
@@ -8628,7 +8626,7 @@
         <v>7.1031128829665224</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4">
       <c r="A528" s="2">
         <v>2019</v>
       </c>
@@ -8642,7 +8640,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4">
       <c r="A529" s="2">
         <v>2019</v>
       </c>
@@ -8656,7 +8654,7 @@
         <v>18.529317885920335</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4">
       <c r="A530" s="2">
         <v>2019</v>
       </c>
@@ -8670,7 +8668,7 @@
         <v>25.679380143834067</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4">
       <c r="A531" s="2">
         <v>2019</v>
       </c>
@@ -8684,7 +8682,7 @@
         <v>38.714100560711387</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4">
       <c r="A532" s="2">
         <v>2019</v>
       </c>
@@ -8698,7 +8696,7 @@
         <v>9.2934074294598261</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4">
       <c r="A533" s="2">
         <v>2019</v>
       </c>
@@ -8712,7 +8710,7 @@
         <v>19.994668122685404</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4">
       <c r="A534" s="2">
         <v>2019</v>
       </c>
@@ -8726,7 +8724,7 @@
         <v>6.9663235884742907</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4">
       <c r="A535" s="2">
         <v>2019</v>
       </c>
@@ -8740,7 +8738,7 @@
         <v>23.193402364939846</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4">
       <c r="A536" s="2">
         <v>2019</v>
       </c>
@@ -8754,7 +8752,7 @@
         <v>16.69992255090861</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4">
       <c r="A537" s="2">
         <v>2019</v>
       </c>
@@ -8768,7 +8766,7 @@
         <v>14.695132866500609</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4">
       <c r="A538" s="2">
         <v>2019</v>
       </c>
@@ -8782,7 +8780,7 @@
         <v>13.22353748406198</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4">
       <c r="A539" s="2">
         <v>2019</v>
       </c>
@@ -8796,7 +8794,7 @@
         <v>11.968240929924347</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4">
       <c r="A540" s="2">
         <v>2019</v>
       </c>
@@ -8810,7 +8808,7 @@
         <v>5.7196664648910414</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4">
       <c r="A541" s="2">
         <v>2019</v>
       </c>
@@ -8824,7 +8822,7 @@
         <v>8.0023752969121134</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4">
       <c r="A542" s="2">
         <v>2019</v>
       </c>
@@ -8838,7 +8836,7 @@
         <v>6.1082285455214702</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4">
       <c r="A543" s="2">
         <v>2019</v>
       </c>
@@ -8852,7 +8850,7 @@
         <v>17.931522461372833</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4">
       <c r="A544" s="2">
         <v>2019</v>
       </c>
@@ -8866,7 +8864,7 @@
         <v>23.748415159966662</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4">
       <c r="A545" s="2">
         <v>2019</v>
       </c>
@@ -8880,7 +8878,7 @@
         <v>15.983718503999242</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4">
       <c r="A546" s="2">
         <v>2019</v>
       </c>
@@ -8894,7 +8892,7 @@
         <v>14.746465244455523</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4">
       <c r="A547" s="2">
         <v>2019</v>
       </c>
@@ -8908,7 +8906,7 @@
         <v>6.0382295086509021</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4">
       <c r="A548" s="2">
         <v>2019</v>
       </c>
@@ -8922,7 +8920,7 @@
         <v>19.743826982349614</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4">
       <c r="A549" s="2">
         <v>2019</v>
       </c>
@@ -8936,7 +8934,7 @@
         <v>5.0177469409564512</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4">
       <c r="A550" s="2">
         <v>2019</v>
       </c>
@@ -8950,7 +8948,7 @@
         <v>18.165529686687883</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4">
       <c r="A551" s="2">
         <v>2019</v>
       </c>
@@ -8964,7 +8962,7 @@
         <v>9.3894131314263589</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4">
       <c r="A552" s="2">
         <v>2019</v>
       </c>
@@ -8978,7 +8976,7 @@
         <v>6.6907013801434116</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4">
       <c r="A553" s="2">
         <v>2019</v>
       </c>
@@ -8992,7 +8990,7 @@
         <v>19.323994794580525</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4">
       <c r="A554" s="2">
         <v>2019</v>
       </c>
@@ -9006,7 +9004,7 @@
         <v>30.769694141005864</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4">
       <c r="A555" s="2">
         <v>2019</v>
       </c>
@@ -9020,7 +9018,7 @@
         <v>44.203178670085876</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4">
       <c r="A556" s="2">
         <v>2019</v>
       </c>
@@ -9034,7 +9032,7 @@
         <v>24.878307670462615</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4">
       <c r="A557" s="2">
         <v>2019</v>
       </c>
@@ -9048,7 +9046,7 @@
         <v>23.374950800162289</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4">
       <c r="A558" s="2">
         <v>2019</v>
       </c>
@@ -9062,7 +9060,7 @@
         <v>6.9941135234450593</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4">
       <c r="A559" s="2">
         <v>2019</v>
       </c>
@@ -9076,7 +9074,7 @@
         <v>26.16228061451293</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4">
       <c r="A560" s="2">
         <v>2019</v>
       </c>
@@ -9090,7 +9088,7 @@
         <v>19.255411607971407</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4">
       <c r="A561" s="2">
         <v>2019</v>
       </c>
@@ -9104,7 +9102,7 @@
         <v>17.007580897657125</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4">
       <c r="A562" s="2">
         <v>2019</v>
       </c>
@@ -9118,7 +9116,7 @@
         <v>14.525629551519327</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:4">
       <c r="A563" s="2">
         <v>2019</v>
       </c>
@@ -9132,7 +9130,7 @@
         <v>12.959200042804211</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4">
       <c r="A564" s="2">
         <v>2019</v>
       </c>
@@ -9146,7 +9144,7 @@
         <v>6.5261521956930428</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4">
       <c r="A565" s="2">
         <v>2019</v>
       </c>
@@ -9160,7 +9158,7 @@
         <v>8.0008803640296282</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:4">
       <c r="A566" s="2">
         <v>2019</v>
       </c>
@@ -9174,7 +9172,7 @@
         <v>7.7852008899870864</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:4">
       <c r="A567" s="2">
         <v>2019</v>
       </c>
@@ -9188,7 +9186,7 @@
         <v>20.320347435742729</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:4">
       <c r="A568" s="2">
         <v>2019</v>
       </c>
@@ -9202,7 +9200,7 @@
         <v>26.019884314782949</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:4">
       <c r="A569" s="2">
         <v>2019</v>
       </c>
@@ -9216,7 +9214,7 @@
         <v>17.17699897385603</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4">
       <c r="A570" s="2">
         <v>2019</v>
       </c>
@@ -9230,7 +9228,7 @@
         <v>19.083573022833811</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:4">
       <c r="A571" s="2">
         <v>2019</v>
       </c>
@@ -9244,7 +9242,7 @@
         <v>6.040171698468491</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4">
       <c r="A572" s="2">
         <v>2019</v>
       </c>
@@ -9258,7 +9256,7 @@
         <v>20.690353422143115</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:4">
       <c r="A573" s="2">
         <v>2019</v>
       </c>
@@ -9272,7 +9270,7 @@
         <v>5.2079250640697081</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4">
       <c r="A574" s="2">
         <v>2019</v>
       </c>
@@ -9286,7 +9284,7 @@
         <v>20.547197019807282</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:4">
       <c r="A575" s="2">
         <v>2019</v>
       </c>
@@ -9300,7 +9298,7 @@
         <v>9.7922018443558461</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:4">
       <c r="A576" s="2">
         <v>2019</v>
       </c>
@@ -9314,7 +9312,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:4">
       <c r="A577" s="2">
         <v>2019</v>
       </c>
@@ -9328,7 +9326,7 @@
         <v>29.870389324312761</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:4">
       <c r="A578" s="2">
         <v>2020</v>
       </c>
@@ -9342,7 +9340,7 @@
         <v>45.181288073755518</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:4">
       <c r="A579" s="2">
         <v>2020</v>
       </c>
@@ -9356,7 +9354,7 @@
         <v>58.705682962422472</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:4">
       <c r="A580" s="2">
         <v>2020</v>
       </c>
@@ -9370,7 +9368,7 @@
         <v>29.132225012939607</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:4">
       <c r="A581" s="2">
         <v>2020</v>
       </c>
@@ -9384,7 +9382,7 @@
         <v>25.942049334121737</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:4">
       <c r="A582" s="2">
         <v>2020</v>
       </c>
@@ -9398,7 +9396,7 @@
         <v>7.1170477818653968</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:4">
       <c r="A583" s="2">
         <v>2020</v>
       </c>
@@ -9412,7 +9410,7 @@
         <v>29.394787835061326</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:4">
       <c r="A584" s="2">
         <v>2020</v>
       </c>
@@ -9426,7 +9424,7 @@
         <v>20.538999274943325</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:4">
       <c r="A585" s="2">
         <v>2020</v>
       </c>
@@ -9440,7 +9438,7 @@
         <v>19.029765335057498</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:4">
       <c r="A586" s="2">
         <v>2020</v>
       </c>
@@ -9454,7 +9452,7 @@
         <v>15.697352607415109</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:4">
       <c r="A587" s="2">
         <v>2020</v>
       </c>
@@ -9468,7 +9466,7 @@
         <v>14.14492205715465</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:4">
       <c r="A588" s="2">
         <v>2020</v>
       </c>
@@ -9482,7 +9480,7 @@
         <v>7.2917577204748261</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:4">
       <c r="A589" s="2">
         <v>2020</v>
       </c>
@@ -9496,7 +9494,7 @@
         <v>7.9624189471506872</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:4">
       <c r="A590" s="2">
         <v>2020</v>
       </c>
@@ -9510,7 +9508,7 @@
         <v>8.4408677102169971</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:4">
       <c r="A591" s="2">
         <v>2020</v>
       </c>
@@ -9524,7 +9522,7 @@
         <v>22.148213068436263</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:4">
       <c r="A592" s="2">
         <v>2020</v>
       </c>
@@ -9538,7 +9536,7 @@
         <v>27.76828207897622</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:4">
       <c r="A593" s="2">
         <v>2020</v>
       </c>
@@ -9552,7 +9550,7 @@
         <v>19.06030056406124</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:4">
       <c r="A594" s="2">
         <v>2020</v>
       </c>
@@ -9566,7 +9564,7 @@
         <v>21.425047243902736</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:4">
       <c r="A595" s="2">
         <v>2020</v>
       </c>
@@ -9580,7 +9578,7 @@
         <v>6.0369845914840994</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:4">
       <c r="A596" s="2">
         <v>2020</v>
       </c>
@@ -9594,7 +9592,7 @@
         <v>20.989379744282658</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:4">
       <c r="A597" s="2">
         <v>2020</v>
       </c>
@@ -9608,7 +9606,7 @@
         <v>6.4171706273640279</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:4">
       <c r="A598" s="2">
         <v>2020</v>
       </c>
@@ -9622,7 +9620,7 @@
         <v>22.424056770036248</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:4">
       <c r="A599" s="2">
         <v>2020</v>
       </c>
@@ -9636,7 +9634,7 @@
         <v>10.000539080494759</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:4">
       <c r="A600" s="2">
         <v>2020</v>
       </c>
@@ -9650,7 +9648,7 @@
         <v>7.4108658376963348</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:4">
       <c r="A601" s="2">
         <v>2020</v>
       </c>
@@ -9664,7 +9662,7 @@
         <v>32.24553094303289</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:4">
       <c r="A602" s="2">
         <v>2020</v>
       </c>
@@ -9678,7 +9676,7 @@
         <v>45.661973632122773</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:4">
       <c r="A603" s="2">
         <v>2020</v>
       </c>
@@ -9692,7 +9690,7 @@
         <v>60.4844973584038</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:4">
       <c r="A604" s="2">
         <v>2020</v>
       </c>
@@ -9706,7 +9704,7 @@
         <v>34.925956428571432</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4">
       <c r="A605" s="2">
         <v>2020</v>
       </c>
@@ -9720,7 +9718,7 @@
         <v>27.952284674364286</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:4">
       <c r="A606" s="2">
         <v>2020</v>
       </c>
@@ -9734,7 +9732,7 @@
         <v>7.6054879845590833</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4">
       <c r="A607" s="2">
         <v>2020</v>
       </c>
@@ -9748,7 +9746,7 @@
         <v>30.987577637139466</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4">
       <c r="A608" s="2">
         <v>2020</v>
       </c>
@@ -9762,7 +9760,7 @@
         <v>22.150306062575758</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4">
       <c r="A609" s="2">
         <v>2020</v>
       </c>
@@ -9776,7 +9774,7 @@
         <v>20.448621178442586</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4">
       <c r="A610" s="2">
         <v>2020</v>
       </c>
@@ -9790,7 +9788,7 @@
         <v>16.870258993114398</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:4">
       <c r="A611" s="2">
         <v>2020</v>
       </c>
@@ -9804,7 +9802,7 @@
         <v>15.864013631862552</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4">
       <c r="A612" s="2">
         <v>2020</v>
       </c>
@@ -9818,7 +9816,7 @@
         <v>8.0288622555984048</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4">
       <c r="A613" s="2">
         <v>2020</v>
       </c>
@@ -9832,7 +9830,7 @@
         <v>11.669110961977259</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4">
       <c r="A614" s="2">
         <v>2020</v>
       </c>
@@ -9846,7 +9844,7 @@
         <v>9.2745627320941555</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4">
       <c r="A615" s="2">
         <v>2020</v>
       </c>
@@ -9860,7 +9858,7 @@
         <v>22.560122617583183</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:4">
       <c r="A616" s="2">
         <v>2020</v>
       </c>
@@ -9874,7 +9872,7 @@
         <v>29.100147623878513</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:4">
       <c r="A617" s="2">
         <v>2020</v>
       </c>
@@ -9888,7 +9886,7 @@
         <v>19.679596047283173</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4">
       <c r="A618" s="2">
         <v>2020</v>
       </c>
@@ -9902,7 +9900,7 @@
         <v>22.558536187956619</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4">
       <c r="A619" s="2">
         <v>2020</v>
       </c>
@@ -9916,7 +9914,7 @@
         <v>6.3086149631964741</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4">
       <c r="A620" s="2">
         <v>2020</v>
       </c>
@@ -9930,7 +9928,7 @@
         <v>21.020626936890711</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4">
       <c r="A621" s="2">
         <v>2020</v>
       </c>
@@ -9944,7 +9942,7 @@
         <v>6.593202418178028</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4">
       <c r="A622" s="2">
         <v>2020</v>
       </c>
@@ -9958,7 +9956,7 @@
         <v>23.925791608984095</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:4">
       <c r="A623" s="2">
         <v>2020</v>
       </c>
@@ -9972,7 +9970,7 @@
         <v>10.411619106122004</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:4">
       <c r="A624" s="2">
         <v>2020</v>
       </c>
@@ -9986,7 +9984,7 @@
         <v>8.128329395457266</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:4">
       <c r="A625" s="2">
         <v>2020</v>
       </c>
@@ -10000,7 +9998,7 @@
         <v>32.704534437187966</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:4">
       <c r="A626" s="2">
         <v>2020</v>
       </c>
@@ -10014,7 +10012,7 @@
         <v>48.376623908115107</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:4">
       <c r="A627" s="2">
         <v>2020</v>
       </c>
@@ -10028,7 +10026,7 @@
         <v>63.808520256071724</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:4">
       <c r="A628" s="2">
         <v>2020</v>
       </c>
@@ -10042,7 +10040,7 @@
         <v>36.540436607329845</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:4">
       <c r="A629" s="2">
         <v>2020</v>
       </c>
@@ -10056,7 +10054,7 @@
         <v>30.802726948564217</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:4">
       <c r="A630" s="2">
         <v>2020</v>
       </c>
@@ -10070,7 +10068,7 @@
         <v>7.4020744418447872</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:4">
       <c r="A631" s="2">
         <v>2020</v>
       </c>
@@ -10084,7 +10082,7 @@
         <v>33.511194974197892</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:4">
       <c r="A632" s="2">
         <v>2020</v>
       </c>
@@ -10098,7 +10096,7 @@
         <v>23.851523971242955</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:4">
       <c r="A633" s="2">
         <v>2020</v>
       </c>
@@ -10112,7 +10110,7 @@
         <v>22.432598646206184</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:4">
       <c r="A634" s="2">
         <v>2020</v>
       </c>
@@ -10126,7 +10124,7 @@
         <v>18.282832069430402</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:4">
       <c r="A635" s="2">
         <v>2020</v>
       </c>
@@ -10140,7 +10138,7 @@
         <v>21.910419686869954</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:4">
       <c r="A636" s="2">
         <v>2020</v>
       </c>
@@ -10154,7 +10152,7 @@
         <v>10.697630905402091</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:4">
       <c r="A637" s="2">
         <v>2020</v>
       </c>
@@ -10168,7 +10166,7 @@
         <v>12.194703767058197</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:4">
       <c r="A638" s="2">
         <v>2020</v>
       </c>
@@ -10182,7 +10180,7 @@
         <v>10.187491034595631</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:4">
       <c r="A639" s="2">
         <v>2020</v>
       </c>
@@ -10196,7 +10194,7 @@
         <v>24.141761872521517</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:4">
       <c r="A640" s="2">
         <v>2020</v>
       </c>
@@ -10210,7 +10208,7 @@
         <v>31.460904027033759</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:4">
       <c r="A641" s="2">
         <v>2020</v>
       </c>
@@ -10224,7 +10222,7 @@
         <v>21.077778703258762</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:4">
       <c r="A642" s="2">
         <v>2020</v>
       </c>
@@ -10238,7 +10236,7 @@
         <v>25.261155924027737</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:4">
       <c r="A643" s="2">
         <v>2020</v>
       </c>
@@ -10252,7 +10250,7 @@
         <v>6.0278647935826823</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:4">
       <c r="A644" s="2">
         <v>2020</v>
       </c>
@@ -10266,7 +10264,7 @@
         <v>20.849928133788669</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:4">
       <c r="A645" s="2">
         <v>2020</v>
       </c>
@@ -10280,7 +10278,7 @@
         <v>6.6493637120266333</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:4">
       <c r="A646" s="2">
         <v>2020</v>
       </c>
@@ -10294,7 +10292,7 @@
         <v>25.690941341268072</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:4">
       <c r="A647" s="2">
         <v>2020</v>
       </c>
@@ -10308,7 +10306,7 @@
         <v>10.879017270659741</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:4">
       <c r="A648" s="2">
         <v>2020</v>
       </c>
@@ -10322,7 +10320,7 @@
         <v>8.506676055475614</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:4">
       <c r="A649" s="2">
         <v>2020</v>
       </c>
@@ -10336,7 +10334,7 @@
         <v>34.835801698615526</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:4">
       <c r="A650" s="2">
         <v>2020</v>
       </c>
@@ -10350,7 +10348,7 @@
         <v>50.008380839635755</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:4">
       <c r="A651" s="2">
         <v>2020</v>
       </c>
@@ -10364,7 +10362,7 @@
         <v>67.32513676879374</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4">
       <c r="A652" s="2">
         <v>2020</v>
       </c>
@@ -10378,7 +10376,7 @@
         <v>37.650087727354403</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:4">
       <c r="A653" s="2">
         <v>2020</v>
       </c>
@@ -10392,7 +10390,7 @@
         <v>32.452046764181013</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:4">
       <c r="A654" s="2">
         <v>2020</v>
       </c>
@@ -10406,7 +10404,7 @@
         <v>7.3830876264147358</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:4">
       <c r="A655" s="2">
         <v>2020</v>
       </c>
@@ -10420,7 +10418,7 @@
         <v>35.120601241883946</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4">
       <c r="A656" s="2">
         <v>2020</v>
       </c>
@@ -10434,7 +10432,7 @@
         <v>25.446700896630592</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:4">
       <c r="A657" s="2">
         <v>2020</v>
       </c>
@@ -10448,7 +10446,7 @@
         <v>24.053278253060451</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:4">
       <c r="A658" s="2">
         <v>2020</v>
       </c>
@@ -10462,7 +10460,7 @@
         <v>19.698349008778798</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:4">
       <c r="A659" s="2">
         <v>2020</v>
       </c>
@@ -10476,7 +10474,7 @@
         <v>25.206393284161489</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:4">
       <c r="A660" s="2">
         <v>2020</v>
       </c>
@@ -10490,7 +10488,7 @@
         <v>9.8756051708609274</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:4">
       <c r="A661" s="2">
         <v>2020</v>
       </c>
@@ -10504,7 +10502,7 @@
         <v>12.534655980598345</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:4">
       <c r="A662" s="2">
         <v>2020</v>
       </c>
@@ -10518,7 +10516,7 @@
         <v>11.093171319457166</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:4">
       <c r="A663" s="2">
         <v>2020</v>
       </c>
@@ -10532,7 +10530,7 @@
         <v>24.956617779680364</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:4">
       <c r="A664" s="2">
         <v>2020</v>
       </c>
@@ -10546,7 +10544,7 @@
         <v>33.907864866773927</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:4">
       <c r="A665" s="2">
         <v>2020</v>
       </c>
@@ -10560,7 +10558,7 @@
         <v>21.636719189849995</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:4">
       <c r="A666" s="2">
         <v>2020</v>
       </c>
@@ -10574,7 +10572,7 @@
         <v>25.322439650744734</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:4">
       <c r="A667" s="2">
         <v>2020</v>
       </c>
@@ -10588,7 +10586,7 @@
         <v>6.4128673979531827</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:4">
       <c r="A668" s="2">
         <v>2020</v>
       </c>
@@ -10602,7 +10600,7 @@
         <v>21.252954082189127</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:4">
       <c r="A669" s="2">
         <v>2020</v>
       </c>
@@ -10616,7 +10614,7 @@
         <v>7.492108628119051</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:4">
       <c r="A670" s="2">
         <v>2020</v>
       </c>
@@ -10630,7 +10628,7 @@
         <v>27.294352446215623</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:4">
       <c r="A671" s="2">
         <v>2020</v>
       </c>
@@ -10644,7 +10642,7 @@
         <v>11.280765527511996</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:4">
       <c r="A672" s="2">
         <v>2020</v>
       </c>
@@ -10658,7 +10656,7 @@
         <v>8.4868069493378684</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:4">
       <c r="A673" s="2">
         <v>2020</v>
       </c>
@@ -10672,7 +10670,7 @@
         <v>36.442246829152964</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:4">
       <c r="A674" s="2">
         <v>2021</v>
       </c>
@@ -10686,7 +10684,7 @@
         <v>50.785656085065078</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:4">
       <c r="A675" s="2">
         <v>2021</v>
       </c>
@@ -10700,7 +10698,7 @@
         <v>68.290268867968976</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:4">
       <c r="A676" s="2">
         <v>2021</v>
       </c>
@@ -10714,7 +10712,7 @@
         <v>39.966526239652822</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:4">
       <c r="A677" s="2">
         <v>2021</v>
       </c>
@@ -10728,7 +10726,7 @@
         <v>33.626201299986299</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:4">
       <c r="A678" s="2">
         <v>2021</v>
       </c>
@@ -10742,7 +10740,7 @@
         <v>7.5315274091441973</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:4">
       <c r="A679" s="2">
         <v>2021</v>
       </c>
@@ -10756,7 +10754,7 @@
         <v>36.168799328437636</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:4">
       <c r="A680" s="2">
         <v>2021</v>
       </c>
@@ -10770,7 +10768,7 @@
         <v>25.985171359720066</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:4">
       <c r="A681" s="2">
         <v>2021</v>
       </c>
@@ -10784,7 +10782,7 @@
         <v>23.871334373183572</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:4">
       <c r="A682" s="2">
         <v>2021</v>
       </c>
@@ -10798,7 +10796,7 @@
         <v>20.980327506975218</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:4">
       <c r="A683" s="2">
         <v>2021</v>
       </c>
@@ -10812,7 +10810,7 @@
         <v>26.777362312404005</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:4">
       <c r="A684" s="2">
         <v>2021</v>
       </c>
@@ -10826,7 +10824,7 @@
         <v>10.728511929531797</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:4">
       <c r="A685" s="2">
         <v>2021</v>
       </c>
@@ -10840,7 +10838,7 @@
         <v>12.697554732181876</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:4">
       <c r="A686" s="2">
         <v>2021</v>
       </c>
@@ -10854,7 +10852,7 @@
         <v>12.599361245254226</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:4">
       <c r="A687" s="2">
         <v>2021</v>
       </c>
@@ -10868,7 +10866,7 @@
         <v>25.076826126081443</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:4">
       <c r="A688" s="2">
         <v>2021</v>
       </c>
@@ -10882,7 +10880,7 @@
         <v>34.238502647536421</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:4">
       <c r="A689" s="2">
         <v>2021</v>
       </c>
@@ -10896,7 +10894,7 @@
         <v>21.923906760830956</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:4">
       <c r="A690" s="2">
         <v>2021</v>
       </c>
@@ -10910,7 +10908,7 @@
         <v>27.318840694049818</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:4">
       <c r="A691" s="2">
         <v>2021</v>
       </c>
@@ -10924,7 +10922,7 @@
         <v>6.9100899953820667</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:4">
       <c r="A692" s="2">
         <v>2021</v>
       </c>
@@ -10938,7 +10936,7 @@
         <v>21.594379804710776</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:4">
       <c r="A693" s="2">
         <v>2021</v>
       </c>
@@ -10952,7 +10950,7 @@
         <v>7.5015318475317638</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:4">
       <c r="A694" s="2">
         <v>2021</v>
       </c>
@@ -10966,7 +10964,7 @@
         <v>28.130630073152936</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:4">
       <c r="A695" s="2">
         <v>2021</v>
       </c>
@@ -10980,7 +10978,7 @@
         <v>11.584174516498134</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:4">
       <c r="A696" s="2">
         <v>2021</v>
       </c>
@@ -10994,7 +10992,7 @@
         <v>8.7347523962778979</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:4">
       <c r="A697" s="2">
         <v>2021</v>
       </c>
@@ -11008,7 +11006,7 @@
         <v>37.979619581908281</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:4">
       <c r="A698" s="2">
         <v>2021</v>
       </c>
@@ -11022,7 +11020,7 @@
         <v>52.755429370037128</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:4">
       <c r="A699" s="2">
         <v>2021</v>
       </c>
@@ -11036,7 +11034,7 @@
         <v>72.746750032314765</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:4">
       <c r="A700" s="2">
         <v>2021</v>
       </c>
@@ -11050,7 +11048,7 @@
         <v>42.185063767791107</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:4">
       <c r="A701" s="2">
         <v>2021</v>
       </c>
@@ -11064,7 +11062,7 @@
         <v>37.396909596222066</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:4">
       <c r="A702" s="2">
         <v>2021</v>
       </c>
@@ -11078,7 +11076,7 @@
         <v>7.6769062171334799</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:4">
       <c r="A703" s="2">
         <v>2021</v>
       </c>
@@ -11092,7 +11090,7 @@
         <v>39.590116489947938</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:4">
       <c r="A704" s="2">
         <v>2021</v>
       </c>
@@ -11106,7 +11104,7 @@
         <v>30.368054802005656</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:4">
       <c r="A705" s="2">
         <v>2021</v>
       </c>
@@ -11120,7 +11118,7 @@
         <v>27.618973062035561</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:4">
       <c r="A706" s="2">
         <v>2021</v>
       </c>
@@ -11134,7 +11132,7 @@
         <v>23.96630452806761</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:4">
       <c r="A707" s="2">
         <v>2021</v>
       </c>
@@ -11148,7 +11146,7 @@
         <v>25.812477856862227</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:4">
       <c r="A708" s="2">
         <v>2021</v>
       </c>
@@ -11162,7 +11160,7 @@
         <v>12.279223738048181</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:4">
       <c r="A709" s="2">
         <v>2021</v>
       </c>
@@ -11176,7 +11174,7 @@
         <v>38.534894383007746</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:4">
       <c r="A710" s="2">
         <v>2021</v>
       </c>
@@ -11190,7 +11188,7 @@
         <v>13.465987205003026</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:4">
       <c r="A711" s="2">
         <v>2021</v>
       </c>
@@ -11204,7 +11202,7 @@
         <v>28.682221735396933</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:4">
       <c r="A712" s="2">
         <v>2021</v>
       </c>
@@ -11218,7 +11216,7 @@
         <v>36.109721458466879</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:4">
       <c r="A713" s="2">
         <v>2021</v>
       </c>
@@ -11232,7 +11230,7 @@
         <v>23.748446681442676</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:4">
       <c r="A714" s="2">
         <v>2021</v>
       </c>
@@ -11246,7 +11244,7 @@
         <v>29.239354220742428</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:4">
       <c r="A715" s="2">
         <v>2021</v>
       </c>
@@ -11260,7 +11258,7 @@
         <v>6.9931626016260164</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:4">
       <c r="A716" s="2">
         <v>2021</v>
       </c>
@@ -11274,7 +11272,7 @@
         <v>21.661889989639239</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:4">
       <c r="A717" s="2">
         <v>2021</v>
       </c>
@@ -11288,7 +11286,7 @@
         <v>7.6296670052023963</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:4">
       <c r="A718" s="2">
         <v>2021</v>
       </c>
@@ -11302,7 +11300,7 @@
         <v>30.701883164551901</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:4">
       <c r="A719" s="2">
         <v>2021</v>
       </c>
@@ -11316,7 +11314,7 @@
         <v>12.718797838683303</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:4">
       <c r="A720" s="2">
         <v>2021</v>
       </c>
@@ -11330,7 +11328,7 @@
         <v>8.5919214264834842</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:4">
       <c r="A721" s="2">
         <v>2021</v>
       </c>
@@ -11344,7 +11342,7 @@
         <v>40.30992032851357</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:4">
       <c r="A722" s="2">
         <v>2021</v>
       </c>
@@ -11358,7 +11356,7 @@
         <v>56.257550924695913</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:4">
       <c r="A723" s="2">
         <v>2021</v>
       </c>
@@ -11372,7 +11370,7 @@
         <v>77.712071069073119</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:4">
       <c r="A724" s="2">
         <v>2021</v>
       </c>
@@ -11386,7 +11384,7 @@
         <v>43.433335997631737</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:4">
       <c r="A725" s="2">
         <v>2021</v>
       </c>
@@ -11400,7 +11398,7 @@
         <v>39.113135809207584</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:4">
       <c r="A726" s="2">
         <v>2021</v>
       </c>
@@ -11414,7 +11412,7 @@
         <v>8.1768603631366048</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:4">
       <c r="A727" s="2">
         <v>2021</v>
       </c>
@@ -11428,7 +11426,7 @@
         <v>41.927787245662017</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:4">
       <c r="A728" s="2">
         <v>2021</v>
       </c>
@@ -11442,7 +11440,7 @@
         <v>32.168900827858288</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:4">
       <c r="A729" s="2">
         <v>2021</v>
       </c>
@@ -11456,7 +11454,7 @@
         <v>29.601231879492769</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:4">
       <c r="A730" s="2">
         <v>2021</v>
       </c>
@@ -11470,7 +11468,7 @@
         <v>26.689426784946654</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:4">
       <c r="A731" s="2">
         <v>2021</v>
       </c>
@@ -11484,7 +11482,7 @@
         <v>25.980702520297545</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:4">
       <c r="A732" s="2">
         <v>2021</v>
       </c>
@@ -11498,7 +11496,7 @@
         <v>12.99161507240359</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:4">
       <c r="A733" s="2">
         <v>2021</v>
       </c>
@@ -11512,7 +11510,7 @@
         <v>38.867951854450439</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:4">
       <c r="A734" s="2">
         <v>2021</v>
       </c>
@@ -11526,7 +11524,7 @@
         <v>13.365156173184467</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:4">
       <c r="A735" s="2">
         <v>2021</v>
       </c>
@@ -11540,7 +11538,7 @@
         <v>30.87871831426499</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:4">
       <c r="A736" s="2">
         <v>2021</v>
       </c>
@@ -11554,7 +11552,7 @@
         <v>38.342223154287417</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:4">
       <c r="A737" s="2">
         <v>2021</v>
       </c>
@@ -11568,7 +11566,7 @@
         <v>25.400065197148727</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:4">
       <c r="A738" s="2">
         <v>2021</v>
       </c>
@@ -11582,7 +11580,7 @@
         <v>31.209681857038827</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:4">
       <c r="A739" s="2">
         <v>2021</v>
       </c>
@@ -11596,7 +11594,7 @@
         <v>7.0413008203949667</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:4">
       <c r="A740" s="2">
         <v>2021</v>
       </c>
@@ -11610,7 +11608,7 @@
         <v>21.69870707116376</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:4">
       <c r="A741" s="2">
         <v>2021</v>
       </c>
@@ -11624,7 +11622,7 @@
         <v>7.6923269418129809</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:4">
       <c r="A742" s="2">
         <v>2021</v>
       </c>
@@ -11638,7 +11636,7 @@
         <v>33.132296247381312</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:4">
       <c r="A743" s="2">
         <v>2021</v>
       </c>
@@ -11652,7 +11650,7 @@
         <v>13.352723533519553</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:4">
       <c r="A744" s="2">
         <v>2021</v>
       </c>
@@ -11666,7 +11664,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:4">
       <c r="A745" s="2">
         <v>2021</v>
       </c>
@@ -11680,7 +11678,7 @@
         <v>42.101185305714822</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:4">
       <c r="A746" s="2">
         <v>2021</v>
       </c>
@@ -11694,7 +11692,7 @@
         <v>60.209123831555402</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:4">
       <c r="A747" s="2">
         <v>2021</v>
       </c>
@@ -11708,7 +11706,7 @@
         <v>82.949954965422478</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:4">
       <c r="A748" s="2">
         <v>2021</v>
       </c>
@@ -11722,7 +11720,7 @@
         <v>46.380057758939095</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:4">
       <c r="A749" s="2">
         <v>2021</v>
       </c>
@@ -11736,7 +11734,7 @@
         <v>42.342637514688604</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:4">
       <c r="A750" s="2">
         <v>2021</v>
       </c>
@@ -11750,7 +11748,7 @@
         <v>9.0826606385554669</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:4">
       <c r="A751" s="2">
         <v>2021</v>
       </c>
@@ -11764,7 +11762,7 @@
         <v>46.360907457992141</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:4">
       <c r="A752" s="2">
         <v>2021</v>
       </c>
@@ -11778,7 +11776,7 @@
         <v>35.772659194287044</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:4">
       <c r="A753" s="2">
         <v>2021</v>
       </c>
@@ -11792,7 +11790,7 @@
         <v>33.317125841674617</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:4">
       <c r="A754" s="2">
         <v>2021</v>
       </c>
@@ -11806,7 +11804,7 @@
         <v>28.757648947694211</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:4">
       <c r="A755" s="2">
         <v>2021</v>
       </c>
@@ -11820,7 +11818,7 @@
         <v>27.144343038417077</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:4">
       <c r="A756" s="2">
         <v>2021</v>
       </c>
@@ -11834,7 +11832,7 @@
         <v>13.853882842854395</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:4">
       <c r="A757" s="2">
         <v>2021</v>
       </c>
@@ -11848,7 +11846,7 @@
         <v>39.695945136679981</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:4">
       <c r="A758" s="2">
         <v>2021</v>
       </c>
@@ -11862,7 +11860,7 @@
         <v>22.23158340100516</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:4">
       <c r="A759" s="2">
         <v>2021</v>
       </c>
@@ -11876,7 +11874,7 @@
         <v>38.903349250907574</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:4">
       <c r="A760" s="2">
         <v>2021</v>
       </c>
@@ -11890,7 +11888,7 @@
         <v>40.092530111167584</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:4">
       <c r="A761" s="2">
         <v>2021</v>
       </c>
@@ -11904,7 +11902,7 @@
         <v>27.203170454892149</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:4">
       <c r="A762" s="2">
         <v>2021</v>
       </c>
@@ -11918,7 +11916,7 @@
         <v>33.940639744985226</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:4">
       <c r="A763" s="2">
         <v>2021</v>
       </c>
@@ -11932,7 +11930,7 @@
         <v>11.052749308157779</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:4">
       <c r="A764" s="2">
         <v>2021</v>
       </c>
@@ -11946,7 +11944,7 @@
         <v>20.909724448014639</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:4">
       <c r="A765" s="2">
         <v>2021</v>
       </c>
@@ -11960,7 +11958,7 @@
         <v>8.9906509844775488</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:4">
       <c r="A766" s="2">
         <v>2021</v>
       </c>
@@ -11974,7 +11972,7 @@
         <v>36.024023837275145</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:4">
       <c r="A767" s="2">
         <v>2021</v>
       </c>
@@ -11988,7 +11986,7 @@
         <v>13.840886849515069</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:4">
       <c r="A768" s="2">
         <v>2021</v>
       </c>
@@ -12002,7 +12000,7 @@
         <v>10.696704944050465</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:4">
       <c r="A769" s="2">
         <v>2021</v>
       </c>
@@ -12016,7 +12014,7 @@
         <v>45.148122433399472</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:4">
       <c r="A770" s="2">
         <v>2022</v>
       </c>
@@ -12030,7 +12028,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:4">
       <c r="A771" s="2">
         <v>2022</v>
       </c>
@@ -12044,7 +12042,7 @@
         <v>88.22</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:4">
       <c r="A772" s="2">
         <v>2022</v>
       </c>
@@ -12058,7 +12056,7 @@
         <v>51.22</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:4">
       <c r="A773" s="2">
         <v>2022</v>
       </c>
@@ -12072,7 +12070,7 @@
         <v>45.84</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:4">
       <c r="A774" s="2">
         <v>2022</v>
       </c>
@@ -12086,7 +12084,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:4">
       <c r="A775" s="2">
         <v>2022</v>
       </c>
@@ -12100,7 +12098,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:4">
       <c r="A776" s="2">
         <v>2022</v>
       </c>
@@ -12114,7 +12112,7 @@
         <v>38.11</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:4">
       <c r="A777" s="2">
         <v>2022</v>
       </c>
@@ -12128,7 +12126,7 @@
         <v>35.590000000000003</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:4">
       <c r="A778" s="2">
         <v>2022</v>
       </c>
@@ -12142,7 +12140,7 @@
         <v>30.28</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:4">
       <c r="A779" s="2">
         <v>2022</v>
       </c>
@@ -12156,7 +12154,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:4">
       <c r="A780" s="2">
         <v>2022</v>
       </c>
@@ -12170,7 +12168,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:4">
       <c r="A781" s="2">
         <v>2022</v>
       </c>
@@ -12184,7 +12182,7 @@
         <v>41.37</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:4">
       <c r="A782" s="2">
         <v>2022</v>
       </c>
@@ -12198,7 +12196,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:4">
       <c r="A783" s="2">
         <v>2022</v>
       </c>
@@ -12212,7 +12210,7 @@
         <v>41.87</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:4">
       <c r="A784" s="2">
         <v>2022</v>
       </c>
@@ -12226,7 +12224,7 @@
         <v>43.05</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:4">
       <c r="A785" s="2">
         <v>2022</v>
       </c>
@@ -12240,7 +12238,7 @@
         <v>31.09</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:4">
       <c r="A786" s="2">
         <v>2022</v>
       </c>
@@ -12254,7 +12252,7 @@
         <v>36.71</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:4">
       <c r="A787" s="2">
         <v>2022</v>
       </c>
@@ -12268,7 +12266,7 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:4">
       <c r="A788" s="2">
         <v>2022</v>
       </c>
@@ -12282,7 +12280,7 @@
         <v>20.95</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:4">
       <c r="A789" s="2">
         <v>2022</v>
       </c>
@@ -12296,7 +12294,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:4">
       <c r="A790" s="2">
         <v>2022</v>
       </c>
@@ -12310,7 +12308,7 @@
         <v>38.89</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:4">
       <c r="A791" s="2">
         <v>2022</v>
       </c>
@@ -12324,7 +12322,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:4">
       <c r="A792" s="2">
         <v>2022</v>
       </c>
@@ -12338,7 +12336,7 @@
         <v>10.73</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:4">
       <c r="A793" s="2">
         <v>2022</v>
       </c>
@@ -12352,7 +12350,7 @@
         <v>47.24</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:4">
       <c r="A794" s="2">
         <v>2022</v>
       </c>
@@ -12366,7 +12364,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:4">
       <c r="A795" s="2">
         <v>2022</v>
       </c>
@@ -12380,7 +12378,7 @@
         <v>93.97</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:4">
       <c r="A796" s="2">
         <v>2022</v>
       </c>
@@ -12394,7 +12392,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:4">
       <c r="A797" s="2">
         <v>2022</v>
       </c>
@@ -12408,7 +12406,7 @@
         <v>50.61</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:4">
       <c r="A798" s="2">
         <v>2022</v>
       </c>
@@ -12422,7 +12420,7 @@
         <v>14.91</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:4">
       <c r="A799" s="2">
         <v>2022</v>
       </c>
@@ -12436,7 +12434,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:4">
       <c r="A800" s="2">
         <v>2022</v>
       </c>
@@ -12450,7 +12448,7 @@
         <v>43.31</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:4">
       <c r="A801" s="2">
         <v>2022</v>
       </c>
@@ -12464,7 +12462,7 @@
         <v>40.03</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:4">
       <c r="A802" s="2">
         <v>2022</v>
       </c>
@@ -12478,7 +12476,7 @@
         <v>28.47</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:4">
       <c r="A803" s="2">
         <v>2022</v>
       </c>
@@ -12492,7 +12490,7 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:4">
       <c r="A804" s="2">
         <v>2022</v>
       </c>
@@ -12506,7 +12504,7 @@
         <v>16.07</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:4">
       <c r="A805" s="2">
         <v>2022</v>
       </c>
@@ -12520,7 +12518,7 @@
         <v>43.28</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:4">
       <c r="A806" s="2">
         <v>2022</v>
       </c>
@@ -12534,7 +12532,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:4">
       <c r="A807" s="2">
         <v>2022</v>
       </c>
@@ -12548,7 +12546,7 @@
         <v>46.23</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:4">
       <c r="A808" s="2">
         <v>2022</v>
       </c>
@@ -12562,7 +12560,7 @@
         <v>46.53</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:4">
       <c r="A809" s="2">
         <v>2022</v>
       </c>
@@ -12576,7 +12574,7 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:4">
       <c r="A810" s="2">
         <v>2022</v>
       </c>
@@ -12590,7 +12588,7 @@
         <v>38.770000000000003</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:4">
       <c r="A811" s="2">
         <v>2022</v>
       </c>
@@ -12604,7 +12602,7 @@
         <v>14.44</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:4">
       <c r="A812" s="2">
         <v>2022</v>
       </c>
@@ -12618,7 +12616,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:4">
       <c r="A813" s="2">
         <v>2022</v>
       </c>
@@ -12632,7 +12630,7 @@
         <v>11.81</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:4">
       <c r="A814" s="2">
         <v>2022</v>
       </c>
@@ -12646,7 +12644,7 @@
         <v>42.01</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:4">
       <c r="A815" s="2">
         <v>2022</v>
       </c>
@@ -12660,7 +12658,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:4">
       <c r="A816" s="2">
         <v>2022</v>
       </c>
@@ -12674,7 +12672,7 @@
         <v>10.97</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:4">
       <c r="A817" s="2">
         <v>2022</v>
       </c>
@@ -12688,7 +12686,7 @@
         <v>50.09</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:4">
       <c r="A818" s="2">
         <v>2022</v>
       </c>
@@ -12702,7 +12700,7 @@
         <v>70.19</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:4">
       <c r="A819" s="2">
         <v>2022</v>
       </c>
@@ -12716,7 +12714,7 @@
         <v>101.05</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:4">
       <c r="A820" s="2">
         <v>2022</v>
       </c>
@@ -12730,7 +12728,7 @@
         <v>60.99</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:4">
       <c r="A821" s="2">
         <v>2022</v>
       </c>
@@ -12744,7 +12742,7 @@
         <v>53.21</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:4">
       <c r="A822" s="2">
         <v>2022</v>
       </c>
@@ -12758,7 +12756,7 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:4">
       <c r="A823" s="2">
         <v>2022</v>
       </c>
@@ -12772,7 +12770,7 @@
         <v>56.32</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:4">
       <c r="A824" s="2">
         <v>2022</v>
       </c>
@@ -12786,7 +12784,7 @@
         <v>45.07</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:4">
       <c r="A825" s="2">
         <v>2022</v>
       </c>
@@ -12800,7 +12798,7 @@
         <v>42.49</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:4">
       <c r="A826" s="2">
         <v>2022</v>
       </c>
@@ -12814,7 +12812,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:4">
       <c r="A827" s="2">
         <v>2022</v>
       </c>
@@ -12828,7 +12826,7 @@
         <v>32.43</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:4">
       <c r="A828" s="2">
         <v>2022</v>
       </c>
@@ -12842,7 +12840,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:4">
       <c r="A829" s="2">
         <v>2022</v>
       </c>
@@ -12856,7 +12854,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:4">
       <c r="A830" s="2">
         <v>2022</v>
       </c>
@@ -12870,7 +12868,7 @@
         <v>34.159999999999997</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:4">
       <c r="A831" s="2">
         <v>2022</v>
       </c>
@@ -12884,7 +12882,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:4">
       <c r="A832" s="2">
         <v>2022</v>
       </c>
@@ -12898,7 +12896,7 @@
         <v>47.81</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:4">
       <c r="A833" s="2">
         <v>2022</v>
       </c>
@@ -12912,7 +12910,7 @@
         <v>34.130000000000003</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:4">
       <c r="A834" s="2">
         <v>2022</v>
       </c>
@@ -12926,7 +12924,7 @@
         <v>41.33</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:4">
       <c r="A835" s="2">
         <v>2022</v>
       </c>
@@ -12940,7 +12938,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:4">
       <c r="A836" s="2">
         <v>2022</v>
       </c>
@@ -12954,7 +12952,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:4">
       <c r="A837" s="2">
         <v>2022</v>
       </c>
@@ -12968,7 +12966,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:4">
       <c r="A838" s="2">
         <v>2022</v>
       </c>
@@ -12982,7 +12980,7 @@
         <v>45.15</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:4">
       <c r="A839" s="2">
         <v>2022</v>
       </c>
@@ -12996,7 +12994,7 @@
         <v>17.690000000000001</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:4">
       <c r="A840" s="2">
         <v>2022</v>
       </c>
@@ -13010,7 +13008,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:4">
       <c r="A841" s="2">
         <v>2022</v>
       </c>
@@ -13024,7 +13022,7 @@
         <v>53.36</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:4">
       <c r="A842" s="2">
         <v>2022</v>
       </c>
@@ -13038,7 +13036,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:4">
       <c r="A843" s="2">
         <v>2022</v>
       </c>
@@ -13052,7 +13050,7 @@
         <v>182.86</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:4">
       <c r="A844" s="2">
         <v>2022</v>
       </c>
@@ -13066,7 +13064,7 @@
         <v>83.33</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:4">
       <c r="A845" s="2">
         <v>2022</v>
       </c>
@@ -13080,7 +13078,7 @@
         <v>104.02</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:4">
       <c r="A846" s="2">
         <v>2022</v>
       </c>
@@ -13094,7 +13092,7 @@
         <v>15.92</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:4">
       <c r="A847" s="2">
         <v>2022</v>
       </c>
@@ -13108,7 +13106,7 @@
         <v>108.77</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:4">
       <c r="A848" s="2">
         <v>2022</v>
       </c>
@@ -13122,7 +13120,7 @@
         <v>94.72</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:4">
       <c r="A849" s="2">
         <v>2022</v>
       </c>
@@ -13136,7 +13134,7 @@
         <v>87.47</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:4">
       <c r="A850" s="2">
         <v>2022</v>
       </c>
@@ -13150,7 +13148,7 @@
         <v>72.03</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:4">
       <c r="A851" s="2">
         <v>2022</v>
       </c>
@@ -13164,7 +13162,7 @@
         <v>39.32</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:4">
       <c r="A852" s="2">
         <v>2022</v>
       </c>
@@ -13178,7 +13176,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:4">
       <c r="A853" s="2">
         <v>2022</v>
       </c>
@@ -13192,7 +13190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:4">
       <c r="A854" s="2">
         <v>2022</v>
       </c>
@@ -13206,7 +13204,7 @@
         <v>38.76</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:4">
       <c r="A855" s="2">
         <v>2022</v>
       </c>
@@ -13220,7 +13218,7 @@
         <v>91.24</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:4">
       <c r="A856" s="2">
         <v>2022</v>
       </c>
@@ -13234,7 +13232,7 @@
         <v>95.37</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:4">
       <c r="A857" s="2">
         <v>2022</v>
       </c>
@@ -13248,7 +13246,7 @@
         <v>75.31</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:4">
       <c r="A858" s="2">
         <v>2022</v>
       </c>
@@ -13262,7 +13260,7 @@
         <v>75.930000000000007</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:4">
       <c r="A859" s="2">
         <v>2022</v>
       </c>
@@ -13275,12 +13273,8 @@
       <c r="D859" s="2">
         <v>16.39</v>
       </c>
-      <c r="H859">
-        <f>AVERAGE(D842:D865)</f>
-        <v>68.502083333333331</v>
-      </c>
-    </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="860" spans="1:4">
       <c r="A860" s="2">
         <v>2022</v>
       </c>
@@ -13294,7 +13288,7 @@
         <v>30.67</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:4">
       <c r="A861" s="2">
         <v>2022</v>
       </c>
@@ -13308,7 +13302,7 @@
         <v>14.33</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:4">
       <c r="A862" s="2">
         <v>2022</v>
       </c>
@@ -13322,7 +13316,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:4">
       <c r="A863" s="2">
         <v>2022</v>
       </c>
@@ -13336,7 +13330,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:4">
       <c r="A864" s="2">
         <v>2022</v>
       </c>
@@ -13350,7 +13344,7 @@
         <v>13.48</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:4">
       <c r="A865" s="2">
         <v>2022</v>
       </c>
@@ -13365,7 +13359,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F865" xr:uid="{B32E496C-27EE-D545-91EB-CA7FB54A8B73}"/>
+  <autoFilter ref="A1:D865" xr:uid="{B32E496C-27EE-D545-91EB-CA7FB54A8B73}"/>
   <sortState ref="A2:D865">
     <sortCondition ref="A2:A865"/>
     <sortCondition ref="B2:B865"/>
